--- a/datamacro/data.xlsx
+++ b/datamacro/data.xlsx
@@ -5,23 +5,24 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idea.dev\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\module2modelisation\datamacro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" tabRatio="855" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7035" tabRatio="855"/>
   </bookViews>
   <sheets>
-    <sheet name="Comptes_nationaux" sheetId="4" r:id="rId1"/>
-    <sheet name="OGT" sheetId="5" r:id="rId2"/>
-    <sheet name="Balance_des_paiements" sheetId="7" r:id="rId3"/>
-    <sheet name="Situation_monétaire" sheetId="8" r:id="rId4"/>
+    <sheet name="pib_nominal" sheetId="9" r:id="rId1"/>
+    <sheet name="Comptes_nationaux" sheetId="4" r:id="rId2"/>
+    <sheet name="OGT" sheetId="5" r:id="rId3"/>
+    <sheet name="Balance_des_paiements" sheetId="7" r:id="rId4"/>
+    <sheet name="Situation_monétaire" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Balance_des_paiements!$A$1:$P$56</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Comptes_nationaux!$A$1:$P$82</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">OGT!$A$1:$P$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Situation_monétaire!$A$1:$P$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Balance_des_paiements!$A$1:$P$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Comptes_nationaux!$A$1:$P$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">OGT!$A$1:$P$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Situation_monétaire!$A$1:$P$19</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -1067,16 +1068,2079 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19">
+        <v>2007</v>
+      </c>
+      <c r="C1" s="19">
+        <v>2008</v>
+      </c>
+      <c r="D1" s="19">
+        <v>2009</v>
+      </c>
+      <c r="E1" s="19">
+        <v>2010</v>
+      </c>
+      <c r="F1" s="19">
+        <v>2011</v>
+      </c>
+      <c r="G1" s="19">
+        <v>2012</v>
+      </c>
+      <c r="H1" s="19">
+        <v>2013</v>
+      </c>
+      <c r="I1" s="19">
+        <v>2014</v>
+      </c>
+      <c r="J1" s="19">
+        <v>2015</v>
+      </c>
+      <c r="K1" s="19">
+        <v>2016</v>
+      </c>
+      <c r="L1" s="19">
+        <v>2017</v>
+      </c>
+      <c r="M1" s="19">
+        <v>2018</v>
+      </c>
+      <c r="N1" s="19">
+        <v>2019</v>
+      </c>
+      <c r="O1" s="19">
+        <v>2020</v>
+      </c>
+      <c r="P1" s="19">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="9">
+        <v>4483.4494526448307</v>
+      </c>
+      <c r="C2" s="9">
+        <v>4956.7108863259164</v>
+      </c>
+      <c r="D2" s="9">
+        <v>5731.2851157459882</v>
+      </c>
+      <c r="E2" s="9">
+        <v>6066.6701208627137</v>
+      </c>
+      <c r="F2" s="9">
+        <v>6795.9447301192404</v>
+      </c>
+      <c r="G2" s="9">
+        <v>7116.4856372454869</v>
+      </c>
+      <c r="H2" s="9">
+        <v>7263.7860188218747</v>
+      </c>
+      <c r="I2" s="9">
+        <v>7815.7946401281642</v>
+      </c>
+      <c r="J2" s="9">
+        <v>8550.9577761540022</v>
+      </c>
+      <c r="K2" s="9">
+        <v>9459.6254985156465</v>
+      </c>
+      <c r="L2" s="9">
+        <v>10080.002413338638</v>
+      </c>
+      <c r="M2" s="9">
+        <v>11000.499065174465</v>
+      </c>
+      <c r="N2" s="9">
+        <v>11715.77291524021</v>
+      </c>
+      <c r="O2" s="9">
+        <v>12207.117414973949</v>
+      </c>
+      <c r="P2" s="9">
+        <v>12926.132930907246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3072.974827131723</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3388.2277499652055</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3959.9463961197825</v>
+      </c>
+      <c r="E3" s="9">
+        <v>4286.6651137098406</v>
+      </c>
+      <c r="F3" s="9">
+        <v>4845.3548153533193</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4822.9991608618166</v>
+      </c>
+      <c r="H3" s="9">
+        <v>4785.4573880166754</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5129.1483497409918</v>
+      </c>
+      <c r="J3" s="9">
+        <v>5458.4643286143273</v>
+      </c>
+      <c r="K3" s="9">
+        <v>5886.4513579062223</v>
+      </c>
+      <c r="L3" s="9">
+        <v>6269.4933663655547</v>
+      </c>
+      <c r="M3" s="9">
+        <v>7106.9379086155186</v>
+      </c>
+      <c r="N3" s="9">
+        <v>7536.5226618324541</v>
+      </c>
+      <c r="O3" s="9">
+        <v>7649.2797330338635</v>
+      </c>
+      <c r="P3" s="9">
+        <v>8284.5034127970466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1243.6476739533568</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1402.480147786488</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1531.5149067906691</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1483.3532095039341</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1652.6543000512611</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2014.5217266950458</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2139.0386932725414</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2310.2476290487712</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2684.1372643653303</v>
+      </c>
+      <c r="K4" s="9">
+        <v>3100.9189397693053</v>
+      </c>
+      <c r="L4" s="9">
+        <v>3229.9410024057015</v>
+      </c>
+      <c r="M4" s="9">
+        <v>3268.3723249769801</v>
+      </c>
+      <c r="N4" s="9">
+        <v>3525.5049610289361</v>
+      </c>
+      <c r="O4" s="9">
+        <v>3862.1545308051736</v>
+      </c>
+      <c r="P4" s="9">
+        <v>3900.8420791331409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="9">
+        <v>166.8269515597508</v>
+      </c>
+      <c r="C5" s="9">
+        <v>166.002988574222</v>
+      </c>
+      <c r="D5" s="9">
+        <v>239.82381283553693</v>
+      </c>
+      <c r="E5" s="9">
+        <v>296.65179764893878</v>
+      </c>
+      <c r="F5" s="9">
+        <v>297.93561471466006</v>
+      </c>
+      <c r="G5" s="9">
+        <v>278.96474968862452</v>
+      </c>
+      <c r="H5" s="9">
+        <v>339.28993753265769</v>
+      </c>
+      <c r="I5" s="9">
+        <v>376.39866133840161</v>
+      </c>
+      <c r="J5" s="9">
+        <v>408.35618317434449</v>
+      </c>
+      <c r="K5" s="9">
+        <v>472.25520084011976</v>
+      </c>
+      <c r="L5" s="9">
+        <v>580.56804456737984</v>
+      </c>
+      <c r="M5" s="9">
+        <v>625.18883158196502</v>
+      </c>
+      <c r="N5" s="9">
+        <v>653.74529237881927</v>
+      </c>
+      <c r="O5" s="9">
+        <v>695.68315113491178</v>
+      </c>
+      <c r="P5" s="9">
+        <v>740.78743897705954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1735.3916995681498</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2125.5882928823999</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2089.0866881851607</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2366.402920630916</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2567.4618787139984</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2851.2514227925881</v>
+      </c>
+      <c r="H6" s="9">
+        <v>3412.9851137854566</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4080.2967015507993</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4183.01536525142</v>
+      </c>
+      <c r="K6" s="9">
+        <v>5031.0922710484565</v>
+      </c>
+      <c r="L6" s="9">
+        <v>5548.6572300595699</v>
+      </c>
+      <c r="M6" s="9">
+        <v>6776.355975162508</v>
+      </c>
+      <c r="N6" s="9">
+        <v>7662.0193031966519</v>
+      </c>
+      <c r="O6" s="9">
+        <v>6190.7894774436481</v>
+      </c>
+      <c r="P6" s="9">
+        <v>8167.0889679984439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="9">
+        <v>111.84318944801835</v>
+      </c>
+      <c r="C7" s="9">
+        <v>156.90537130279</v>
+      </c>
+      <c r="D7" s="9">
+        <v>161.11430640214428</v>
+      </c>
+      <c r="E7" s="9">
+        <v>244.29396079788395</v>
+      </c>
+      <c r="F7" s="9">
+        <v>283.23315580054719</v>
+      </c>
+      <c r="G7" s="9">
+        <v>388.12126437005236</v>
+      </c>
+      <c r="H7" s="9">
+        <v>807.76057963385631</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1118.8770156029495</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1051.2050499796549</v>
+      </c>
+      <c r="K7" s="9">
+        <v>851.83932856136789</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1413.3732245308743</v>
+      </c>
+      <c r="M7" s="9">
+        <v>2118.4734313466142</v>
+      </c>
+      <c r="N7" s="9">
+        <v>2115.9666280547463</v>
+      </c>
+      <c r="O7" s="9">
+        <v>979.65232752355644</v>
+      </c>
+      <c r="P7" s="9">
+        <v>2449.9765240448251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="9">
+        <v>687.66884003035102</v>
+      </c>
+      <c r="C8" s="9">
+        <v>834.32436183578739</v>
+      </c>
+      <c r="D8" s="9">
+        <v>821.09399832458985</v>
+      </c>
+      <c r="E8" s="9">
+        <v>885.00674859674109</v>
+      </c>
+      <c r="F8" s="9">
+        <v>984.81995637288674</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1083.9653565265539</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1266.3626181366735</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1547.2581307198443</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1546.0767147618417</v>
+      </c>
+      <c r="K8" s="9">
+        <v>2374.0414299112754</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2120.4456905401239</v>
+      </c>
+      <c r="M8" s="9">
+        <v>2399.3064845539275</v>
+      </c>
+      <c r="N8" s="9">
+        <v>2935.1829607071904</v>
+      </c>
+      <c r="O8" s="9">
+        <v>2743.5060370695101</v>
+      </c>
+      <c r="P8" s="9">
+        <v>2643.0763236470111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="9">
+        <v>180.27178541101557</v>
+      </c>
+      <c r="C9" s="9">
+        <v>205.73032431700904</v>
+      </c>
+      <c r="D9" s="9">
+        <v>186.56875372027571</v>
+      </c>
+      <c r="E9" s="9">
+        <v>229.30363030337776</v>
+      </c>
+      <c r="F9" s="9">
+        <v>253.93036214362542</v>
+      </c>
+      <c r="G9" s="9">
+        <v>275.16852196026434</v>
+      </c>
+      <c r="H9" s="9">
+        <v>258.18215876962495</v>
+      </c>
+      <c r="I9" s="9">
+        <v>280.9176268848978</v>
+      </c>
+      <c r="J9" s="9">
+        <v>274.27298213509357</v>
+      </c>
+      <c r="K9" s="9">
+        <v>355.23611953556428</v>
+      </c>
+      <c r="L9" s="9">
+        <v>434.9994345471755</v>
+      </c>
+      <c r="M9" s="9">
+        <v>487.90089545762839</v>
+      </c>
+      <c r="N9" s="9">
+        <v>592.85875044391423</v>
+      </c>
+      <c r="O9" s="9">
+        <v>571.17293297633842</v>
+      </c>
+      <c r="P9" s="9">
+        <v>996.02836976082017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="9">
+        <v>161.86884462511574</v>
+      </c>
+      <c r="C10" s="9">
+        <v>165.83233099298985</v>
+      </c>
+      <c r="D10" s="9">
+        <v>190.48282486317683</v>
+      </c>
+      <c r="E10" s="9">
+        <v>251.2618966112623</v>
+      </c>
+      <c r="F10" s="9">
+        <v>257.51623053677605</v>
+      </c>
+      <c r="G10" s="9">
+        <v>260.83576670405142</v>
+      </c>
+      <c r="H10" s="9">
+        <v>270.28923523429808</v>
+      </c>
+      <c r="I10" s="9">
+        <v>293.29269937798017</v>
+      </c>
+      <c r="J10" s="9">
+        <v>338.56794457765528</v>
+      </c>
+      <c r="K10" s="9">
+        <v>384.61382570225828</v>
+      </c>
+      <c r="L10" s="9">
+        <v>394.49376583260698</v>
+      </c>
+      <c r="M10" s="9">
+        <v>446.49890244368453</v>
+      </c>
+      <c r="N10" s="9">
+        <v>472.31384166935504</v>
+      </c>
+      <c r="O10" s="9">
+        <v>398.86271612434075</v>
+      </c>
+      <c r="P10" s="9">
+        <v>432.67872606120289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="9">
+        <v>55.994363546928639</v>
+      </c>
+      <c r="C11" s="9">
+        <v>71.082876125945489</v>
+      </c>
+      <c r="D11" s="9">
+        <v>64.134796814658301</v>
+      </c>
+      <c r="E11" s="9">
+        <v>67.127410152503515</v>
+      </c>
+      <c r="F11" s="9">
+        <v>66.208813701024113</v>
+      </c>
+      <c r="G11" s="9">
+        <v>67.160021590643851</v>
+      </c>
+      <c r="H11" s="9">
+        <v>64.394568765921576</v>
+      </c>
+      <c r="I11" s="9">
+        <v>68.345068089601199</v>
+      </c>
+      <c r="J11" s="9">
+        <v>68.784457199356964</v>
+      </c>
+      <c r="K11" s="9">
+        <v>68.859921638618644</v>
+      </c>
+      <c r="L11" s="9">
+        <v>78.939145197813843</v>
+      </c>
+      <c r="M11" s="9">
+        <v>91.050572562486522</v>
+      </c>
+      <c r="N11" s="9">
+        <v>98.976770589488453</v>
+      </c>
+      <c r="O11" s="9">
+        <v>88.246654348055586</v>
+      </c>
+      <c r="P11" s="9">
+        <v>110.34674139141313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="9">
+        <v>156.49502948864099</v>
+      </c>
+      <c r="C12" s="9">
+        <v>244.77342953585563</v>
+      </c>
+      <c r="D12" s="9">
+        <v>203.00253155094947</v>
+      </c>
+      <c r="E12" s="9">
+        <v>176.8889460265392</v>
+      </c>
+      <c r="F12" s="9">
+        <v>202.6022771932104</v>
+      </c>
+      <c r="G12" s="9">
+        <v>221.79157570915046</v>
+      </c>
+      <c r="H12" s="9">
+        <v>202.95408150448409</v>
+      </c>
+      <c r="I12" s="9">
+        <v>221.81676482631619</v>
+      </c>
+      <c r="J12" s="9">
+        <v>270.16976612711915</v>
+      </c>
+      <c r="K12" s="9">
+        <v>287.01814650794591</v>
+      </c>
+      <c r="L12" s="9">
+        <v>327.26049473379908</v>
+      </c>
+      <c r="M12" s="9">
+        <v>374.4664843902209</v>
+      </c>
+      <c r="N12" s="9">
+        <v>428.19196746404606</v>
+      </c>
+      <c r="O12" s="9">
+        <v>471.88490682390193</v>
+      </c>
+      <c r="P12" s="9">
+        <v>535.75185411609459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="9">
+        <v>63.601395249981621</v>
+      </c>
+      <c r="C13" s="9">
+        <v>50.276023421849359</v>
+      </c>
+      <c r="D13" s="9">
+        <v>41.308931467881251</v>
+      </c>
+      <c r="E13" s="9">
+        <v>31.352636456939081</v>
+      </c>
+      <c r="F13" s="9">
+        <v>27.642218442035276</v>
+      </c>
+      <c r="G13" s="9">
+        <v>30.510427207839925</v>
+      </c>
+      <c r="H13" s="9">
+        <v>31.905567714632951</v>
+      </c>
+      <c r="I13" s="9">
+        <v>34.288681487378128</v>
+      </c>
+      <c r="J13" s="9">
+        <v>33.060694951284646</v>
+      </c>
+      <c r="K13" s="9">
+        <v>37.383462915649275</v>
+      </c>
+      <c r="L13" s="9">
+        <v>47.389718149318156</v>
+      </c>
+      <c r="M13" s="9">
+        <v>50.596314839263997</v>
+      </c>
+      <c r="N13" s="9">
+        <v>51.491129164147907</v>
+      </c>
+      <c r="O13" s="9">
+        <v>53.118662457881342</v>
+      </c>
+      <c r="P13" s="9">
+        <v>55.308907231896782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="9">
+        <v>157.79635639733468</v>
+      </c>
+      <c r="C14" s="9">
+        <v>203.65811560027097</v>
+      </c>
+      <c r="D14" s="9">
+        <v>216.4309032981252</v>
+      </c>
+      <c r="E14" s="9">
+        <v>228.2138868052742</v>
+      </c>
+      <c r="F14" s="9">
+        <v>248.24122578964872</v>
+      </c>
+      <c r="G14" s="9">
+        <v>262.87008079462458</v>
+      </c>
+      <c r="H14" s="9">
+        <v>272.02509472183783</v>
+      </c>
+      <c r="I14" s="9">
+        <v>287.50780358692003</v>
+      </c>
+      <c r="J14" s="9">
+        <v>295.00372880498412</v>
+      </c>
+      <c r="K14" s="9">
+        <v>330.11591742970916</v>
+      </c>
+      <c r="L14" s="9">
+        <v>369.0227983040611</v>
+      </c>
+      <c r="M14" s="9">
+        <v>449.54119899145064</v>
+      </c>
+      <c r="N14" s="9">
+        <v>570.46413306291004</v>
+      </c>
+      <c r="O14" s="9">
+        <v>480.81728366038323</v>
+      </c>
+      <c r="P14" s="9">
+        <v>520.69951478712528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="9">
+        <v>159.85189537076297</v>
+      </c>
+      <c r="C15" s="9">
+        <v>193.00545974990209</v>
+      </c>
+      <c r="D15" s="9">
+        <v>204.94964174335959</v>
+      </c>
+      <c r="E15" s="9">
+        <v>252.95380488039501</v>
+      </c>
+      <c r="F15" s="9">
+        <v>243.26763873424468</v>
+      </c>
+      <c r="G15" s="9">
+        <v>260.82840792940726</v>
+      </c>
+      <c r="H15" s="9">
+        <v>239.11120930412693</v>
+      </c>
+      <c r="I15" s="9">
+        <v>227.99291097491204</v>
+      </c>
+      <c r="J15" s="9">
+        <v>305.87402671442914</v>
+      </c>
+      <c r="K15" s="9">
+        <v>341.98411884606747</v>
+      </c>
+      <c r="L15" s="9">
+        <v>362.73295822379725</v>
+      </c>
+      <c r="M15" s="9">
+        <v>358.5216905772312</v>
+      </c>
+      <c r="N15" s="9">
+        <v>396.57312204085321</v>
+      </c>
+      <c r="O15" s="9">
+        <v>403.52795645968081</v>
+      </c>
+      <c r="P15" s="9">
+        <v>423.22200695805509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="9">
+        <v>8958.8379843299099</v>
+      </c>
+      <c r="C16" s="9">
+        <v>10373.31990267225</v>
+      </c>
+      <c r="D16" s="9">
+        <v>10298.810965610675</v>
+      </c>
+      <c r="E16" s="9">
+        <v>11562.323185604057</v>
+      </c>
+      <c r="F16" s="9">
+        <v>13103.585783429366</v>
+      </c>
+      <c r="G16" s="9">
+        <v>14489.960496556558</v>
+      </c>
+      <c r="H16" s="9">
+        <v>15617.782730677569</v>
+      </c>
+      <c r="I16" s="9">
+        <v>17106.92869929221</v>
+      </c>
+      <c r="J16" s="9">
+        <v>18974.950089649781</v>
+      </c>
+      <c r="K16" s="9">
+        <v>21473.550728379229</v>
+      </c>
+      <c r="L16" s="9">
+        <v>23669.50200496196</v>
+      </c>
+      <c r="M16" s="9">
+        <v>25445.627085579272</v>
+      </c>
+      <c r="N16" s="9">
+        <v>29210.361334825691</v>
+      </c>
+      <c r="O16" s="9">
+        <v>28344.550731424715</v>
+      </c>
+      <c r="P16" s="9">
+        <v>31560.602516676681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1284.8021165709874</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1624.7726588845139</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1453.9288776603698</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1390.5722817547694</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1609.0956392944477</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1539.545620904428</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1497.4227539681242</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1740.9499860871001</v>
+      </c>
+      <c r="J17" s="9">
+        <v>2111.7437814929926</v>
+      </c>
+      <c r="K17" s="9">
+        <v>2274.3422694266696</v>
+      </c>
+      <c r="L17" s="9">
+        <v>2709.2440369410479</v>
+      </c>
+      <c r="M17" s="9">
+        <v>3080.919909360699</v>
+      </c>
+      <c r="N17" s="9">
+        <v>3793.0888664114982</v>
+      </c>
+      <c r="O17" s="9">
+        <v>3432.4465284528542</v>
+      </c>
+      <c r="P17" s="9">
+        <v>3943.860590188604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1929.213140863026</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2152.9439648365033</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2342.948749602032</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2595.789214349858</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2871.2584456216728</v>
+      </c>
+      <c r="G18" s="9">
+        <v>3212.3039107650184</v>
+      </c>
+      <c r="H18" s="9">
+        <v>3221.152939941132</v>
+      </c>
+      <c r="I18" s="9">
+        <v>3222.8549604384089</v>
+      </c>
+      <c r="J18" s="9">
+        <v>3691.6946987668243</v>
+      </c>
+      <c r="K18" s="9">
+        <v>4250.3309657013424</v>
+      </c>
+      <c r="L18" s="9">
+        <v>3928.8042632784518</v>
+      </c>
+      <c r="M18" s="9">
+        <v>4370.1910932884275</v>
+      </c>
+      <c r="N18" s="9">
+        <v>4845.5283298538543</v>
+      </c>
+      <c r="O18" s="9">
+        <v>5157.1365082086195</v>
+      </c>
+      <c r="P18" s="9">
+        <v>5941.8299690635267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="9">
+        <v>484.27001319253861</v>
+      </c>
+      <c r="C19" s="9">
+        <v>663.22208531800493</v>
+      </c>
+      <c r="D19" s="9">
+        <v>557.81702426477409</v>
+      </c>
+      <c r="E19" s="9">
+        <v>630.32225681188629</v>
+      </c>
+      <c r="F19" s="9">
+        <v>738.45115403316822</v>
+      </c>
+      <c r="G19" s="9">
+        <v>964.8153492573382</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1058.5583113799398</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1444.7795445443858</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1565.4060519195448</v>
+      </c>
+      <c r="K19" s="9">
+        <v>2123.6910859051777</v>
+      </c>
+      <c r="L19" s="9">
+        <v>2474.1139853225795</v>
+      </c>
+      <c r="M19" s="9">
+        <v>1683.6705065034544</v>
+      </c>
+      <c r="N19" s="9">
+        <v>2030.9340099685246</v>
+      </c>
+      <c r="O19" s="9">
+        <v>791.02708244348037</v>
+      </c>
+      <c r="P19" s="9">
+        <v>1109.2057436224334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1208.2120322503429</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1403.2117091029493</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1240.1158550463319</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1505.6759351627263</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1601.3739899808913</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1701.024309618399</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1719.4888494065415</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1849.532525900773</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1946.2146916420536</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1994.3108071770591</v>
+      </c>
+      <c r="L20" s="9">
+        <v>2669.0032550917499</v>
+      </c>
+      <c r="M20" s="9">
+        <v>2650.495516644603</v>
+      </c>
+      <c r="N20" s="9">
+        <v>2893.6770313105508</v>
+      </c>
+      <c r="O20" s="9">
+        <v>2996.1487884759035</v>
+      </c>
+      <c r="P20" s="9">
+        <v>3677.8405794881323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="9">
+        <v>290.86260601210245</v>
+      </c>
+      <c r="C21" s="9">
+        <v>358.15438215958159</v>
+      </c>
+      <c r="D21" s="9">
+        <v>422.23214476943809</v>
+      </c>
+      <c r="E21" s="9">
+        <v>443.60889519277998</v>
+      </c>
+      <c r="F21" s="9">
+        <v>535.19289696816838</v>
+      </c>
+      <c r="G21" s="9">
+        <v>487.10821814878636</v>
+      </c>
+      <c r="H21" s="9">
+        <v>658.08653642213039</v>
+      </c>
+      <c r="I21" s="9">
+        <v>722.68152738841877</v>
+      </c>
+      <c r="J21" s="9">
+        <v>738.15512870454734</v>
+      </c>
+      <c r="K21" s="9">
+        <v>768.98478586915428</v>
+      </c>
+      <c r="L21" s="9">
+        <v>976.8659309657005</v>
+      </c>
+      <c r="M21" s="9">
+        <v>873.93114235802693</v>
+      </c>
+      <c r="N21" s="9">
+        <v>1007.1840616129128</v>
+      </c>
+      <c r="O21" s="9">
+        <v>1256.5002352862984</v>
+      </c>
+      <c r="P21" s="9">
+        <v>1364.5520178450724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="9">
+        <v>325.40903271505334</v>
+      </c>
+      <c r="C22" s="9">
+        <v>479.02336867656248</v>
+      </c>
+      <c r="D22" s="9">
+        <v>526.01825772081747</v>
+      </c>
+      <c r="E22" s="9">
+        <v>540.80765740502852</v>
+      </c>
+      <c r="F22" s="9">
+        <v>673.25278995756662</v>
+      </c>
+      <c r="G22" s="9">
+        <v>734.85307583347662</v>
+      </c>
+      <c r="H22" s="9">
+        <v>824.38615740491082</v>
+      </c>
+      <c r="I22" s="9">
+        <v>929.10874938089603</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1041.053851784254</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1163.8254277047586</v>
+      </c>
+      <c r="L22" s="9">
+        <v>1189.22</v>
+      </c>
+      <c r="M22" s="9">
+        <v>1202.5520686500722</v>
+      </c>
+      <c r="N22" s="9">
+        <v>1241.3082829923878</v>
+      </c>
+      <c r="O22" s="9">
+        <v>1268.9574631072974</v>
+      </c>
+      <c r="P22" s="9">
+        <v>1376.6768369032918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1228.0090929034977</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1385.499946192444</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1422.5301588288764</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1592.4525720787651</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1804.4090763495146</v>
+      </c>
+      <c r="G23" s="9">
+        <v>2007.5184250205498</v>
+      </c>
+      <c r="H23" s="9">
+        <v>2438.0395115717679</v>
+      </c>
+      <c r="I23" s="9">
+        <v>2631.6310209882258</v>
+      </c>
+      <c r="J23" s="9">
+        <v>3082.4413061176565</v>
+      </c>
+      <c r="K23" s="9">
+        <v>3590.3544629574926</v>
+      </c>
+      <c r="L23" s="9">
+        <v>3834.7724586482809</v>
+      </c>
+      <c r="M23" s="9">
+        <v>4082.7781509297329</v>
+      </c>
+      <c r="N23" s="9">
+        <v>4562.6470953891185</v>
+      </c>
+      <c r="O23" s="9">
+        <v>4015.408089864819</v>
+      </c>
+      <c r="P23" s="9">
+        <v>4207.2914800026811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1211.0407640904571</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1423.511180928137</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1423.8499308319083</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1782.696334718933</v>
+      </c>
+      <c r="F24" s="9">
+        <v>2119.1000025042931</v>
+      </c>
+      <c r="G24" s="9">
+        <v>2459.1748172147136</v>
+      </c>
+      <c r="H24" s="9">
+        <v>2701.174119239111</v>
+      </c>
+      <c r="I24" s="9">
+        <v>2971.1150591289297</v>
+      </c>
+      <c r="J24" s="9">
+        <v>3084.6588291296857</v>
+      </c>
+      <c r="K24" s="9">
+        <v>3408.9139438161628</v>
+      </c>
+      <c r="L24" s="9">
+        <v>3776.8216171031809</v>
+      </c>
+      <c r="M24" s="9">
+        <v>4616.5281001052263</v>
+      </c>
+      <c r="N24" s="9">
+        <v>5775.2251327999093</v>
+      </c>
+      <c r="O24" s="9">
+        <v>6251.9699324684252</v>
+      </c>
+      <c r="P24" s="9">
+        <v>6640.9566481139764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="9">
+        <v>509.23937264426991</v>
+      </c>
+      <c r="C25" s="9">
+        <v>398.55921543887922</v>
+      </c>
+      <c r="D25" s="9">
+        <v>405.461834679969</v>
+      </c>
+      <c r="E25" s="9">
+        <v>470.45973418825554</v>
+      </c>
+      <c r="F25" s="9">
+        <v>481.83729845814042</v>
+      </c>
+      <c r="G25" s="9">
+        <v>630.57648637554348</v>
+      </c>
+      <c r="H25" s="9">
+        <v>654.19149953708097</v>
+      </c>
+      <c r="I25" s="9">
+        <v>684.21445368943864</v>
+      </c>
+      <c r="J25" s="9">
+        <v>731.66167263383022</v>
+      </c>
+      <c r="K25" s="9">
+        <v>808.64450719351407</v>
+      </c>
+      <c r="L25" s="9">
+        <v>949.77637806365897</v>
+      </c>
+      <c r="M25" s="9">
+        <v>1344.6299751736726</v>
+      </c>
+      <c r="N25" s="9">
+        <v>1535.0760472613547</v>
+      </c>
+      <c r="O25" s="9">
+        <v>1565.1633770891842</v>
+      </c>
+      <c r="P25" s="9">
+        <v>1626.7919057934619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="9">
+        <v>247.34746614763509</v>
+      </c>
+      <c r="C26" s="9">
+        <v>222.87103269080382</v>
+      </c>
+      <c r="D26" s="9">
+        <v>235.22295329209089</v>
+      </c>
+      <c r="E26" s="9">
+        <v>302.35200772005862</v>
+      </c>
+      <c r="F26" s="9">
+        <v>363.10689075737491</v>
+      </c>
+      <c r="G26" s="9">
+        <v>403.57238639684897</v>
+      </c>
+      <c r="H26" s="9">
+        <v>428.51219565872498</v>
+      </c>
+      <c r="I26" s="9">
+        <v>455.53162332785109</v>
+      </c>
+      <c r="J26" s="9">
+        <v>475.90550495206111</v>
+      </c>
+      <c r="K26" s="9">
+        <v>539.99958423951557</v>
+      </c>
+      <c r="L26" s="9">
+        <v>585.39175447573098</v>
+      </c>
+      <c r="M26" s="9">
+        <v>766.38849967027136</v>
+      </c>
+      <c r="N26" s="9">
+        <v>819.7845250968802</v>
+      </c>
+      <c r="O26" s="9">
+        <v>946.52718410723583</v>
+      </c>
+      <c r="P26" s="9">
+        <v>1025.0407838303195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="9">
+        <v>240.43234693999818</v>
+      </c>
+      <c r="C27" s="9">
+        <v>261.5503584438701</v>
+      </c>
+      <c r="D27" s="9">
+        <v>268.68517891406964</v>
+      </c>
+      <c r="E27" s="9">
+        <v>307.58629622099409</v>
+      </c>
+      <c r="F27" s="9">
+        <v>306.50759950412839</v>
+      </c>
+      <c r="G27" s="9">
+        <v>349.46789702145725</v>
+      </c>
+      <c r="H27" s="9">
+        <v>416.76985614810599</v>
+      </c>
+      <c r="I27" s="9">
+        <v>454.52924841778071</v>
+      </c>
+      <c r="J27" s="9">
+        <v>506.01457250633098</v>
+      </c>
+      <c r="K27" s="9">
+        <v>550.15288838838546</v>
+      </c>
+      <c r="L27" s="9">
+        <v>575.48832507157704</v>
+      </c>
+      <c r="M27" s="9">
+        <v>773.54212289508109</v>
+      </c>
+      <c r="N27" s="9">
+        <v>705.90795212870376</v>
+      </c>
+      <c r="O27" s="9">
+        <v>663.26554192059598</v>
+      </c>
+      <c r="P27" s="9">
+        <v>646.55596182518377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="9">
+        <v>-253.51763578791349</v>
+      </c>
+      <c r="C28" s="9">
+        <v>-409.92760802320964</v>
+      </c>
+      <c r="D28" s="9">
+        <v>-393.67215436594341</v>
+      </c>
+      <c r="E28" s="9">
+        <v>-441.61538844030633</v>
+      </c>
+      <c r="F28" s="9">
+        <v>-530.39797828123699</v>
+      </c>
+      <c r="G28" s="9">
+        <v>-597.58566964031286</v>
+      </c>
+      <c r="H28" s="9">
+        <v>-634.11647829688138</v>
+      </c>
+      <c r="I28" s="9">
+        <v>-676.40026185185206</v>
+      </c>
+      <c r="J28" s="9">
+        <v>-664.15022494960135</v>
+      </c>
+      <c r="K28" s="9">
+        <v>-817.79120736747598</v>
+      </c>
+      <c r="L28" s="9">
+        <v>-887.69592998164001</v>
+      </c>
+      <c r="M28" s="9">
+        <v>-775.44343839727992</v>
+      </c>
+      <c r="N28" s="9">
+        <v>-949.84794150216715</v>
+      </c>
+      <c r="O28" s="9">
+        <v>-1222.7382404649379</v>
+      </c>
+      <c r="P28" s="9">
+        <v>-1290.6650322779817</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="9">
+        <v>14924.161500754977</v>
+      </c>
+      <c r="C29" s="9">
+        <v>17045.691473857354</v>
+      </c>
+      <c r="D29" s="9">
+        <v>17725.510615175881</v>
+      </c>
+      <c r="E29" s="9">
+        <v>19553.780838657378</v>
+      </c>
+      <c r="F29" s="9">
+        <v>21936.594413981369</v>
+      </c>
+      <c r="G29" s="9">
+        <v>23860.111886954321</v>
+      </c>
+      <c r="H29" s="9">
+        <v>25660.437384988021</v>
+      </c>
+      <c r="I29" s="9">
+        <v>28326.619779119319</v>
+      </c>
+      <c r="J29" s="9">
+        <v>31044.773006105603</v>
+      </c>
+      <c r="K29" s="9">
+        <v>35146.477290575858</v>
+      </c>
+      <c r="L29" s="9">
+        <v>38410.465718378524</v>
+      </c>
+      <c r="M29" s="9">
+        <v>42447.038687518965</v>
+      </c>
+      <c r="N29" s="9">
+        <v>47638.305611760385</v>
+      </c>
+      <c r="O29" s="9">
+        <v>45519.719383377378</v>
+      </c>
+      <c r="P29" s="9">
+        <v>51363.159383304388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1049.9266788587063</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1276.8209931822403</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1087.0849803865499</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1309.5867224282101</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1457.1976505480498</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1555.3524122690201</v>
+      </c>
+      <c r="H30" s="9">
+        <v>1757.2831535241901</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1913.9638540453202</v>
+      </c>
+      <c r="J30" s="9">
+        <v>2171.4025756195301</v>
+      </c>
+      <c r="K30" s="9">
+        <v>2491.1087049162052</v>
+      </c>
+      <c r="L30" s="9">
+        <v>2648.3768335930286</v>
+      </c>
+      <c r="M30" s="9">
+        <v>3439.2633291511102</v>
+      </c>
+      <c r="N30" s="9">
+        <v>3396.9108945466814</v>
+      </c>
+      <c r="O30" s="9">
+        <v>3915.9299999999989</v>
+      </c>
+      <c r="P30" s="9">
+        <v>4381.2264803929293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="9">
+        <v>15974.088179613684</v>
+      </c>
+      <c r="C31" s="9">
+        <v>18322.512467039596</v>
+      </c>
+      <c r="D31" s="9">
+        <v>18812.59559556243</v>
+      </c>
+      <c r="E31" s="9">
+        <v>20863.367561085586</v>
+      </c>
+      <c r="F31" s="9">
+        <v>23393.792064529418</v>
+      </c>
+      <c r="G31" s="9">
+        <v>25415.464299223342</v>
+      </c>
+      <c r="H31" s="9">
+        <v>27417.720538512211</v>
+      </c>
+      <c r="I31" s="9">
+        <v>30240.583633164639</v>
+      </c>
+      <c r="J31" s="9">
+        <v>33216.175581725132</v>
+      </c>
+      <c r="K31" s="9">
+        <v>37637.58599549206</v>
+      </c>
+      <c r="L31" s="9">
+        <v>41058.842551971553</v>
+      </c>
+      <c r="M31" s="9">
+        <v>45886.302016670073</v>
+      </c>
+      <c r="N31" s="9">
+        <v>51035.216506307064</v>
+      </c>
+      <c r="O31" s="9">
+        <v>49435.649383377378</v>
+      </c>
+      <c r="P31" s="9">
+        <v>55744.385863697316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="9">
+        <v>15974.088179613685</v>
+      </c>
+      <c r="C32" s="9">
+        <v>18322.512467039596</v>
+      </c>
+      <c r="D32" s="9">
+        <v>18812.59559556243</v>
+      </c>
+      <c r="E32" s="9">
+        <v>20863.367561085586</v>
+      </c>
+      <c r="F32" s="9">
+        <v>23393.792064529418</v>
+      </c>
+      <c r="G32" s="9">
+        <v>25415.464299223342</v>
+      </c>
+      <c r="H32" s="9">
+        <v>27417.720538512211</v>
+      </c>
+      <c r="I32" s="9">
+        <v>30240.583633164639</v>
+      </c>
+      <c r="J32" s="9">
+        <v>33216.175581725125</v>
+      </c>
+      <c r="K32" s="9">
+        <v>37637.58599549206</v>
+      </c>
+      <c r="L32" s="9">
+        <v>41058.842551971553</v>
+      </c>
+      <c r="M32" s="9">
+        <v>45886.302016670073</v>
+      </c>
+      <c r="N32" s="9">
+        <v>51035.216506307064</v>
+      </c>
+      <c r="O32" s="9">
+        <v>49435.649383377378</v>
+      </c>
+      <c r="P32" s="9">
+        <v>55744.385863697316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="9">
+        <v>14439.755929063798</v>
+      </c>
+      <c r="C33" s="9">
+        <v>15729.707704735358</v>
+      </c>
+      <c r="D33" s="9">
+        <v>16886.696907407098</v>
+      </c>
+      <c r="E33" s="9">
+        <v>19315.010404396835</v>
+      </c>
+      <c r="F33" s="9">
+        <v>21789.913775083463</v>
+      </c>
+      <c r="G33" s="9">
+        <v>23935.972436623611</v>
+      </c>
+      <c r="H33" s="9">
+        <v>27075.249083932416</v>
+      </c>
+      <c r="I33" s="9">
+        <v>28554.246984933845</v>
+      </c>
+      <c r="J33" s="9">
+        <v>31101.586477133867</v>
+      </c>
+      <c r="K33" s="9">
+        <v>34463.947149780055</v>
+      </c>
+      <c r="L33" s="9">
+        <v>38263.926571096286</v>
+      </c>
+      <c r="M33" s="9">
+        <v>41975.915611894008</v>
+      </c>
+      <c r="N33" s="9">
+        <v>46695.324648343376</v>
+      </c>
+      <c r="O33" s="9">
+        <v>50435.383954378289</v>
+      </c>
+      <c r="P33" s="9">
+        <v>55498.232539387594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="9">
+        <v>3039.7154022535533</v>
+      </c>
+      <c r="C34" s="9">
+        <v>2579.2558856938931</v>
+      </c>
+      <c r="D34" s="9">
+        <v>2353.1987240267472</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2736.454846911367</v>
+      </c>
+      <c r="F34" s="9">
+        <v>3302.528221042855</v>
+      </c>
+      <c r="G34" s="9">
+        <v>3814.2748549877178</v>
+      </c>
+      <c r="H34" s="9">
+        <v>4289.9601635952386</v>
+      </c>
+      <c r="I34" s="9">
+        <v>4778.0129583438174</v>
+      </c>
+      <c r="J34" s="9">
+        <v>5029.0353408442479</v>
+      </c>
+      <c r="K34" s="9">
+        <v>5555.7937083475945</v>
+      </c>
+      <c r="L34" s="9">
+        <v>6619.7393930386088</v>
+      </c>
+      <c r="M34" s="9">
+        <v>6242.0537316948939</v>
+      </c>
+      <c r="N34" s="9">
+        <v>7709.440605150402</v>
+      </c>
+      <c r="O34" s="9">
+        <v>9256.316778799468</v>
+      </c>
+      <c r="P34" s="9">
+        <v>9595.6773922953253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="9">
+        <v>10473.147526810244</v>
+      </c>
+      <c r="C35" s="9">
+        <v>12114.822819041465</v>
+      </c>
+      <c r="D35" s="9">
+        <v>13531.80818338035</v>
+      </c>
+      <c r="E35" s="9">
+        <v>15435.275557485467</v>
+      </c>
+      <c r="F35" s="9">
+        <v>17212.110554040606</v>
+      </c>
+      <c r="G35" s="9">
+        <v>18785.521581635894</v>
+      </c>
+      <c r="H35" s="9">
+        <v>21293.612920337178</v>
+      </c>
+      <c r="I35" s="9">
+        <v>22110.382026590029</v>
+      </c>
+      <c r="J35" s="9">
+        <v>24349.750136289622</v>
+      </c>
+      <c r="K35" s="9">
+        <v>26919.261805653769</v>
+      </c>
+      <c r="L35" s="9">
+        <v>29401.905863880369</v>
+      </c>
+      <c r="M35" s="9">
+        <v>33047.335664916245</v>
+      </c>
+      <c r="N35" s="9">
+        <v>36182.293043192971</v>
+      </c>
+      <c r="O35" s="9">
+        <v>38054.851389455333</v>
+      </c>
+      <c r="P35" s="9">
+        <v>42698.500152270295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="9">
+        <v>3309.1047357403531</v>
+      </c>
+      <c r="C36" s="9">
+        <v>6063.6300832486431</v>
+      </c>
+      <c r="D36" s="9">
+        <v>6000.7140287686689</v>
+      </c>
+      <c r="E36" s="9">
+        <v>4495.5443052092269</v>
+      </c>
+      <c r="F36" s="9">
+        <v>4187.4454634555186</v>
+      </c>
+      <c r="G36" s="9">
+        <v>3789.8414066950672</v>
+      </c>
+      <c r="H36" s="9">
+        <v>3035.782587168088</v>
+      </c>
+      <c r="I36" s="9">
+        <v>3321.0241358869425</v>
+      </c>
+      <c r="J36" s="9">
+        <v>3589.083895732565</v>
+      </c>
+      <c r="K36" s="9">
+        <v>4170.8691241414908</v>
+      </c>
+      <c r="L36" s="9">
+        <v>4247.635212339912</v>
+      </c>
+      <c r="M36" s="9">
+        <v>6098.9140132438442</v>
+      </c>
+      <c r="N36" s="9">
+        <v>7275.7031804040453</v>
+      </c>
+      <c r="O36" s="9">
+        <v>3314.2958466811451</v>
+      </c>
+      <c r="P36" s="9">
+        <v>5212.1206595538406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="9">
+        <v>4206.1956440841022</v>
+      </c>
+      <c r="C37" s="9">
+        <v>6924.2373615412516</v>
+      </c>
+      <c r="D37" s="9">
+        <v>6990.4474589261945</v>
+      </c>
+      <c r="E37" s="9">
+        <v>5400.6692365846238</v>
+      </c>
+      <c r="F37" s="9">
+        <v>5774.9973134824158</v>
+      </c>
+      <c r="G37" s="9">
+        <v>5938.5082929207319</v>
+      </c>
+      <c r="H37" s="9">
+        <v>5416.3186964526149</v>
+      </c>
+      <c r="I37" s="9">
+        <v>5527.4194467490224</v>
+      </c>
+      <c r="J37" s="9">
+        <v>6297.6116873888859</v>
+      </c>
+      <c r="K37" s="9">
+        <v>7142.5808287399941</v>
+      </c>
+      <c r="L37" s="9">
+        <v>7447.8375374826119</v>
+      </c>
+      <c r="M37" s="9">
+        <v>9650.817281878537</v>
+      </c>
+      <c r="N37" s="9">
+        <v>10843.862730844161</v>
+      </c>
+      <c r="O37" s="9">
+        <v>9653.8713857261137</v>
+      </c>
+      <c r="P37" s="9">
+        <v>12913.85490863192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="9">
+        <v>-897.09090834374911</v>
+      </c>
+      <c r="C38" s="9">
+        <v>-860.6072782926085</v>
+      </c>
+      <c r="D38" s="9">
+        <v>-989.73343015752562</v>
+      </c>
+      <c r="E38" s="9">
+        <v>-905.12493137539695</v>
+      </c>
+      <c r="F38" s="9">
+        <v>-1587.5518500268972</v>
+      </c>
+      <c r="G38" s="9">
+        <v>-2148.6668862256647</v>
+      </c>
+      <c r="H38" s="9">
+        <v>-2380.5361092845269</v>
+      </c>
+      <c r="I38" s="9">
+        <v>-2206.3953108620799</v>
+      </c>
+      <c r="J38" s="9">
+        <v>-2708.5277916563209</v>
+      </c>
+      <c r="K38" s="9">
+        <v>-2971.7117045985033</v>
+      </c>
+      <c r="L38" s="9">
+        <v>-3200.2023251426999</v>
+      </c>
+      <c r="M38" s="9">
+        <v>-3551.9032686346927</v>
+      </c>
+      <c r="N38" s="9">
+        <v>-3568.1595504401157</v>
+      </c>
+      <c r="O38" s="9">
+        <v>-6339.5755390449685</v>
+      </c>
+      <c r="P38" s="9">
+        <v>-7701.7342490780793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="9">
+        <v>-1774.7724851904677</v>
+      </c>
+      <c r="C39" s="9">
+        <v>-3470.8253209444047</v>
+      </c>
+      <c r="D39" s="9">
+        <v>-4074.815340613337</v>
+      </c>
+      <c r="E39" s="9">
+        <v>-2947.1871485204756</v>
+      </c>
+      <c r="F39" s="9">
+        <v>-2583.567174009564</v>
+      </c>
+      <c r="G39" s="9">
+        <v>-2310.3495440953366</v>
+      </c>
+      <c r="H39" s="9">
+        <v>-2693.3111325882937</v>
+      </c>
+      <c r="I39" s="9">
+        <v>-1634.6874876561487</v>
+      </c>
+      <c r="J39" s="9">
+        <v>-1474.4947911413001</v>
+      </c>
+      <c r="K39" s="9">
+        <v>-997.23027842948613</v>
+      </c>
+      <c r="L39" s="9">
+        <v>-1452.7192314646454</v>
+      </c>
+      <c r="M39" s="9">
+        <v>-2188.5276084677789</v>
+      </c>
+      <c r="N39" s="9">
+        <v>-2935.8113224403569</v>
+      </c>
+      <c r="O39" s="9">
+        <v>-4314.0304176820555</v>
+      </c>
+      <c r="P39" s="9">
+        <v>-4965.9673352441187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4440.1906395656097</v>
+      </c>
+      <c r="C40" s="9">
+        <v>5076.6550643413684</v>
+      </c>
+      <c r="D40" s="9">
+        <v>3833.2224663407633</v>
+      </c>
+      <c r="E40" s="9">
+        <v>4563.732409342053</v>
+      </c>
+      <c r="F40" s="9">
+        <v>5314.9850298326955</v>
+      </c>
+      <c r="G40" s="9">
+        <v>5535.6640255079246</v>
+      </c>
+      <c r="H40" s="9">
+        <v>6380.6974586243932</v>
+      </c>
+      <c r="I40" s="9">
+        <v>8552.6152437187593</v>
+      </c>
+      <c r="J40" s="9">
+        <v>9430.286867317267</v>
+      </c>
+      <c r="K40" s="9">
+        <v>10949.740839439119</v>
+      </c>
+      <c r="L40" s="9">
+        <v>12688.262555974658</v>
+      </c>
+      <c r="M40" s="9">
+        <v>14470.715058101243</v>
+      </c>
+      <c r="N40" s="9">
+        <v>14506.454714884025</v>
+      </c>
+      <c r="O40" s="9">
+        <v>9957.3655178403296</v>
+      </c>
+      <c r="P40" s="9">
+        <v>12695.388029817879</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="9">
+        <v>6214.9631247560774</v>
+      </c>
+      <c r="C41" s="9">
+        <v>8547.4803852857731</v>
+      </c>
+      <c r="D41" s="9">
+        <v>7908.0378069541002</v>
+      </c>
+      <c r="E41" s="9">
+        <v>7510.9195578625286</v>
+      </c>
+      <c r="F41" s="9">
+        <v>7898.5522038422596</v>
+      </c>
+      <c r="G41" s="9">
+        <v>7846.0135696032612</v>
+      </c>
+      <c r="H41" s="9">
+        <v>9074.008591212687</v>
+      </c>
+      <c r="I41" s="9">
+        <v>10187.302731374908</v>
+      </c>
+      <c r="J41" s="9">
+        <v>10904.781658458567</v>
+      </c>
+      <c r="K41" s="9">
+        <v>11946.971117868605</v>
+      </c>
+      <c r="L41" s="9">
+        <v>14140.981787439303</v>
+      </c>
+      <c r="M41" s="9">
+        <v>16659.242666569022</v>
+      </c>
+      <c r="N41" s="9">
+        <v>17442.266037324382</v>
+      </c>
+      <c r="O41" s="9">
+        <v>14271.395935522385</v>
+      </c>
+      <c r="P41" s="9">
+        <v>17661.355365061998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3152,2006 +5216,6 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="9">
-        <v>4483.4494526448307</v>
-      </c>
-      <c r="C43" s="9">
-        <v>4956.7108863259164</v>
-      </c>
-      <c r="D43" s="9">
-        <v>5731.2851157459882</v>
-      </c>
-      <c r="E43" s="9">
-        <v>6066.6701208627137</v>
-      </c>
-      <c r="F43" s="9">
-        <v>6795.9447301192404</v>
-      </c>
-      <c r="G43" s="9">
-        <v>7116.4856372454869</v>
-      </c>
-      <c r="H43" s="9">
-        <v>7263.7860188218747</v>
-      </c>
-      <c r="I43" s="9">
-        <v>7815.7946401281642</v>
-      </c>
-      <c r="J43" s="9">
-        <v>8550.9577761540022</v>
-      </c>
-      <c r="K43" s="9">
-        <v>9459.6254985156465</v>
-      </c>
-      <c r="L43" s="9">
-        <v>10080.002413338638</v>
-      </c>
-      <c r="M43" s="9">
-        <v>11000.499065174465</v>
-      </c>
-      <c r="N43" s="9">
-        <v>11715.77291524021</v>
-      </c>
-      <c r="O43" s="9">
-        <v>12207.117414973949</v>
-      </c>
-      <c r="P43" s="9">
-        <v>12926.132930907246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="9">
-        <v>3072.974827131723</v>
-      </c>
-      <c r="C44" s="9">
-        <v>3388.2277499652055</v>
-      </c>
-      <c r="D44" s="9">
-        <v>3959.9463961197825</v>
-      </c>
-      <c r="E44" s="9">
-        <v>4286.6651137098406</v>
-      </c>
-      <c r="F44" s="9">
-        <v>4845.3548153533193</v>
-      </c>
-      <c r="G44" s="9">
-        <v>4822.9991608618166</v>
-      </c>
-      <c r="H44" s="9">
-        <v>4785.4573880166754</v>
-      </c>
-      <c r="I44" s="9">
-        <v>5129.1483497409918</v>
-      </c>
-      <c r="J44" s="9">
-        <v>5458.4643286143273</v>
-      </c>
-      <c r="K44" s="9">
-        <v>5886.4513579062223</v>
-      </c>
-      <c r="L44" s="9">
-        <v>6269.4933663655547</v>
-      </c>
-      <c r="M44" s="9">
-        <v>7106.9379086155186</v>
-      </c>
-      <c r="N44" s="9">
-        <v>7536.5226618324541</v>
-      </c>
-      <c r="O44" s="9">
-        <v>7649.2797330338635</v>
-      </c>
-      <c r="P44" s="9">
-        <v>8284.5034127970466</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="9">
-        <v>1243.6476739533568</v>
-      </c>
-      <c r="C45" s="9">
-        <v>1402.480147786488</v>
-      </c>
-      <c r="D45" s="9">
-        <v>1531.5149067906691</v>
-      </c>
-      <c r="E45" s="9">
-        <v>1483.3532095039341</v>
-      </c>
-      <c r="F45" s="9">
-        <v>1652.6543000512611</v>
-      </c>
-      <c r="G45" s="9">
-        <v>2014.5217266950458</v>
-      </c>
-      <c r="H45" s="9">
-        <v>2139.0386932725414</v>
-      </c>
-      <c r="I45" s="9">
-        <v>2310.2476290487712</v>
-      </c>
-      <c r="J45" s="9">
-        <v>2684.1372643653303</v>
-      </c>
-      <c r="K45" s="9">
-        <v>3100.9189397693053</v>
-      </c>
-      <c r="L45" s="9">
-        <v>3229.9410024057015</v>
-      </c>
-      <c r="M45" s="9">
-        <v>3268.3723249769801</v>
-      </c>
-      <c r="N45" s="9">
-        <v>3525.5049610289361</v>
-      </c>
-      <c r="O45" s="9">
-        <v>3862.1545308051736</v>
-      </c>
-      <c r="P45" s="9">
-        <v>3900.8420791331409</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="9">
-        <v>166.8269515597508</v>
-      </c>
-      <c r="C46" s="9">
-        <v>166.002988574222</v>
-      </c>
-      <c r="D46" s="9">
-        <v>239.82381283553693</v>
-      </c>
-      <c r="E46" s="9">
-        <v>296.65179764893878</v>
-      </c>
-      <c r="F46" s="9">
-        <v>297.93561471466006</v>
-      </c>
-      <c r="G46" s="9">
-        <v>278.96474968862452</v>
-      </c>
-      <c r="H46" s="9">
-        <v>339.28993753265769</v>
-      </c>
-      <c r="I46" s="9">
-        <v>376.39866133840161</v>
-      </c>
-      <c r="J46" s="9">
-        <v>408.35618317434449</v>
-      </c>
-      <c r="K46" s="9">
-        <v>472.25520084011976</v>
-      </c>
-      <c r="L46" s="9">
-        <v>580.56804456737984</v>
-      </c>
-      <c r="M46" s="9">
-        <v>625.18883158196502</v>
-      </c>
-      <c r="N46" s="9">
-        <v>653.74529237881927</v>
-      </c>
-      <c r="O46" s="9">
-        <v>695.68315113491178</v>
-      </c>
-      <c r="P46" s="9">
-        <v>740.78743897705954</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="9">
-        <v>1735.3916995681498</v>
-      </c>
-      <c r="C47" s="9">
-        <v>2125.5882928823999</v>
-      </c>
-      <c r="D47" s="9">
-        <v>2089.0866881851607</v>
-      </c>
-      <c r="E47" s="9">
-        <v>2366.402920630916</v>
-      </c>
-      <c r="F47" s="9">
-        <v>2567.4618787139984</v>
-      </c>
-      <c r="G47" s="9">
-        <v>2851.2514227925881</v>
-      </c>
-      <c r="H47" s="9">
-        <v>3412.9851137854566</v>
-      </c>
-      <c r="I47" s="9">
-        <v>4080.2967015507993</v>
-      </c>
-      <c r="J47" s="9">
-        <v>4183.01536525142</v>
-      </c>
-      <c r="K47" s="9">
-        <v>5031.0922710484565</v>
-      </c>
-      <c r="L47" s="9">
-        <v>5548.6572300595699</v>
-      </c>
-      <c r="M47" s="9">
-        <v>6776.355975162508</v>
-      </c>
-      <c r="N47" s="9">
-        <v>7662.0193031966519</v>
-      </c>
-      <c r="O47" s="9">
-        <v>6190.7894774436481</v>
-      </c>
-      <c r="P47" s="9">
-        <v>8167.0889679984439</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="9">
-        <v>111.84318944801835</v>
-      </c>
-      <c r="C48" s="9">
-        <v>156.90537130279</v>
-      </c>
-      <c r="D48" s="9">
-        <v>161.11430640214428</v>
-      </c>
-      <c r="E48" s="9">
-        <v>244.29396079788395</v>
-      </c>
-      <c r="F48" s="9">
-        <v>283.23315580054719</v>
-      </c>
-      <c r="G48" s="9">
-        <v>388.12126437005236</v>
-      </c>
-      <c r="H48" s="9">
-        <v>807.76057963385631</v>
-      </c>
-      <c r="I48" s="9">
-        <v>1118.8770156029495</v>
-      </c>
-      <c r="J48" s="9">
-        <v>1051.2050499796549</v>
-      </c>
-      <c r="K48" s="9">
-        <v>851.83932856136789</v>
-      </c>
-      <c r="L48" s="9">
-        <v>1413.3732245308743</v>
-      </c>
-      <c r="M48" s="9">
-        <v>2118.4734313466142</v>
-      </c>
-      <c r="N48" s="9">
-        <v>2115.9666280547463</v>
-      </c>
-      <c r="O48" s="9">
-        <v>979.65232752355644</v>
-      </c>
-      <c r="P48" s="9">
-        <v>2449.9765240448251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="9">
-        <v>687.66884003035102</v>
-      </c>
-      <c r="C49" s="9">
-        <v>834.32436183578739</v>
-      </c>
-      <c r="D49" s="9">
-        <v>821.09399832458985</v>
-      </c>
-      <c r="E49" s="9">
-        <v>885.00674859674109</v>
-      </c>
-      <c r="F49" s="9">
-        <v>984.81995637288674</v>
-      </c>
-      <c r="G49" s="9">
-        <v>1083.9653565265539</v>
-      </c>
-      <c r="H49" s="9">
-        <v>1266.3626181366735</v>
-      </c>
-      <c r="I49" s="9">
-        <v>1547.2581307198443</v>
-      </c>
-      <c r="J49" s="9">
-        <v>1546.0767147618417</v>
-      </c>
-      <c r="K49" s="9">
-        <v>2374.0414299112754</v>
-      </c>
-      <c r="L49" s="9">
-        <v>2120.4456905401239</v>
-      </c>
-      <c r="M49" s="9">
-        <v>2399.3064845539275</v>
-      </c>
-      <c r="N49" s="9">
-        <v>2935.1829607071904</v>
-      </c>
-      <c r="O49" s="9">
-        <v>2743.5060370695101</v>
-      </c>
-      <c r="P49" s="9">
-        <v>2643.0763236470111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="9">
-        <v>180.27178541101557</v>
-      </c>
-      <c r="C50" s="9">
-        <v>205.73032431700904</v>
-      </c>
-      <c r="D50" s="9">
-        <v>186.56875372027571</v>
-      </c>
-      <c r="E50" s="9">
-        <v>229.30363030337776</v>
-      </c>
-      <c r="F50" s="9">
-        <v>253.93036214362542</v>
-      </c>
-      <c r="G50" s="9">
-        <v>275.16852196026434</v>
-      </c>
-      <c r="H50" s="9">
-        <v>258.18215876962495</v>
-      </c>
-      <c r="I50" s="9">
-        <v>280.9176268848978</v>
-      </c>
-      <c r="J50" s="9">
-        <v>274.27298213509357</v>
-      </c>
-      <c r="K50" s="9">
-        <v>355.23611953556428</v>
-      </c>
-      <c r="L50" s="9">
-        <v>434.9994345471755</v>
-      </c>
-      <c r="M50" s="9">
-        <v>487.90089545762839</v>
-      </c>
-      <c r="N50" s="9">
-        <v>592.85875044391423</v>
-      </c>
-      <c r="O50" s="9">
-        <v>571.17293297633842</v>
-      </c>
-      <c r="P50" s="9">
-        <v>996.02836976082017</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="9">
-        <v>161.86884462511574</v>
-      </c>
-      <c r="C51" s="9">
-        <v>165.83233099298985</v>
-      </c>
-      <c r="D51" s="9">
-        <v>190.48282486317683</v>
-      </c>
-      <c r="E51" s="9">
-        <v>251.2618966112623</v>
-      </c>
-      <c r="F51" s="9">
-        <v>257.51623053677605</v>
-      </c>
-      <c r="G51" s="9">
-        <v>260.83576670405142</v>
-      </c>
-      <c r="H51" s="9">
-        <v>270.28923523429808</v>
-      </c>
-      <c r="I51" s="9">
-        <v>293.29269937798017</v>
-      </c>
-      <c r="J51" s="9">
-        <v>338.56794457765528</v>
-      </c>
-      <c r="K51" s="9">
-        <v>384.61382570225828</v>
-      </c>
-      <c r="L51" s="9">
-        <v>394.49376583260698</v>
-      </c>
-      <c r="M51" s="9">
-        <v>446.49890244368453</v>
-      </c>
-      <c r="N51" s="9">
-        <v>472.31384166935504</v>
-      </c>
-      <c r="O51" s="9">
-        <v>398.86271612434075</v>
-      </c>
-      <c r="P51" s="9">
-        <v>432.67872606120289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="9">
-        <v>55.994363546928639</v>
-      </c>
-      <c r="C52" s="9">
-        <v>71.082876125945489</v>
-      </c>
-      <c r="D52" s="9">
-        <v>64.134796814658301</v>
-      </c>
-      <c r="E52" s="9">
-        <v>67.127410152503515</v>
-      </c>
-      <c r="F52" s="9">
-        <v>66.208813701024113</v>
-      </c>
-      <c r="G52" s="9">
-        <v>67.160021590643851</v>
-      </c>
-      <c r="H52" s="9">
-        <v>64.394568765921576</v>
-      </c>
-      <c r="I52" s="9">
-        <v>68.345068089601199</v>
-      </c>
-      <c r="J52" s="9">
-        <v>68.784457199356964</v>
-      </c>
-      <c r="K52" s="9">
-        <v>68.859921638618644</v>
-      </c>
-      <c r="L52" s="9">
-        <v>78.939145197813843</v>
-      </c>
-      <c r="M52" s="9">
-        <v>91.050572562486522</v>
-      </c>
-      <c r="N52" s="9">
-        <v>98.976770589488453</v>
-      </c>
-      <c r="O52" s="9">
-        <v>88.246654348055586</v>
-      </c>
-      <c r="P52" s="9">
-        <v>110.34674139141313</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="9">
-        <v>156.49502948864099</v>
-      </c>
-      <c r="C53" s="9">
-        <v>244.77342953585563</v>
-      </c>
-      <c r="D53" s="9">
-        <v>203.00253155094947</v>
-      </c>
-      <c r="E53" s="9">
-        <v>176.8889460265392</v>
-      </c>
-      <c r="F53" s="9">
-        <v>202.6022771932104</v>
-      </c>
-      <c r="G53" s="9">
-        <v>221.79157570915046</v>
-      </c>
-      <c r="H53" s="9">
-        <v>202.95408150448409</v>
-      </c>
-      <c r="I53" s="9">
-        <v>221.81676482631619</v>
-      </c>
-      <c r="J53" s="9">
-        <v>270.16976612711915</v>
-      </c>
-      <c r="K53" s="9">
-        <v>287.01814650794591</v>
-      </c>
-      <c r="L53" s="9">
-        <v>327.26049473379908</v>
-      </c>
-      <c r="M53" s="9">
-        <v>374.4664843902209</v>
-      </c>
-      <c r="N53" s="9">
-        <v>428.19196746404606</v>
-      </c>
-      <c r="O53" s="9">
-        <v>471.88490682390193</v>
-      </c>
-      <c r="P53" s="9">
-        <v>535.75185411609459</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="9">
-        <v>63.601395249981621</v>
-      </c>
-      <c r="C54" s="9">
-        <v>50.276023421849359</v>
-      </c>
-      <c r="D54" s="9">
-        <v>41.308931467881251</v>
-      </c>
-      <c r="E54" s="9">
-        <v>31.352636456939081</v>
-      </c>
-      <c r="F54" s="9">
-        <v>27.642218442035276</v>
-      </c>
-      <c r="G54" s="9">
-        <v>30.510427207839925</v>
-      </c>
-      <c r="H54" s="9">
-        <v>31.905567714632951</v>
-      </c>
-      <c r="I54" s="9">
-        <v>34.288681487378128</v>
-      </c>
-      <c r="J54" s="9">
-        <v>33.060694951284646</v>
-      </c>
-      <c r="K54" s="9">
-        <v>37.383462915649275</v>
-      </c>
-      <c r="L54" s="9">
-        <v>47.389718149318156</v>
-      </c>
-      <c r="M54" s="9">
-        <v>50.596314839263997</v>
-      </c>
-      <c r="N54" s="9">
-        <v>51.491129164147907</v>
-      </c>
-      <c r="O54" s="9">
-        <v>53.118662457881342</v>
-      </c>
-      <c r="P54" s="9">
-        <v>55.308907231896782</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="9">
-        <v>157.79635639733468</v>
-      </c>
-      <c r="C55" s="9">
-        <v>203.65811560027097</v>
-      </c>
-      <c r="D55" s="9">
-        <v>216.4309032981252</v>
-      </c>
-      <c r="E55" s="9">
-        <v>228.2138868052742</v>
-      </c>
-      <c r="F55" s="9">
-        <v>248.24122578964872</v>
-      </c>
-      <c r="G55" s="9">
-        <v>262.87008079462458</v>
-      </c>
-      <c r="H55" s="9">
-        <v>272.02509472183783</v>
-      </c>
-      <c r="I55" s="9">
-        <v>287.50780358692003</v>
-      </c>
-      <c r="J55" s="9">
-        <v>295.00372880498412</v>
-      </c>
-      <c r="K55" s="9">
-        <v>330.11591742970916</v>
-      </c>
-      <c r="L55" s="9">
-        <v>369.0227983040611</v>
-      </c>
-      <c r="M55" s="9">
-        <v>449.54119899145064</v>
-      </c>
-      <c r="N55" s="9">
-        <v>570.46413306291004</v>
-      </c>
-      <c r="O55" s="9">
-        <v>480.81728366038323</v>
-      </c>
-      <c r="P55" s="9">
-        <v>520.69951478712528</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="9">
-        <v>159.85189537076297</v>
-      </c>
-      <c r="C56" s="9">
-        <v>193.00545974990209</v>
-      </c>
-      <c r="D56" s="9">
-        <v>204.94964174335959</v>
-      </c>
-      <c r="E56" s="9">
-        <v>252.95380488039501</v>
-      </c>
-      <c r="F56" s="9">
-        <v>243.26763873424468</v>
-      </c>
-      <c r="G56" s="9">
-        <v>260.82840792940726</v>
-      </c>
-      <c r="H56" s="9">
-        <v>239.11120930412693</v>
-      </c>
-      <c r="I56" s="9">
-        <v>227.99291097491204</v>
-      </c>
-      <c r="J56" s="9">
-        <v>305.87402671442914</v>
-      </c>
-      <c r="K56" s="9">
-        <v>341.98411884606747</v>
-      </c>
-      <c r="L56" s="9">
-        <v>362.73295822379725</v>
-      </c>
-      <c r="M56" s="9">
-        <v>358.5216905772312</v>
-      </c>
-      <c r="N56" s="9">
-        <v>396.57312204085321</v>
-      </c>
-      <c r="O56" s="9">
-        <v>403.52795645968081</v>
-      </c>
-      <c r="P56" s="9">
-        <v>423.22200695805509</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="9">
-        <v>8958.8379843299099</v>
-      </c>
-      <c r="C57" s="9">
-        <v>10373.31990267225</v>
-      </c>
-      <c r="D57" s="9">
-        <v>10298.810965610675</v>
-      </c>
-      <c r="E57" s="9">
-        <v>11562.323185604057</v>
-      </c>
-      <c r="F57" s="9">
-        <v>13103.585783429366</v>
-      </c>
-      <c r="G57" s="9">
-        <v>14489.960496556558</v>
-      </c>
-      <c r="H57" s="9">
-        <v>15617.782730677569</v>
-      </c>
-      <c r="I57" s="9">
-        <v>17106.92869929221</v>
-      </c>
-      <c r="J57" s="9">
-        <v>18974.950089649781</v>
-      </c>
-      <c r="K57" s="9">
-        <v>21473.550728379229</v>
-      </c>
-      <c r="L57" s="9">
-        <v>23669.50200496196</v>
-      </c>
-      <c r="M57" s="9">
-        <v>25445.627085579272</v>
-      </c>
-      <c r="N57" s="9">
-        <v>29210.361334825691</v>
-      </c>
-      <c r="O57" s="9">
-        <v>28344.550731424715</v>
-      </c>
-      <c r="P57" s="9">
-        <v>31560.602516676681</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" s="9">
-        <v>1284.8021165709874</v>
-      </c>
-      <c r="C58" s="9">
-        <v>1624.7726588845139</v>
-      </c>
-      <c r="D58" s="9">
-        <v>1453.9288776603698</v>
-      </c>
-      <c r="E58" s="9">
-        <v>1390.5722817547694</v>
-      </c>
-      <c r="F58" s="9">
-        <v>1609.0956392944477</v>
-      </c>
-      <c r="G58" s="9">
-        <v>1539.545620904428</v>
-      </c>
-      <c r="H58" s="9">
-        <v>1497.4227539681242</v>
-      </c>
-      <c r="I58" s="9">
-        <v>1740.9499860871001</v>
-      </c>
-      <c r="J58" s="9">
-        <v>2111.7437814929926</v>
-      </c>
-      <c r="K58" s="9">
-        <v>2274.3422694266696</v>
-      </c>
-      <c r="L58" s="9">
-        <v>2709.2440369410479</v>
-      </c>
-      <c r="M58" s="9">
-        <v>3080.919909360699</v>
-      </c>
-      <c r="N58" s="9">
-        <v>3793.0888664114982</v>
-      </c>
-      <c r="O58" s="9">
-        <v>3432.4465284528542</v>
-      </c>
-      <c r="P58" s="9">
-        <v>3943.860590188604</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="9">
-        <v>1929.213140863026</v>
-      </c>
-      <c r="C59" s="9">
-        <v>2152.9439648365033</v>
-      </c>
-      <c r="D59" s="9">
-        <v>2342.948749602032</v>
-      </c>
-      <c r="E59" s="9">
-        <v>2595.789214349858</v>
-      </c>
-      <c r="F59" s="9">
-        <v>2871.2584456216728</v>
-      </c>
-      <c r="G59" s="9">
-        <v>3212.3039107650184</v>
-      </c>
-      <c r="H59" s="9">
-        <v>3221.152939941132</v>
-      </c>
-      <c r="I59" s="9">
-        <v>3222.8549604384089</v>
-      </c>
-      <c r="J59" s="9">
-        <v>3691.6946987668243</v>
-      </c>
-      <c r="K59" s="9">
-        <v>4250.3309657013424</v>
-      </c>
-      <c r="L59" s="9">
-        <v>3928.8042632784518</v>
-      </c>
-      <c r="M59" s="9">
-        <v>4370.1910932884275</v>
-      </c>
-      <c r="N59" s="9">
-        <v>4845.5283298538543</v>
-      </c>
-      <c r="O59" s="9">
-        <v>5157.1365082086195</v>
-      </c>
-      <c r="P59" s="9">
-        <v>5941.8299690635267</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="9">
-        <v>484.27001319253861</v>
-      </c>
-      <c r="C60" s="9">
-        <v>663.22208531800493</v>
-      </c>
-      <c r="D60" s="9">
-        <v>557.81702426477409</v>
-      </c>
-      <c r="E60" s="9">
-        <v>630.32225681188629</v>
-      </c>
-      <c r="F60" s="9">
-        <v>738.45115403316822</v>
-      </c>
-      <c r="G60" s="9">
-        <v>964.8153492573382</v>
-      </c>
-      <c r="H60" s="9">
-        <v>1058.5583113799398</v>
-      </c>
-      <c r="I60" s="9">
-        <v>1444.7795445443858</v>
-      </c>
-      <c r="J60" s="9">
-        <v>1565.4060519195448</v>
-      </c>
-      <c r="K60" s="9">
-        <v>2123.6910859051777</v>
-      </c>
-      <c r="L60" s="9">
-        <v>2474.1139853225795</v>
-      </c>
-      <c r="M60" s="9">
-        <v>1683.6705065034544</v>
-      </c>
-      <c r="N60" s="9">
-        <v>2030.9340099685246</v>
-      </c>
-      <c r="O60" s="9">
-        <v>791.02708244348037</v>
-      </c>
-      <c r="P60" s="9">
-        <v>1109.2057436224334</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="9">
-        <v>1208.2120322503429</v>
-      </c>
-      <c r="C61" s="9">
-        <v>1403.2117091029493</v>
-      </c>
-      <c r="D61" s="9">
-        <v>1240.1158550463319</v>
-      </c>
-      <c r="E61" s="9">
-        <v>1505.6759351627263</v>
-      </c>
-      <c r="F61" s="9">
-        <v>1601.3739899808913</v>
-      </c>
-      <c r="G61" s="9">
-        <v>1701.024309618399</v>
-      </c>
-      <c r="H61" s="9">
-        <v>1719.4888494065415</v>
-      </c>
-      <c r="I61" s="9">
-        <v>1849.532525900773</v>
-      </c>
-      <c r="J61" s="9">
-        <v>1946.2146916420536</v>
-      </c>
-      <c r="K61" s="9">
-        <v>1994.3108071770591</v>
-      </c>
-      <c r="L61" s="9">
-        <v>2669.0032550917499</v>
-      </c>
-      <c r="M61" s="9">
-        <v>2650.495516644603</v>
-      </c>
-      <c r="N61" s="9">
-        <v>2893.6770313105508</v>
-      </c>
-      <c r="O61" s="9">
-        <v>2996.1487884759035</v>
-      </c>
-      <c r="P61" s="9">
-        <v>3677.8405794881323</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="9">
-        <v>290.86260601210245</v>
-      </c>
-      <c r="C62" s="9">
-        <v>358.15438215958159</v>
-      </c>
-      <c r="D62" s="9">
-        <v>422.23214476943809</v>
-      </c>
-      <c r="E62" s="9">
-        <v>443.60889519277998</v>
-      </c>
-      <c r="F62" s="9">
-        <v>535.19289696816838</v>
-      </c>
-      <c r="G62" s="9">
-        <v>487.10821814878636</v>
-      </c>
-      <c r="H62" s="9">
-        <v>658.08653642213039</v>
-      </c>
-      <c r="I62" s="9">
-        <v>722.68152738841877</v>
-      </c>
-      <c r="J62" s="9">
-        <v>738.15512870454734</v>
-      </c>
-      <c r="K62" s="9">
-        <v>768.98478586915428</v>
-      </c>
-      <c r="L62" s="9">
-        <v>976.8659309657005</v>
-      </c>
-      <c r="M62" s="9">
-        <v>873.93114235802693</v>
-      </c>
-      <c r="N62" s="9">
-        <v>1007.1840616129128</v>
-      </c>
-      <c r="O62" s="9">
-        <v>1256.5002352862984</v>
-      </c>
-      <c r="P62" s="9">
-        <v>1364.5520178450724</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="9">
-        <v>325.40903271505334</v>
-      </c>
-      <c r="C63" s="9">
-        <v>479.02336867656248</v>
-      </c>
-      <c r="D63" s="9">
-        <v>526.01825772081747</v>
-      </c>
-      <c r="E63" s="9">
-        <v>540.80765740502852</v>
-      </c>
-      <c r="F63" s="9">
-        <v>673.25278995756662</v>
-      </c>
-      <c r="G63" s="9">
-        <v>734.85307583347662</v>
-      </c>
-      <c r="H63" s="9">
-        <v>824.38615740491082</v>
-      </c>
-      <c r="I63" s="9">
-        <v>929.10874938089603</v>
-      </c>
-      <c r="J63" s="9">
-        <v>1041.053851784254</v>
-      </c>
-      <c r="K63" s="9">
-        <v>1163.8254277047586</v>
-      </c>
-      <c r="L63" s="9">
-        <v>1189.22</v>
-      </c>
-      <c r="M63" s="9">
-        <v>1202.5520686500722</v>
-      </c>
-      <c r="N63" s="9">
-        <v>1241.3082829923878</v>
-      </c>
-      <c r="O63" s="9">
-        <v>1268.9574631072974</v>
-      </c>
-      <c r="P63" s="9">
-        <v>1376.6768369032918</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="9">
-        <v>1228.0090929034977</v>
-      </c>
-      <c r="C64" s="9">
-        <v>1385.499946192444</v>
-      </c>
-      <c r="D64" s="9">
-        <v>1422.5301588288764</v>
-      </c>
-      <c r="E64" s="9">
-        <v>1592.4525720787651</v>
-      </c>
-      <c r="F64" s="9">
-        <v>1804.4090763495146</v>
-      </c>
-      <c r="G64" s="9">
-        <v>2007.5184250205498</v>
-      </c>
-      <c r="H64" s="9">
-        <v>2438.0395115717679</v>
-      </c>
-      <c r="I64" s="9">
-        <v>2631.6310209882258</v>
-      </c>
-      <c r="J64" s="9">
-        <v>3082.4413061176565</v>
-      </c>
-      <c r="K64" s="9">
-        <v>3590.3544629574926</v>
-      </c>
-      <c r="L64" s="9">
-        <v>3834.7724586482809</v>
-      </c>
-      <c r="M64" s="9">
-        <v>4082.7781509297329</v>
-      </c>
-      <c r="N64" s="9">
-        <v>4562.6470953891185</v>
-      </c>
-      <c r="O64" s="9">
-        <v>4015.408089864819</v>
-      </c>
-      <c r="P64" s="9">
-        <v>4207.2914800026811</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="9">
-        <v>1211.0407640904571</v>
-      </c>
-      <c r="C65" s="9">
-        <v>1423.511180928137</v>
-      </c>
-      <c r="D65" s="9">
-        <v>1423.8499308319083</v>
-      </c>
-      <c r="E65" s="9">
-        <v>1782.696334718933</v>
-      </c>
-      <c r="F65" s="9">
-        <v>2119.1000025042931</v>
-      </c>
-      <c r="G65" s="9">
-        <v>2459.1748172147136</v>
-      </c>
-      <c r="H65" s="9">
-        <v>2701.174119239111</v>
-      </c>
-      <c r="I65" s="9">
-        <v>2971.1150591289297</v>
-      </c>
-      <c r="J65" s="9">
-        <v>3084.6588291296857</v>
-      </c>
-      <c r="K65" s="9">
-        <v>3408.9139438161628</v>
-      </c>
-      <c r="L65" s="9">
-        <v>3776.8216171031809</v>
-      </c>
-      <c r="M65" s="9">
-        <v>4616.5281001052263</v>
-      </c>
-      <c r="N65" s="9">
-        <v>5775.2251327999093</v>
-      </c>
-      <c r="O65" s="9">
-        <v>6251.9699324684252</v>
-      </c>
-      <c r="P65" s="9">
-        <v>6640.9566481139764</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="9">
-        <v>509.23937264426991</v>
-      </c>
-      <c r="C66" s="9">
-        <v>398.55921543887922</v>
-      </c>
-      <c r="D66" s="9">
-        <v>405.461834679969</v>
-      </c>
-      <c r="E66" s="9">
-        <v>470.45973418825554</v>
-      </c>
-      <c r="F66" s="9">
-        <v>481.83729845814042</v>
-      </c>
-      <c r="G66" s="9">
-        <v>630.57648637554348</v>
-      </c>
-      <c r="H66" s="9">
-        <v>654.19149953708097</v>
-      </c>
-      <c r="I66" s="9">
-        <v>684.21445368943864</v>
-      </c>
-      <c r="J66" s="9">
-        <v>731.66167263383022</v>
-      </c>
-      <c r="K66" s="9">
-        <v>808.64450719351407</v>
-      </c>
-      <c r="L66" s="9">
-        <v>949.77637806365897</v>
-      </c>
-      <c r="M66" s="9">
-        <v>1344.6299751736726</v>
-      </c>
-      <c r="N66" s="9">
-        <v>1535.0760472613547</v>
-      </c>
-      <c r="O66" s="9">
-        <v>1565.1633770891842</v>
-      </c>
-      <c r="P66" s="9">
-        <v>1626.7919057934619</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="9">
-        <v>247.34746614763509</v>
-      </c>
-      <c r="C67" s="9">
-        <v>222.87103269080382</v>
-      </c>
-      <c r="D67" s="9">
-        <v>235.22295329209089</v>
-      </c>
-      <c r="E67" s="9">
-        <v>302.35200772005862</v>
-      </c>
-      <c r="F67" s="9">
-        <v>363.10689075737491</v>
-      </c>
-      <c r="G67" s="9">
-        <v>403.57238639684897</v>
-      </c>
-      <c r="H67" s="9">
-        <v>428.51219565872498</v>
-      </c>
-      <c r="I67" s="9">
-        <v>455.53162332785109</v>
-      </c>
-      <c r="J67" s="9">
-        <v>475.90550495206111</v>
-      </c>
-      <c r="K67" s="9">
-        <v>539.99958423951557</v>
-      </c>
-      <c r="L67" s="9">
-        <v>585.39175447573098</v>
-      </c>
-      <c r="M67" s="9">
-        <v>766.38849967027136</v>
-      </c>
-      <c r="N67" s="9">
-        <v>819.7845250968802</v>
-      </c>
-      <c r="O67" s="9">
-        <v>946.52718410723583</v>
-      </c>
-      <c r="P67" s="9">
-        <v>1025.0407838303195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" s="9">
-        <v>240.43234693999818</v>
-      </c>
-      <c r="C68" s="9">
-        <v>261.5503584438701</v>
-      </c>
-      <c r="D68" s="9">
-        <v>268.68517891406964</v>
-      </c>
-      <c r="E68" s="9">
-        <v>307.58629622099409</v>
-      </c>
-      <c r="F68" s="9">
-        <v>306.50759950412839</v>
-      </c>
-      <c r="G68" s="9">
-        <v>349.46789702145725</v>
-      </c>
-      <c r="H68" s="9">
-        <v>416.76985614810599</v>
-      </c>
-      <c r="I68" s="9">
-        <v>454.52924841778071</v>
-      </c>
-      <c r="J68" s="9">
-        <v>506.01457250633098</v>
-      </c>
-      <c r="K68" s="9">
-        <v>550.15288838838546</v>
-      </c>
-      <c r="L68" s="9">
-        <v>575.48832507157704</v>
-      </c>
-      <c r="M68" s="9">
-        <v>773.54212289508109</v>
-      </c>
-      <c r="N68" s="9">
-        <v>705.90795212870376</v>
-      </c>
-      <c r="O68" s="9">
-        <v>663.26554192059598</v>
-      </c>
-      <c r="P68" s="9">
-        <v>646.55596182518377</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B69" s="9">
-        <v>-253.51763578791349</v>
-      </c>
-      <c r="C69" s="9">
-        <v>-409.92760802320964</v>
-      </c>
-      <c r="D69" s="9">
-        <v>-393.67215436594341</v>
-      </c>
-      <c r="E69" s="9">
-        <v>-441.61538844030633</v>
-      </c>
-      <c r="F69" s="9">
-        <v>-530.39797828123699</v>
-      </c>
-      <c r="G69" s="9">
-        <v>-597.58566964031286</v>
-      </c>
-      <c r="H69" s="9">
-        <v>-634.11647829688138</v>
-      </c>
-      <c r="I69" s="9">
-        <v>-676.40026185185206</v>
-      </c>
-      <c r="J69" s="9">
-        <v>-664.15022494960135</v>
-      </c>
-      <c r="K69" s="9">
-        <v>-817.79120736747598</v>
-      </c>
-      <c r="L69" s="9">
-        <v>-887.69592998164001</v>
-      </c>
-      <c r="M69" s="9">
-        <v>-775.44343839727992</v>
-      </c>
-      <c r="N69" s="9">
-        <v>-949.84794150216715</v>
-      </c>
-      <c r="O69" s="9">
-        <v>-1222.7382404649379</v>
-      </c>
-      <c r="P69" s="9">
-        <v>-1290.6650322779817</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="9">
-        <v>14924.161500754977</v>
-      </c>
-      <c r="C70" s="9">
-        <v>17045.691473857354</v>
-      </c>
-      <c r="D70" s="9">
-        <v>17725.510615175881</v>
-      </c>
-      <c r="E70" s="9">
-        <v>19553.780838657378</v>
-      </c>
-      <c r="F70" s="9">
-        <v>21936.594413981369</v>
-      </c>
-      <c r="G70" s="9">
-        <v>23860.111886954321</v>
-      </c>
-      <c r="H70" s="9">
-        <v>25660.437384988021</v>
-      </c>
-      <c r="I70" s="9">
-        <v>28326.619779119319</v>
-      </c>
-      <c r="J70" s="9">
-        <v>31044.773006105603</v>
-      </c>
-      <c r="K70" s="9">
-        <v>35146.477290575858</v>
-      </c>
-      <c r="L70" s="9">
-        <v>38410.465718378524</v>
-      </c>
-      <c r="M70" s="9">
-        <v>42447.038687518965</v>
-      </c>
-      <c r="N70" s="9">
-        <v>47638.305611760385</v>
-      </c>
-      <c r="O70" s="9">
-        <v>45519.719383377378</v>
-      </c>
-      <c r="P70" s="9">
-        <v>51363.159383304388</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B71" s="9">
-        <v>1049.9266788587063</v>
-      </c>
-      <c r="C71" s="9">
-        <v>1276.8209931822403</v>
-      </c>
-      <c r="D71" s="9">
-        <v>1087.0849803865499</v>
-      </c>
-      <c r="E71" s="9">
-        <v>1309.5867224282101</v>
-      </c>
-      <c r="F71" s="9">
-        <v>1457.1976505480498</v>
-      </c>
-      <c r="G71" s="9">
-        <v>1555.3524122690201</v>
-      </c>
-      <c r="H71" s="9">
-        <v>1757.2831535241901</v>
-      </c>
-      <c r="I71" s="9">
-        <v>1913.9638540453202</v>
-      </c>
-      <c r="J71" s="9">
-        <v>2171.4025756195301</v>
-      </c>
-      <c r="K71" s="9">
-        <v>2491.1087049162052</v>
-      </c>
-      <c r="L71" s="9">
-        <v>2648.3768335930286</v>
-      </c>
-      <c r="M71" s="9">
-        <v>3439.2633291511102</v>
-      </c>
-      <c r="N71" s="9">
-        <v>3396.9108945466814</v>
-      </c>
-      <c r="O71" s="9">
-        <v>3915.9299999999989</v>
-      </c>
-      <c r="P71" s="9">
-        <v>4381.2264803929293</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" s="9">
-        <v>15974.088179613684</v>
-      </c>
-      <c r="C72" s="9">
-        <v>18322.512467039596</v>
-      </c>
-      <c r="D72" s="9">
-        <v>18812.59559556243</v>
-      </c>
-      <c r="E72" s="9">
-        <v>20863.367561085586</v>
-      </c>
-      <c r="F72" s="9">
-        <v>23393.792064529418</v>
-      </c>
-      <c r="G72" s="9">
-        <v>25415.464299223342</v>
-      </c>
-      <c r="H72" s="9">
-        <v>27417.720538512211</v>
-      </c>
-      <c r="I72" s="9">
-        <v>30240.583633164639</v>
-      </c>
-      <c r="J72" s="9">
-        <v>33216.175581725132</v>
-      </c>
-      <c r="K72" s="9">
-        <v>37637.58599549206</v>
-      </c>
-      <c r="L72" s="9">
-        <v>41058.842551971553</v>
-      </c>
-      <c r="M72" s="9">
-        <v>45886.302016670073</v>
-      </c>
-      <c r="N72" s="9">
-        <v>51035.216506307064</v>
-      </c>
-      <c r="O72" s="9">
-        <v>49435.649383377378</v>
-      </c>
-      <c r="P72" s="9">
-        <v>55744.385863697316</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" s="9">
-        <v>15974.088179613685</v>
-      </c>
-      <c r="C73" s="9">
-        <v>18322.512467039596</v>
-      </c>
-      <c r="D73" s="9">
-        <v>18812.59559556243</v>
-      </c>
-      <c r="E73" s="9">
-        <v>20863.367561085586</v>
-      </c>
-      <c r="F73" s="9">
-        <v>23393.792064529418</v>
-      </c>
-      <c r="G73" s="9">
-        <v>25415.464299223342</v>
-      </c>
-      <c r="H73" s="9">
-        <v>27417.720538512211</v>
-      </c>
-      <c r="I73" s="9">
-        <v>30240.583633164639</v>
-      </c>
-      <c r="J73" s="9">
-        <v>33216.175581725125</v>
-      </c>
-      <c r="K73" s="9">
-        <v>37637.58599549206</v>
-      </c>
-      <c r="L73" s="9">
-        <v>41058.842551971553</v>
-      </c>
-      <c r="M73" s="9">
-        <v>45886.302016670073</v>
-      </c>
-      <c r="N73" s="9">
-        <v>51035.216506307064</v>
-      </c>
-      <c r="O73" s="9">
-        <v>49435.649383377378</v>
-      </c>
-      <c r="P73" s="9">
-        <v>55744.385863697316</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" s="9">
-        <v>14439.755929063798</v>
-      </c>
-      <c r="C74" s="9">
-        <v>15729.707704735358</v>
-      </c>
-      <c r="D74" s="9">
-        <v>16886.696907407098</v>
-      </c>
-      <c r="E74" s="9">
-        <v>19315.010404396835</v>
-      </c>
-      <c r="F74" s="9">
-        <v>21789.913775083463</v>
-      </c>
-      <c r="G74" s="9">
-        <v>23935.972436623611</v>
-      </c>
-      <c r="H74" s="9">
-        <v>27075.249083932416</v>
-      </c>
-      <c r="I74" s="9">
-        <v>28554.246984933845</v>
-      </c>
-      <c r="J74" s="9">
-        <v>31101.586477133867</v>
-      </c>
-      <c r="K74" s="9">
-        <v>34463.947149780055</v>
-      </c>
-      <c r="L74" s="9">
-        <v>38263.926571096286</v>
-      </c>
-      <c r="M74" s="9">
-        <v>41975.915611894008</v>
-      </c>
-      <c r="N74" s="9">
-        <v>46695.324648343376</v>
-      </c>
-      <c r="O74" s="9">
-        <v>50435.383954378289</v>
-      </c>
-      <c r="P74" s="9">
-        <v>55498.232539387594</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B75" s="9">
-        <v>3039.7154022535533</v>
-      </c>
-      <c r="C75" s="9">
-        <v>2579.2558856938931</v>
-      </c>
-      <c r="D75" s="9">
-        <v>2353.1987240267472</v>
-      </c>
-      <c r="E75" s="9">
-        <v>2736.454846911367</v>
-      </c>
-      <c r="F75" s="9">
-        <v>3302.528221042855</v>
-      </c>
-      <c r="G75" s="9">
-        <v>3814.2748549877178</v>
-      </c>
-      <c r="H75" s="9">
-        <v>4289.9601635952386</v>
-      </c>
-      <c r="I75" s="9">
-        <v>4778.0129583438174</v>
-      </c>
-      <c r="J75" s="9">
-        <v>5029.0353408442479</v>
-      </c>
-      <c r="K75" s="9">
-        <v>5555.7937083475945</v>
-      </c>
-      <c r="L75" s="9">
-        <v>6619.7393930386088</v>
-      </c>
-      <c r="M75" s="9">
-        <v>6242.0537316948939</v>
-      </c>
-      <c r="N75" s="9">
-        <v>7709.440605150402</v>
-      </c>
-      <c r="O75" s="9">
-        <v>9256.316778799468</v>
-      </c>
-      <c r="P75" s="9">
-        <v>9595.6773922953253</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" s="9">
-        <v>10473.147526810244</v>
-      </c>
-      <c r="C76" s="9">
-        <v>12114.822819041465</v>
-      </c>
-      <c r="D76" s="9">
-        <v>13531.80818338035</v>
-      </c>
-      <c r="E76" s="9">
-        <v>15435.275557485467</v>
-      </c>
-      <c r="F76" s="9">
-        <v>17212.110554040606</v>
-      </c>
-      <c r="G76" s="9">
-        <v>18785.521581635894</v>
-      </c>
-      <c r="H76" s="9">
-        <v>21293.612920337178</v>
-      </c>
-      <c r="I76" s="9">
-        <v>22110.382026590029</v>
-      </c>
-      <c r="J76" s="9">
-        <v>24349.750136289622</v>
-      </c>
-      <c r="K76" s="9">
-        <v>26919.261805653769</v>
-      </c>
-      <c r="L76" s="9">
-        <v>29401.905863880369</v>
-      </c>
-      <c r="M76" s="9">
-        <v>33047.335664916245</v>
-      </c>
-      <c r="N76" s="9">
-        <v>36182.293043192971</v>
-      </c>
-      <c r="O76" s="9">
-        <v>38054.851389455333</v>
-      </c>
-      <c r="P76" s="9">
-        <v>42698.500152270295</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="9">
-        <v>3309.1047357403531</v>
-      </c>
-      <c r="C77" s="9">
-        <v>6063.6300832486431</v>
-      </c>
-      <c r="D77" s="9">
-        <v>6000.7140287686689</v>
-      </c>
-      <c r="E77" s="9">
-        <v>4495.5443052092269</v>
-      </c>
-      <c r="F77" s="9">
-        <v>4187.4454634555186</v>
-      </c>
-      <c r="G77" s="9">
-        <v>3789.8414066950672</v>
-      </c>
-      <c r="H77" s="9">
-        <v>3035.782587168088</v>
-      </c>
-      <c r="I77" s="9">
-        <v>3321.0241358869425</v>
-      </c>
-      <c r="J77" s="9">
-        <v>3589.083895732565</v>
-      </c>
-      <c r="K77" s="9">
-        <v>4170.8691241414908</v>
-      </c>
-      <c r="L77" s="9">
-        <v>4247.635212339912</v>
-      </c>
-      <c r="M77" s="9">
-        <v>6098.9140132438442</v>
-      </c>
-      <c r="N77" s="9">
-        <v>7275.7031804040453</v>
-      </c>
-      <c r="O77" s="9">
-        <v>3314.2958466811451</v>
-      </c>
-      <c r="P77" s="9">
-        <v>5212.1206595538406</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" s="9">
-        <v>4206.1956440841022</v>
-      </c>
-      <c r="C78" s="9">
-        <v>6924.2373615412516</v>
-      </c>
-      <c r="D78" s="9">
-        <v>6990.4474589261945</v>
-      </c>
-      <c r="E78" s="9">
-        <v>5400.6692365846238</v>
-      </c>
-      <c r="F78" s="9">
-        <v>5774.9973134824158</v>
-      </c>
-      <c r="G78" s="9">
-        <v>5938.5082929207319</v>
-      </c>
-      <c r="H78" s="9">
-        <v>5416.3186964526149</v>
-      </c>
-      <c r="I78" s="9">
-        <v>5527.4194467490224</v>
-      </c>
-      <c r="J78" s="9">
-        <v>6297.6116873888859</v>
-      </c>
-      <c r="K78" s="9">
-        <v>7142.5808287399941</v>
-      </c>
-      <c r="L78" s="9">
-        <v>7447.8375374826119</v>
-      </c>
-      <c r="M78" s="9">
-        <v>9650.817281878537</v>
-      </c>
-      <c r="N78" s="9">
-        <v>10843.862730844161</v>
-      </c>
-      <c r="O78" s="9">
-        <v>9653.8713857261137</v>
-      </c>
-      <c r="P78" s="9">
-        <v>12913.85490863192</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B79" s="9">
-        <v>-897.09090834374911</v>
-      </c>
-      <c r="C79" s="9">
-        <v>-860.6072782926085</v>
-      </c>
-      <c r="D79" s="9">
-        <v>-989.73343015752562</v>
-      </c>
-      <c r="E79" s="9">
-        <v>-905.12493137539695</v>
-      </c>
-      <c r="F79" s="9">
-        <v>-1587.5518500268972</v>
-      </c>
-      <c r="G79" s="9">
-        <v>-2148.6668862256647</v>
-      </c>
-      <c r="H79" s="9">
-        <v>-2380.5361092845269</v>
-      </c>
-      <c r="I79" s="9">
-        <v>-2206.3953108620799</v>
-      </c>
-      <c r="J79" s="9">
-        <v>-2708.5277916563209</v>
-      </c>
-      <c r="K79" s="9">
-        <v>-2971.7117045985033</v>
-      </c>
-      <c r="L79" s="9">
-        <v>-3200.2023251426999</v>
-      </c>
-      <c r="M79" s="9">
-        <v>-3551.9032686346927</v>
-      </c>
-      <c r="N79" s="9">
-        <v>-3568.1595504401157</v>
-      </c>
-      <c r="O79" s="9">
-        <v>-6339.5755390449685</v>
-      </c>
-      <c r="P79" s="9">
-        <v>-7701.7342490780793</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" s="9">
-        <v>-1774.7724851904677</v>
-      </c>
-      <c r="C80" s="9">
-        <v>-3470.8253209444047</v>
-      </c>
-      <c r="D80" s="9">
-        <v>-4074.815340613337</v>
-      </c>
-      <c r="E80" s="9">
-        <v>-2947.1871485204756</v>
-      </c>
-      <c r="F80" s="9">
-        <v>-2583.567174009564</v>
-      </c>
-      <c r="G80" s="9">
-        <v>-2310.3495440953366</v>
-      </c>
-      <c r="H80" s="9">
-        <v>-2693.3111325882937</v>
-      </c>
-      <c r="I80" s="9">
-        <v>-1634.6874876561487</v>
-      </c>
-      <c r="J80" s="9">
-        <v>-1474.4947911413001</v>
-      </c>
-      <c r="K80" s="9">
-        <v>-997.23027842948613</v>
-      </c>
-      <c r="L80" s="9">
-        <v>-1452.7192314646454</v>
-      </c>
-      <c r="M80" s="9">
-        <v>-2188.5276084677789</v>
-      </c>
-      <c r="N80" s="9">
-        <v>-2935.8113224403569</v>
-      </c>
-      <c r="O80" s="9">
-        <v>-4314.0304176820555</v>
-      </c>
-      <c r="P80" s="9">
-        <v>-4965.9673352441187</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B81" s="9">
-        <v>4440.1906395656097</v>
-      </c>
-      <c r="C81" s="9">
-        <v>5076.6550643413684</v>
-      </c>
-      <c r="D81" s="9">
-        <v>3833.2224663407633</v>
-      </c>
-      <c r="E81" s="9">
-        <v>4563.732409342053</v>
-      </c>
-      <c r="F81" s="9">
-        <v>5314.9850298326955</v>
-      </c>
-      <c r="G81" s="9">
-        <v>5535.6640255079246</v>
-      </c>
-      <c r="H81" s="9">
-        <v>6380.6974586243932</v>
-      </c>
-      <c r="I81" s="9">
-        <v>8552.6152437187593</v>
-      </c>
-      <c r="J81" s="9">
-        <v>9430.286867317267</v>
-      </c>
-      <c r="K81" s="9">
-        <v>10949.740839439119</v>
-      </c>
-      <c r="L81" s="9">
-        <v>12688.262555974658</v>
-      </c>
-      <c r="M81" s="9">
-        <v>14470.715058101243</v>
-      </c>
-      <c r="N81" s="9">
-        <v>14506.454714884025</v>
-      </c>
-      <c r="O81" s="9">
-        <v>9957.3655178403296</v>
-      </c>
-      <c r="P81" s="9">
-        <v>12695.388029817879</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="9">
-        <v>6214.9631247560774</v>
-      </c>
-      <c r="C82" s="9">
-        <v>8547.4803852857731</v>
-      </c>
-      <c r="D82" s="9">
-        <v>7908.0378069541002</v>
-      </c>
-      <c r="E82" s="9">
-        <v>7510.9195578625286</v>
-      </c>
-      <c r="F82" s="9">
-        <v>7898.5522038422596</v>
-      </c>
-      <c r="G82" s="9">
-        <v>7846.0135696032612</v>
-      </c>
-      <c r="H82" s="9">
-        <v>9074.008591212687</v>
-      </c>
-      <c r="I82" s="9">
-        <v>10187.302731374908</v>
-      </c>
-      <c r="J82" s="9">
-        <v>10904.781658458567</v>
-      </c>
-      <c r="K82" s="9">
-        <v>11946.971117868605</v>
-      </c>
-      <c r="L82" s="9">
-        <v>14140.981787439303</v>
-      </c>
-      <c r="M82" s="9">
-        <v>16659.242666569022</v>
-      </c>
-      <c r="N82" s="9">
-        <v>17442.266037324382</v>
-      </c>
-      <c r="O82" s="9">
-        <v>14271.395935522385</v>
-      </c>
-      <c r="P82" s="9">
-        <v>17661.355365061998</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.1"/>
@@ -5162,7 +5226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1">
     <pageSetUpPr fitToPage="1"/>
@@ -7853,7 +7917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil5">
     <pageSetUpPr fitToPage="1"/>
@@ -9989,14 +10053,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>

--- a/datamacro/data.xlsx
+++ b/datamacro/data.xlsx
@@ -1070,11 +1070,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>

--- a/datamacro/data.xlsx
+++ b/datamacro/data.xlsx
@@ -212,7 +212,7 @@
     <t>OGT_Recettes fiscales brutes</t>
   </si>
   <si>
-    <t xml:space="preserve">OGT_Impôts </t>
+    <t>OGT_Impôts</t>
   </si>
   <si>
     <t>OGT_Douanes</t>
@@ -1033,7 +1033,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="37.86214285714286" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>

--- a/datamacro/data.xlsx
+++ b/datamacro/data.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\module2modelisation\datamacro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="pib_nominal"/>
-    <sheet r:id="rId2" sheetId="2" name="Comptes_nationaux"/>
-    <sheet r:id="rId3" sheetId="3" name="OGT"/>
-    <sheet r:id="rId4" sheetId="4" name="Balance_des_paiements"/>
-    <sheet r:id="rId5" sheetId="5" name="Situation_monétaire"/>
+    <sheet name="pibn" sheetId="1" r:id="rId1"/>
+    <sheet name="pibr" sheetId="2" r:id="rId2"/>
+    <sheet name="ogt" sheetId="3" r:id="rId3"/>
+    <sheet name="bop" sheetId="4" r:id="rId4"/>
+    <sheet name="mon" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Balance_des_paiements!$A$1:$P$56</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Comptes_nationaux!$A$1:$P$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">OGT!$A$1:$P$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Situation_monétaire!$A$1:$P$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">bop!$A$1:$P$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">mon!$A$1:$P$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ogt!$A$1:$P$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">pibr!$A$1:$P$42</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="3025149972"/>
 </workbook>
 </file>
 
@@ -596,8 +601,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -610,7 +616,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0070c0"/>
+      <color rgb="FF0070C0"/>
       <name val="Candara"/>
       <family val="2"/>
     </font>
@@ -629,7 +635,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF0070c0"/>
+      <color rgb="FF0070C0"/>
       <name val="Candara"/>
       <family val="2"/>
     </font>
@@ -679,61 +685,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="7" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -744,10 +749,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -785,71 +790,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -877,7 +882,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -900,11 +905,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -913,13 +918,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -929,7 +934,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -938,7 +943,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -947,7 +952,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -955,10 +960,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1029,29 +1034,17 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="37.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="37.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="2">
         <v>2007</v>
@@ -1099,39 +1092,39 @@
         <v>2021</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>150</v>
       </c>
       <c r="B2" s="4">
-        <v>4483.449452644831</v>
+        <v>4483.4494526448307</v>
       </c>
       <c r="C2" s="4">
-        <v>4956.710886325916</v>
+        <v>4956.7108863259164</v>
       </c>
       <c r="D2" s="4">
-        <v>5731.285115745988</v>
+        <v>5731.2851157459882</v>
       </c>
       <c r="E2" s="4">
-        <v>6066.670120862714</v>
+        <v>6066.6701208627137</v>
       </c>
       <c r="F2" s="4">
-        <v>6795.94473011924</v>
+        <v>6795.9447301192404</v>
       </c>
       <c r="G2" s="4">
-        <v>7116.485637245487</v>
+        <v>7116.4856372454869</v>
       </c>
       <c r="H2" s="4">
-        <v>7263.786018821875</v>
+        <v>7263.7860188218747</v>
       </c>
       <c r="I2" s="4">
-        <v>7815.794640128164</v>
+        <v>7815.7946401281642</v>
       </c>
       <c r="J2" s="4">
-        <v>8550.957776154002</v>
+        <v>8550.9577761540022</v>
       </c>
       <c r="K2" s="4">
-        <v>9459.625498515647</v>
+        <v>9459.6254985156465</v>
       </c>
       <c r="L2" s="4">
         <v>10080.002413338638</v>
@@ -1149,7 +1142,7 @@
         <v>12926.132930907246</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>151</v>
       </c>
@@ -1163,43 +1156,43 @@
         <v>3959.9463961197825</v>
       </c>
       <c r="E3" s="4">
-        <v>4286.665113709841</v>
+        <v>4286.6651137098406</v>
       </c>
       <c r="F3" s="4">
-        <v>4845.354815353319</v>
+        <v>4845.3548153533193</v>
       </c>
       <c r="G3" s="4">
-        <v>4822.999160861817</v>
+        <v>4822.9991608618166</v>
       </c>
       <c r="H3" s="4">
-        <v>4785.457388016675</v>
+        <v>4785.4573880166754</v>
       </c>
       <c r="I3" s="4">
-        <v>5129.148349740992</v>
+        <v>5129.1483497409918</v>
       </c>
       <c r="J3" s="4">
-        <v>5458.464328614327</v>
+        <v>5458.4643286143273</v>
       </c>
       <c r="K3" s="4">
-        <v>5886.451357906222</v>
+        <v>5886.4513579062223</v>
       </c>
       <c r="L3" s="4">
-        <v>6269.493366365555</v>
+        <v>6269.4933663655547</v>
       </c>
       <c r="M3" s="4">
-        <v>7106.937908615519</v>
+        <v>7106.9379086155186</v>
       </c>
       <c r="N3" s="4">
-        <v>7536.522661832454</v>
+        <v>7536.5226618324541</v>
       </c>
       <c r="O3" s="4">
         <v>7649.2797330338635</v>
       </c>
       <c r="P3" s="4">
-        <v>8284.503412797047</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>8284.5034127970466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>152</v>
       </c>
@@ -1210,13 +1203,13 @@
         <v>1402.480147786488</v>
       </c>
       <c r="D4" s="4">
-        <v>1531.514906790669</v>
+        <v>1531.5149067906691</v>
       </c>
       <c r="E4" s="4">
-        <v>1483.353209503934</v>
+        <v>1483.3532095039341</v>
       </c>
       <c r="F4" s="4">
-        <v>1652.654300051261</v>
+        <v>1652.6543000512611</v>
       </c>
       <c r="G4" s="4">
         <v>2014.5217266950458</v>
@@ -1225,7 +1218,7 @@
         <v>2139.0386932725414</v>
       </c>
       <c r="I4" s="4">
-        <v>2310.247629048771</v>
+        <v>2310.2476290487712</v>
       </c>
       <c r="J4" s="4">
         <v>2684.1372643653303</v>
@@ -1237,19 +1230,19 @@
         <v>3229.9410024057015</v>
       </c>
       <c r="M4" s="4">
-        <v>3268.37232497698</v>
+        <v>3268.3723249769801</v>
       </c>
       <c r="N4" s="4">
-        <v>3525.504961028936</v>
+        <v>3525.5049610289361</v>
       </c>
       <c r="O4" s="4">
         <v>3862.1545308051736</v>
       </c>
       <c r="P4" s="4">
-        <v>3900.842079133141</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>3900.8420791331409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>153</v>
       </c>
@@ -1263,43 +1256,43 @@
         <v>239.82381283553693</v>
       </c>
       <c r="E5" s="4">
-        <v>296.6517976489388</v>
+        <v>296.65179764893878</v>
       </c>
       <c r="F5" s="4">
         <v>297.93561471466006</v>
       </c>
       <c r="G5" s="4">
-        <v>278.9647496886245</v>
+        <v>278.96474968862452</v>
       </c>
       <c r="H5" s="4">
-        <v>339.2899375326577</v>
+        <v>339.28993753265769</v>
       </c>
       <c r="I5" s="4">
-        <v>376.3986613384016</v>
+        <v>376.39866133840161</v>
       </c>
       <c r="J5" s="4">
-        <v>408.3561831743445</v>
+        <v>408.35618317434449</v>
       </c>
       <c r="K5" s="4">
         <v>472.25520084011976</v>
       </c>
       <c r="L5" s="4">
-        <v>580.5680445673798</v>
+        <v>580.56804456737984</v>
       </c>
       <c r="M5" s="4">
-        <v>625.188831581965</v>
+        <v>625.18883158196502</v>
       </c>
       <c r="N5" s="4">
-        <v>653.7452923788193</v>
+        <v>653.74529237881927</v>
       </c>
       <c r="O5" s="4">
-        <v>695.6831511349118</v>
+        <v>695.68315113491178</v>
       </c>
       <c r="P5" s="4">
-        <v>740.7874389770595</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>740.78743897705954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>154</v>
       </c>
@@ -1307,7 +1300,7 @@
         <v>1735.3916995681498</v>
       </c>
       <c r="C6" s="4">
-        <v>2125.5882928824</v>
+        <v>2125.5882928823999</v>
       </c>
       <c r="D6" s="4">
         <v>2089.0866881851607</v>
@@ -1319,7 +1312,7 @@
         <v>2567.4618787139984</v>
       </c>
       <c r="G6" s="4">
-        <v>2851.251422792588</v>
+        <v>2851.2514227925881</v>
       </c>
       <c r="H6" s="4">
         <v>3412.9851137854566</v>
@@ -1334,22 +1327,22 @@
         <v>5031.0922710484565</v>
       </c>
       <c r="L6" s="4">
-        <v>5548.65723005957</v>
+        <v>5548.6572300595699</v>
       </c>
       <c r="M6" s="4">
         <v>6776.355975162508</v>
       </c>
       <c r="N6" s="4">
-        <v>7662.019303196652</v>
+        <v>7662.0193031966519</v>
       </c>
       <c r="O6" s="4">
-        <v>6190.789477443648</v>
+        <v>6190.7894774436481</v>
       </c>
       <c r="P6" s="4">
-        <v>8167.088967998444</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>8167.0889679984439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>155</v>
       </c>
@@ -1366,13 +1359,13 @@
         <v>244.29396079788395</v>
       </c>
       <c r="F7" s="4">
-        <v>283.2331558005472</v>
+        <v>283.23315580054719</v>
       </c>
       <c r="G7" s="4">
         <v>388.12126437005236</v>
       </c>
       <c r="H7" s="4">
-        <v>807.7605796338563</v>
+        <v>807.76057963385631</v>
       </c>
       <c r="I7" s="4">
         <v>1118.8770156029495</v>
@@ -1381,7 +1374,7 @@
         <v>1051.2050499796549</v>
       </c>
       <c r="K7" s="4">
-        <v>851.8393285613679</v>
+        <v>851.83932856136789</v>
       </c>
       <c r="L7" s="4">
         <v>1413.3732245308743</v>
@@ -1393,33 +1386,33 @@
         <v>2115.9666280547463</v>
       </c>
       <c r="O7" s="4">
-        <v>979.6523275235564</v>
+        <v>979.65232752355644</v>
       </c>
       <c r="P7" s="4">
-        <v>2449.976524044825</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>2449.9765240448251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B8" s="4">
-        <v>687.668840030351</v>
+        <v>687.66884003035102</v>
       </c>
       <c r="C8" s="4">
-        <v>834.3243618357874</v>
+        <v>834.32436183578739</v>
       </c>
       <c r="D8" s="4">
-        <v>821.0939983245898</v>
+        <v>821.09399832458985</v>
       </c>
       <c r="E8" s="4">
-        <v>885.0067485967411</v>
+        <v>885.00674859674109</v>
       </c>
       <c r="F8" s="4">
-        <v>984.8199563728867</v>
+        <v>984.81995637288674</v>
       </c>
       <c r="G8" s="4">
-        <v>1083.965356526554</v>
+        <v>1083.9653565265539</v>
       </c>
       <c r="H8" s="4">
         <v>1266.3626181366735</v>
@@ -1434,7 +1427,7 @@
         <v>2374.0414299112754</v>
       </c>
       <c r="L8" s="4">
-        <v>2120.445690540124</v>
+        <v>2120.4456905401239</v>
       </c>
       <c r="M8" s="4">
         <v>2399.3064845539275</v>
@@ -1443,13 +1436,13 @@
         <v>2935.1829607071904</v>
       </c>
       <c r="O8" s="4">
-        <v>2743.50603706951</v>
+        <v>2743.5060370695101</v>
       </c>
       <c r="P8" s="4">
-        <v>2643.076323647011</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>2643.0763236470111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>157</v>
       </c>
@@ -1460,7 +1453,7 @@
         <v>205.73032431700904</v>
       </c>
       <c r="D9" s="4">
-        <v>186.5687537202757</v>
+        <v>186.56875372027571</v>
       </c>
       <c r="E9" s="4">
         <v>229.30363030337776</v>
@@ -1481,25 +1474,25 @@
         <v>274.27298213509357</v>
       </c>
       <c r="K9" s="4">
-        <v>355.2361195355643</v>
+        <v>355.23611953556428</v>
       </c>
       <c r="L9" s="4">
         <v>434.9994345471755</v>
       </c>
       <c r="M9" s="4">
-        <v>487.9008954576284</v>
+        <v>487.90089545762839</v>
       </c>
       <c r="N9" s="4">
-        <v>592.8587504439142</v>
+        <v>592.85875044391423</v>
       </c>
       <c r="O9" s="4">
-        <v>571.1729329763384</v>
+        <v>571.17293297633842</v>
       </c>
       <c r="P9" s="4">
-        <v>996.0283697608202</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>996.02836976082017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>158</v>
       </c>
@@ -1519,25 +1512,25 @@
         <v>257.51623053677605</v>
       </c>
       <c r="G10" s="4">
-        <v>260.8357667040514</v>
+        <v>260.83576670405142</v>
       </c>
       <c r="H10" s="4">
-        <v>270.2892352342981</v>
+        <v>270.28923523429808</v>
       </c>
       <c r="I10" s="4">
         <v>293.29269937798017</v>
       </c>
       <c r="J10" s="4">
-        <v>338.5679445776553</v>
+        <v>338.56794457765528</v>
       </c>
       <c r="K10" s="4">
-        <v>384.6138257022583</v>
+        <v>384.61382570225828</v>
       </c>
       <c r="L10" s="4">
-        <v>394.493765832607</v>
+        <v>394.49376583260698</v>
       </c>
       <c r="M10" s="4">
-        <v>446.4989024436845</v>
+        <v>446.49890244368453</v>
       </c>
       <c r="N10" s="4">
         <v>472.31384166935504</v>
@@ -1546,65 +1539,65 @@
         <v>398.86271612434075</v>
       </c>
       <c r="P10" s="4">
-        <v>432.6787260612029</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>432.67872606120289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="4">
-        <v>55.99436354692864</v>
+        <v>55.994363546928639</v>
       </c>
       <c r="C11" s="4">
-        <v>71.08287612594549</v>
+        <v>71.082876125945489</v>
       </c>
       <c r="D11" s="4">
-        <v>64.1347968146583</v>
+        <v>64.134796814658301</v>
       </c>
       <c r="E11" s="4">
-        <v>67.12741015250351</v>
+        <v>67.127410152503515</v>
       </c>
       <c r="F11" s="4">
-        <v>66.20881370102411</v>
+        <v>66.208813701024113</v>
       </c>
       <c r="G11" s="4">
-        <v>67.16002159064385</v>
+        <v>67.160021590643851</v>
       </c>
       <c r="H11" s="4">
-        <v>64.39456876592158</v>
+        <v>64.394568765921576</v>
       </c>
       <c r="I11" s="4">
-        <v>68.3450680896012</v>
+        <v>68.345068089601199</v>
       </c>
       <c r="J11" s="4">
-        <v>68.78445719935696</v>
+        <v>68.784457199356964</v>
       </c>
       <c r="K11" s="4">
-        <v>68.85992163861864</v>
+        <v>68.859921638618644</v>
       </c>
       <c r="L11" s="4">
-        <v>78.93914519781384</v>
+        <v>78.939145197813843</v>
       </c>
       <c r="M11" s="4">
-        <v>91.05057256248652</v>
+        <v>91.050572562486522</v>
       </c>
       <c r="N11" s="4">
-        <v>98.97677058948845</v>
+        <v>98.976770589488453</v>
       </c>
       <c r="O11" s="4">
-        <v>88.24665434805559</v>
+        <v>88.246654348055586</v>
       </c>
       <c r="P11" s="4">
         <v>110.34674139141313</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>160</v>
       </c>
       <c r="B12" s="4">
-        <v>156.495029488641</v>
+        <v>156.49502948864099</v>
       </c>
       <c r="C12" s="4">
         <v>244.77342953585563</v>
@@ -1622,19 +1615,19 @@
         <v>221.79157570915046</v>
       </c>
       <c r="H12" s="4">
-        <v>202.9540815044841</v>
+        <v>202.95408150448409</v>
       </c>
       <c r="I12" s="4">
-        <v>221.8167648263162</v>
+        <v>221.81676482631619</v>
       </c>
       <c r="J12" s="4">
         <v>270.16976612711915</v>
       </c>
       <c r="K12" s="4">
-        <v>287.0181465079459</v>
+        <v>287.01814650794591</v>
       </c>
       <c r="L12" s="4">
-        <v>327.2604947337991</v>
+        <v>327.26049473379908</v>
       </c>
       <c r="M12" s="4">
         <v>374.4664843902209</v>
@@ -1646,24 +1639,24 @@
         <v>471.88490682390193</v>
       </c>
       <c r="P12" s="4">
-        <v>535.7518541160946</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>535.75185411609459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>161</v>
       </c>
       <c r="B13" s="4">
-        <v>63.60139524998162</v>
+        <v>63.601395249981621</v>
       </c>
       <c r="C13" s="4">
-        <v>50.27602342184936</v>
+        <v>50.276023421849359</v>
       </c>
       <c r="D13" s="4">
-        <v>41.30893146788125</v>
+        <v>41.308931467881251</v>
       </c>
       <c r="E13" s="4">
-        <v>31.35263645693908</v>
+        <v>31.352636456939081</v>
       </c>
       <c r="F13" s="4">
         <v>27.642218442035276</v>
@@ -1672,10 +1665,10 @@
         <v>30.510427207839925</v>
       </c>
       <c r="H13" s="4">
-        <v>31.90556771463295</v>
+        <v>31.905567714632951</v>
       </c>
       <c r="I13" s="4">
-        <v>34.28868148737813</v>
+        <v>34.288681487378128</v>
       </c>
       <c r="J13" s="4">
         <v>33.060694951284646</v>
@@ -1687,19 +1680,19 @@
         <v>47.389718149318156</v>
       </c>
       <c r="M13" s="4">
-        <v>50.596314839264</v>
+        <v>50.596314839263997</v>
       </c>
       <c r="N13" s="4">
-        <v>51.49112916414791</v>
+        <v>51.491129164147907</v>
       </c>
       <c r="O13" s="4">
-        <v>53.11866245788134</v>
+        <v>53.118662457881342</v>
       </c>
       <c r="P13" s="4">
-        <v>55.30890723189678</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>55.308907231896782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>162</v>
       </c>
@@ -1719,7 +1712,7 @@
         <v>248.24122578964872</v>
       </c>
       <c r="G14" s="4">
-        <v>262.8700807946246</v>
+        <v>262.87008079462458</v>
       </c>
       <c r="H14" s="4">
         <v>272.02509472183783</v>
@@ -1728,7 +1721,7 @@
         <v>287.50780358692003</v>
       </c>
       <c r="J14" s="4">
-        <v>295.0037288049841</v>
+        <v>295.00372880498412</v>
       </c>
       <c r="K14" s="4">
         <v>330.11591742970916</v>
@@ -1740,16 +1733,16 @@
         <v>449.54119899145064</v>
       </c>
       <c r="N14" s="4">
-        <v>570.46413306291</v>
+        <v>570.46413306291004</v>
       </c>
       <c r="O14" s="4">
-        <v>480.8172836603832</v>
+        <v>480.81728366038323</v>
       </c>
       <c r="P14" s="4">
-        <v>520.6995147871253</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>520.69951478712528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>163</v>
       </c>
@@ -1757,13 +1750,13 @@
         <v>159.85189537076297</v>
       </c>
       <c r="C15" s="4">
-        <v>193.0054597499021</v>
+        <v>193.00545974990209</v>
       </c>
       <c r="D15" s="4">
-        <v>204.9496417433596</v>
+        <v>204.94964174335959</v>
       </c>
       <c r="E15" s="4">
-        <v>252.953804880395</v>
+        <v>252.95380488039501</v>
       </c>
       <c r="F15" s="4">
         <v>243.26763873424468</v>
@@ -1781,7 +1774,7 @@
         <v>305.87402671442914</v>
       </c>
       <c r="K15" s="4">
-        <v>341.9841188460675</v>
+        <v>341.98411884606747</v>
       </c>
       <c r="L15" s="4">
         <v>362.73295822379725</v>
@@ -1790,21 +1783,21 @@
         <v>358.5216905772312</v>
       </c>
       <c r="N15" s="4">
-        <v>396.5731220408532</v>
+        <v>396.57312204085321</v>
       </c>
       <c r="O15" s="4">
-        <v>403.5279564596808</v>
+        <v>403.52795645968081</v>
       </c>
       <c r="P15" s="4">
-        <v>423.2220069580551</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>423.22200695805509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>164</v>
       </c>
       <c r="B16" s="4">
-        <v>8958.83798432991</v>
+        <v>8958.8379843299099</v>
       </c>
       <c r="C16" s="4">
         <v>10373.31990267225</v>
@@ -1828,28 +1821,28 @@
         <v>17106.92869929221</v>
       </c>
       <c r="J16" s="4">
-        <v>18974.95008964978</v>
+        <v>18974.950089649781</v>
       </c>
       <c r="K16" s="4">
-        <v>21473.55072837923</v>
+        <v>21473.550728379229</v>
       </c>
       <c r="L16" s="4">
         <v>23669.50200496196</v>
       </c>
       <c r="M16" s="4">
-        <v>25445.62708557927</v>
+        <v>25445.627085579272</v>
       </c>
       <c r="N16" s="4">
-        <v>29210.36133482569</v>
+        <v>29210.361334825691</v>
       </c>
       <c r="O16" s="4">
         <v>28344.550731424715</v>
       </c>
       <c r="P16" s="4">
-        <v>31560.60251667668</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>31560.602516676681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>165</v>
       </c>
@@ -1857,7 +1850,7 @@
         <v>1284.8021165709874</v>
       </c>
       <c r="C17" s="4">
-        <v>1624.772658884514</v>
+        <v>1624.7726588845139</v>
       </c>
       <c r="D17" s="4">
         <v>1453.9288776603698</v>
@@ -1884,22 +1877,22 @@
         <v>2274.3422694266696</v>
       </c>
       <c r="L17" s="4">
-        <v>2709.244036941048</v>
+        <v>2709.2440369410479</v>
       </c>
       <c r="M17" s="4">
         <v>3080.919909360699</v>
       </c>
       <c r="N17" s="4">
-        <v>3793.088866411498</v>
+        <v>3793.0888664114982</v>
       </c>
       <c r="O17" s="4">
-        <v>3432.446528452854</v>
+        <v>3432.4465284528542</v>
       </c>
       <c r="P17" s="4">
         <v>3943.860590188604</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>166</v>
       </c>
@@ -1925,48 +1918,48 @@
         <v>3221.152939941132</v>
       </c>
       <c r="I18" s="4">
-        <v>3222.854960438409</v>
+        <v>3222.8549604384089</v>
       </c>
       <c r="J18" s="4">
         <v>3691.6946987668243</v>
       </c>
       <c r="K18" s="4">
-        <v>4250.330965701342</v>
+        <v>4250.3309657013424</v>
       </c>
       <c r="L18" s="4">
-        <v>3928.804263278452</v>
+        <v>3928.8042632784518</v>
       </c>
       <c r="M18" s="4">
         <v>4370.1910932884275</v>
       </c>
       <c r="N18" s="4">
-        <v>4845.528329853854</v>
+        <v>4845.5283298538543</v>
       </c>
       <c r="O18" s="4">
         <v>5157.1365082086195</v>
       </c>
       <c r="P18" s="4">
-        <v>5941.829969063527</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>5941.8299690635267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>167</v>
       </c>
       <c r="B19" s="4">
-        <v>484.2700131925386</v>
+        <v>484.27001319253861</v>
       </c>
       <c r="C19" s="4">
-        <v>663.2220853180049</v>
+        <v>663.22208531800493</v>
       </c>
       <c r="D19" s="4">
-        <v>557.8170242647741</v>
+        <v>557.81702426477409</v>
       </c>
       <c r="E19" s="4">
-        <v>630.3222568118863</v>
+        <v>630.32225681188629</v>
       </c>
       <c r="F19" s="4">
-        <v>738.4511540331682</v>
+        <v>738.45115403316822</v>
       </c>
       <c r="G19" s="4">
         <v>964.8153492573382</v>
@@ -1993,13 +1986,13 @@
         <v>2030.9340099685246</v>
       </c>
       <c r="O19" s="4">
-        <v>791.0270824434804</v>
+        <v>791.02708244348037</v>
       </c>
       <c r="P19" s="4">
         <v>1109.2057436224334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>168</v>
       </c>
@@ -2010,7 +2003,7 @@
         <v>1403.2117091029493</v>
       </c>
       <c r="D20" s="4">
-        <v>1240.115855046332</v>
+        <v>1240.1158550463319</v>
       </c>
       <c r="E20" s="4">
         <v>1505.6759351627263</v>
@@ -2034,13 +2027,13 @@
         <v>1994.3108071770591</v>
       </c>
       <c r="L20" s="4">
-        <v>2669.00325509175</v>
+        <v>2669.0032550917499</v>
       </c>
       <c r="M20" s="4">
         <v>2650.495516644603</v>
       </c>
       <c r="N20" s="4">
-        <v>2893.677031310551</v>
+        <v>2893.6770313105508</v>
       </c>
       <c r="O20" s="4">
         <v>2996.1487884759035</v>
@@ -2049,7 +2042,7 @@
         <v>3677.8405794881323</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>169</v>
       </c>
@@ -2057,37 +2050,37 @@
         <v>290.86260601210245</v>
       </c>
       <c r="C21" s="4">
-        <v>358.1543821595816</v>
+        <v>358.15438215958159</v>
       </c>
       <c r="D21" s="4">
-        <v>422.2321447694381</v>
+        <v>422.23214476943809</v>
       </c>
       <c r="E21" s="4">
-        <v>443.60889519278</v>
+        <v>443.60889519277998</v>
       </c>
       <c r="F21" s="4">
-        <v>535.1928969681684</v>
+        <v>535.19289696816838</v>
       </c>
       <c r="G21" s="4">
         <v>487.10821814878636</v>
       </c>
       <c r="H21" s="4">
-        <v>658.0865364221304</v>
+        <v>658.08653642213039</v>
       </c>
       <c r="I21" s="4">
-        <v>722.6815273884188</v>
+        <v>722.68152738841877</v>
       </c>
       <c r="J21" s="4">
-        <v>738.1551287045473</v>
+        <v>738.15512870454734</v>
       </c>
       <c r="K21" s="4">
-        <v>768.9847858691543</v>
+        <v>768.98478586915428</v>
       </c>
       <c r="L21" s="4">
         <v>976.8659309657005</v>
       </c>
       <c r="M21" s="4">
-        <v>873.9311423580269</v>
+        <v>873.93114235802693</v>
       </c>
       <c r="N21" s="4">
         <v>1007.1840616129128</v>
@@ -2099,7 +2092,7 @@
         <v>1364.5520178450724</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>170</v>
       </c>
@@ -2107,25 +2100,25 @@
         <v>325.40903271505334</v>
       </c>
       <c r="C22" s="4">
-        <v>479.0233686765625</v>
+        <v>479.02336867656248</v>
       </c>
       <c r="D22" s="4">
-        <v>526.0182577208175</v>
+        <v>526.01825772081747</v>
       </c>
       <c r="E22" s="4">
-        <v>540.8076574050285</v>
+        <v>540.80765740502852</v>
       </c>
       <c r="F22" s="4">
-        <v>673.2527899575666</v>
+        <v>673.25278995756662</v>
       </c>
       <c r="G22" s="4">
-        <v>734.8530758334766</v>
+        <v>734.85307583347662</v>
       </c>
       <c r="H22" s="4">
-        <v>824.3861574049108</v>
+        <v>824.38615740491082</v>
       </c>
       <c r="I22" s="4">
-        <v>929.108749380896</v>
+        <v>929.10874938089603</v>
       </c>
       <c r="J22" s="4">
         <v>1041.053851784254</v>
@@ -2149,7 +2142,7 @@
         <v>1376.6768369032918</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>171</v>
       </c>
@@ -2172,10 +2165,10 @@
         <v>2007.5184250205498</v>
       </c>
       <c r="H23" s="4">
-        <v>2438.039511571768</v>
+        <v>2438.0395115717679</v>
       </c>
       <c r="I23" s="4">
-        <v>2631.631020988226</v>
+        <v>2631.6310209882258</v>
       </c>
       <c r="J23" s="4">
         <v>3082.4413061176565</v>
@@ -2184,10 +2177,10 @@
         <v>3590.3544629574926</v>
       </c>
       <c r="L23" s="4">
-        <v>3834.772458648281</v>
+        <v>3834.7724586482809</v>
       </c>
       <c r="M23" s="4">
-        <v>4082.778150929733</v>
+        <v>4082.7781509297329</v>
       </c>
       <c r="N23" s="4">
         <v>4562.6470953891185</v>
@@ -2196,15 +2189,15 @@
         <v>4015.408089864819</v>
       </c>
       <c r="P23" s="4">
-        <v>4207.291480002681</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <v>4207.2914800026811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>172</v>
       </c>
       <c r="B24" s="4">
-        <v>1211.040764090457</v>
+        <v>1211.0407640904571</v>
       </c>
       <c r="C24" s="4">
         <v>1423.511180928137</v>
@@ -2216,7 +2209,7 @@
         <v>1782.696334718933</v>
       </c>
       <c r="F24" s="4">
-        <v>2119.100002504293</v>
+        <v>2119.1000025042931</v>
       </c>
       <c r="G24" s="4">
         <v>2459.1748172147136</v>
@@ -2231,33 +2224,33 @@
         <v>3084.6588291296857</v>
       </c>
       <c r="K24" s="4">
-        <v>3408.913943816163</v>
+        <v>3408.9139438161628</v>
       </c>
       <c r="L24" s="4">
-        <v>3776.821617103181</v>
+        <v>3776.8216171031809</v>
       </c>
       <c r="M24" s="4">
-        <v>4616.528100105226</v>
+        <v>4616.5281001052263</v>
       </c>
       <c r="N24" s="4">
-        <v>5775.225132799909</v>
+        <v>5775.2251327999093</v>
       </c>
       <c r="O24" s="4">
-        <v>6251.969932468425</v>
+        <v>6251.9699324684252</v>
       </c>
       <c r="P24" s="4">
-        <v>6640.956648113976</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>6640.9566481139764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>173</v>
       </c>
       <c r="B25" s="4">
-        <v>509.2393726442699</v>
+        <v>509.23937264426991</v>
       </c>
       <c r="C25" s="4">
-        <v>398.5592154388792</v>
+        <v>398.55921543887922</v>
       </c>
       <c r="D25" s="4">
         <v>405.461834679969</v>
@@ -2266,25 +2259,25 @@
         <v>470.45973418825554</v>
       </c>
       <c r="F25" s="4">
-        <v>481.8372984581404</v>
+        <v>481.83729845814042</v>
       </c>
       <c r="G25" s="4">
-        <v>630.5764863755435</v>
+        <v>630.57648637554348</v>
       </c>
       <c r="H25" s="4">
-        <v>654.191499537081</v>
+        <v>654.19149953708097</v>
       </c>
       <c r="I25" s="4">
-        <v>684.2144536894386</v>
+        <v>684.21445368943864</v>
       </c>
       <c r="J25" s="4">
-        <v>731.6616726338302</v>
+        <v>731.66167263383022</v>
       </c>
       <c r="K25" s="4">
-        <v>808.6445071935141</v>
+        <v>808.64450719351407</v>
       </c>
       <c r="L25" s="4">
-        <v>949.776378063659</v>
+        <v>949.77637806365897</v>
       </c>
       <c r="M25" s="4">
         <v>1344.6299751736726</v>
@@ -2299,57 +2292,57 @@
         <v>1626.7919057934619</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>174</v>
       </c>
       <c r="B26" s="4">
-        <v>247.3474661476351</v>
+        <v>247.34746614763509</v>
       </c>
       <c r="C26" s="4">
         <v>222.87103269080382</v>
       </c>
       <c r="D26" s="4">
-        <v>235.2229532920909</v>
+        <v>235.22295329209089</v>
       </c>
       <c r="E26" s="4">
-        <v>302.3520077200586</v>
+        <v>302.35200772005862</v>
       </c>
       <c r="F26" s="4">
-        <v>363.1068907573749</v>
+        <v>363.10689075737491</v>
       </c>
       <c r="G26" s="4">
         <v>403.57238639684897</v>
       </c>
       <c r="H26" s="4">
-        <v>428.512195658725</v>
+        <v>428.51219565872498</v>
       </c>
       <c r="I26" s="4">
-        <v>455.5316233278511</v>
+        <v>455.53162332785109</v>
       </c>
       <c r="J26" s="4">
-        <v>475.9055049520611</v>
+        <v>475.90550495206111</v>
       </c>
       <c r="K26" s="4">
-        <v>539.9995842395156</v>
+        <v>539.99958423951557</v>
       </c>
       <c r="L26" s="4">
-        <v>585.391754475731</v>
+        <v>585.39175447573098</v>
       </c>
       <c r="M26" s="4">
-        <v>766.3884996702714</v>
+        <v>766.38849967027136</v>
       </c>
       <c r="N26" s="4">
         <v>819.7845250968802</v>
       </c>
       <c r="O26" s="4">
-        <v>946.5271841072358</v>
+        <v>946.52718410723583</v>
       </c>
       <c r="P26" s="4">
         <v>1025.0407838303195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>175</v>
       </c>
@@ -2363,93 +2356,93 @@
         <v>268.68517891406964</v>
       </c>
       <c r="E27" s="4">
-        <v>307.5862962209941</v>
+        <v>307.58629622099409</v>
       </c>
       <c r="F27" s="4">
-        <v>306.5075995041284</v>
+        <v>306.50759950412839</v>
       </c>
       <c r="G27" s="4">
         <v>349.46789702145725</v>
       </c>
       <c r="H27" s="4">
-        <v>416.769856148106</v>
+        <v>416.76985614810599</v>
       </c>
       <c r="I27" s="4">
-        <v>454.5292484177807</v>
+        <v>454.52924841778071</v>
       </c>
       <c r="J27" s="4">
-        <v>506.014572506331</v>
+        <v>506.01457250633098</v>
       </c>
       <c r="K27" s="4">
-        <v>550.1528883883855</v>
+        <v>550.15288838838546</v>
       </c>
       <c r="L27" s="4">
-        <v>575.488325071577</v>
+        <v>575.48832507157704</v>
       </c>
       <c r="M27" s="4">
-        <v>773.5421228950811</v>
+        <v>773.54212289508109</v>
       </c>
       <c r="N27" s="4">
-        <v>705.9079521287038</v>
+        <v>705.90795212870376</v>
       </c>
       <c r="O27" s="4">
-        <v>663.265541920596</v>
+        <v>663.26554192059598</v>
       </c>
       <c r="P27" s="4">
-        <v>646.5559618251838</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+        <v>646.55596182518377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>176</v>
       </c>
       <c r="B28" s="4">
-        <v>-253.5176357879135</v>
+        <v>-253.51763578791349</v>
       </c>
       <c r="C28" s="4">
         <v>-409.92760802320964</v>
       </c>
       <c r="D28" s="4">
-        <v>-393.6721543659434</v>
+        <v>-393.67215436594341</v>
       </c>
       <c r="E28" s="4">
         <v>-441.61538844030633</v>
       </c>
       <c r="F28" s="4">
-        <v>-530.397978281237</v>
+        <v>-530.39797828123699</v>
       </c>
       <c r="G28" s="4">
-        <v>-597.5856696403129</v>
+        <v>-597.58566964031286</v>
       </c>
       <c r="H28" s="4">
-        <v>-634.1164782968814</v>
+        <v>-634.11647829688138</v>
       </c>
       <c r="I28" s="4">
-        <v>-676.4002618518521</v>
+        <v>-676.40026185185206</v>
       </c>
       <c r="J28" s="4">
-        <v>-664.1502249496014</v>
+        <v>-664.15022494960135</v>
       </c>
       <c r="K28" s="4">
-        <v>-817.791207367476</v>
+        <v>-817.79120736747598</v>
       </c>
       <c r="L28" s="4">
-        <v>-887.69592998164</v>
+        <v>-887.69592998164001</v>
       </c>
       <c r="M28" s="4">
-        <v>-775.4434383972799</v>
+        <v>-775.44343839727992</v>
       </c>
       <c r="N28" s="4">
-        <v>-949.8479415021671</v>
+        <v>-949.84794150216715</v>
       </c>
       <c r="O28" s="4">
-        <v>-1222.738240464938</v>
+        <v>-1222.7382404649379</v>
       </c>
       <c r="P28" s="4">
         <v>-1290.6650322779817</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>177</v>
       </c>
@@ -2460,28 +2453,28 @@
         <v>17045.691473857354</v>
       </c>
       <c r="D29" s="4">
-        <v>17725.51061517588</v>
+        <v>17725.510615175881</v>
       </c>
       <c r="E29" s="4">
         <v>19553.780838657378</v>
       </c>
       <c r="F29" s="4">
-        <v>21936.59441398137</v>
+        <v>21936.594413981369</v>
       </c>
       <c r="G29" s="4">
-        <v>23860.11188695432</v>
+        <v>23860.111886954321</v>
       </c>
       <c r="H29" s="4">
-        <v>25660.43738498802</v>
+        <v>25660.437384988021</v>
       </c>
       <c r="I29" s="4">
-        <v>28326.61977911932</v>
+        <v>28326.619779119319</v>
       </c>
       <c r="J29" s="4">
         <v>31044.773006105603</v>
       </c>
       <c r="K29" s="4">
-        <v>35146.47729057586</v>
+        <v>35146.477290575858</v>
       </c>
       <c r="L29" s="4">
         <v>38410.465718378524</v>
@@ -2493,13 +2486,13 @@
         <v>47638.305611760385</v>
       </c>
       <c r="O29" s="4">
-        <v>45519.71938337738</v>
+        <v>45519.719383377378</v>
       </c>
       <c r="P29" s="4">
-        <v>51363.15938330439</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+        <v>51363.159383304388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>178</v>
       </c>
@@ -2510,7 +2503,7 @@
         <v>1276.8209931822403</v>
       </c>
       <c r="D30" s="4">
-        <v>1087.08498038655</v>
+        <v>1087.0849803865499</v>
       </c>
       <c r="E30" s="4">
         <v>1309.5867224282101</v>
@@ -2519,37 +2512,37 @@
         <v>1457.1976505480498</v>
       </c>
       <c r="G30" s="4">
-        <v>1555.35241226902</v>
+        <v>1555.3524122690201</v>
       </c>
       <c r="H30" s="4">
-        <v>1757.28315352419</v>
+        <v>1757.2831535241901</v>
       </c>
       <c r="I30" s="4">
         <v>1913.9638540453202</v>
       </c>
       <c r="J30" s="4">
-        <v>2171.40257561953</v>
+        <v>2171.4025756195301</v>
       </c>
       <c r="K30" s="4">
-        <v>2491.108704916205</v>
+        <v>2491.1087049162052</v>
       </c>
       <c r="L30" s="4">
         <v>2648.3768335930286</v>
       </c>
       <c r="M30" s="4">
-        <v>3439.26332915111</v>
+        <v>3439.2633291511102</v>
       </c>
       <c r="N30" s="4">
         <v>3396.9108945466814</v>
       </c>
       <c r="O30" s="4">
-        <v>3915.929999999999</v>
+        <v>3915.9299999999989</v>
       </c>
       <c r="P30" s="4">
-        <v>4381.226480392929</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+        <v>4381.2264803929293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>179</v>
       </c>
@@ -2572,34 +2565,34 @@
         <v>25415.464299223342</v>
       </c>
       <c r="H31" s="4">
-        <v>27417.72053851221</v>
+        <v>27417.720538512211</v>
       </c>
       <c r="I31" s="4">
-        <v>30240.58363316464</v>
+        <v>30240.583633164639</v>
       </c>
       <c r="J31" s="4">
-        <v>33216.17558172513</v>
+        <v>33216.175581725132</v>
       </c>
       <c r="K31" s="4">
         <v>37637.58599549206</v>
       </c>
       <c r="L31" s="4">
-        <v>41058.84255197155</v>
+        <v>41058.842551971553</v>
       </c>
       <c r="M31" s="4">
-        <v>45886.30201667007</v>
+        <v>45886.302016670073</v>
       </c>
       <c r="N31" s="4">
         <v>51035.216506307064</v>
       </c>
       <c r="O31" s="4">
-        <v>49435.64938337738</v>
+        <v>49435.649383377378</v>
       </c>
       <c r="P31" s="4">
-        <v>55744.38586369732</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+        <v>55744.385863697316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>179</v>
       </c>
@@ -2622,10 +2615,10 @@
         <v>25415.464299223342</v>
       </c>
       <c r="H32" s="4">
-        <v>27417.72053851221</v>
+        <v>27417.720538512211</v>
       </c>
       <c r="I32" s="4">
-        <v>30240.58363316464</v>
+        <v>30240.583633164639</v>
       </c>
       <c r="J32" s="4">
         <v>33216.175581725125</v>
@@ -2634,22 +2627,22 @@
         <v>37637.58599549206</v>
       </c>
       <c r="L32" s="4">
-        <v>41058.84255197155</v>
+        <v>41058.842551971553</v>
       </c>
       <c r="M32" s="4">
-        <v>45886.30201667007</v>
+        <v>45886.302016670073</v>
       </c>
       <c r="N32" s="4">
         <v>51035.216506307064</v>
       </c>
       <c r="O32" s="4">
-        <v>49435.64938337738</v>
+        <v>49435.649383377378</v>
       </c>
       <c r="P32" s="4">
-        <v>55744.38586369732</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+        <v>55744.385863697316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>180</v>
       </c>
@@ -2660,7 +2653,7 @@
         <v>15729.707704735358</v>
       </c>
       <c r="D33" s="4">
-        <v>16886.6969074071</v>
+        <v>16886.696907407098</v>
       </c>
       <c r="E33" s="4">
         <v>19315.010404396835</v>
@@ -2669,7 +2662,7 @@
         <v>21789.913775083463</v>
       </c>
       <c r="G33" s="4">
-        <v>23935.97243662361</v>
+        <v>23935.972436623611</v>
       </c>
       <c r="H33" s="4">
         <v>27075.249083932416</v>
@@ -2687,19 +2680,19 @@
         <v>38263.926571096286</v>
       </c>
       <c r="M33" s="4">
-        <v>41975.91561189401</v>
+        <v>41975.915611894008</v>
       </c>
       <c r="N33" s="4">
         <v>46695.324648343376</v>
       </c>
       <c r="O33" s="4">
-        <v>50435.38395437829</v>
+        <v>50435.383954378289</v>
       </c>
       <c r="P33" s="4">
         <v>55498.232539387594</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>181</v>
       </c>
@@ -2707,10 +2700,10 @@
         <v>3039.7154022535533</v>
       </c>
       <c r="C34" s="4">
-        <v>2579.255885693893</v>
+        <v>2579.2558856938931</v>
       </c>
       <c r="D34" s="4">
-        <v>2353.198724026747</v>
+        <v>2353.1987240267472</v>
       </c>
       <c r="E34" s="4">
         <v>2736.454846911367</v>
@@ -2719,25 +2712,25 @@
         <v>3302.528221042855</v>
       </c>
       <c r="G34" s="4">
-        <v>3814.274854987718</v>
+        <v>3814.2748549877178</v>
       </c>
       <c r="H34" s="4">
-        <v>4289.960163595239</v>
+        <v>4289.9601635952386</v>
       </c>
       <c r="I34" s="4">
-        <v>4778.012958343817</v>
+        <v>4778.0129583438174</v>
       </c>
       <c r="J34" s="4">
-        <v>5029.035340844248</v>
+        <v>5029.0353408442479</v>
       </c>
       <c r="K34" s="4">
         <v>5555.7937083475945</v>
       </c>
       <c r="L34" s="4">
-        <v>6619.739393038609</v>
+        <v>6619.7393930386088</v>
       </c>
       <c r="M34" s="4">
-        <v>6242.053731694894</v>
+        <v>6242.0537316948939</v>
       </c>
       <c r="N34" s="4">
         <v>7709.440605150402</v>
@@ -2746,10 +2739,10 @@
         <v>9256.316778799468</v>
       </c>
       <c r="P34" s="4">
-        <v>9595.677392295325</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+        <v>9595.6773922953253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>182</v>
       </c>
@@ -2772,51 +2765,51 @@
         <v>18785.521581635894</v>
       </c>
       <c r="H35" s="4">
-        <v>21293.61292033718</v>
+        <v>21293.612920337178</v>
       </c>
       <c r="I35" s="4">
-        <v>22110.38202659003</v>
+        <v>22110.382026590029</v>
       </c>
       <c r="J35" s="4">
         <v>24349.750136289622</v>
       </c>
       <c r="K35" s="4">
-        <v>26919.26180565377</v>
+        <v>26919.261805653769</v>
       </c>
       <c r="L35" s="4">
-        <v>29401.90586388037</v>
+        <v>29401.905863880369</v>
       </c>
       <c r="M35" s="4">
         <v>33047.335664916245</v>
       </c>
       <c r="N35" s="4">
-        <v>36182.29304319297</v>
+        <v>36182.293043192971</v>
       </c>
       <c r="O35" s="4">
-        <v>38054.85138945533</v>
+        <v>38054.851389455333</v>
       </c>
       <c r="P35" s="4">
         <v>42698.500152270295</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>183</v>
       </c>
       <c r="B36" s="4">
-        <v>3309.104735740353</v>
+        <v>3309.1047357403531</v>
       </c>
       <c r="C36" s="4">
-        <v>6063.630083248643</v>
+        <v>6063.6300832486431</v>
       </c>
       <c r="D36" s="4">
-        <v>6000.714028768669</v>
+        <v>6000.7140287686689</v>
       </c>
       <c r="E36" s="4">
-        <v>4495.544305209227</v>
+        <v>4495.5443052092269</v>
       </c>
       <c r="F36" s="4">
-        <v>4187.445463455519</v>
+        <v>4187.4454634555186</v>
       </c>
       <c r="G36" s="4">
         <v>3789.8414066950672</v>
@@ -2831,60 +2824,60 @@
         <v>3589.083895732565</v>
       </c>
       <c r="K36" s="4">
-        <v>4170.869124141491</v>
+        <v>4170.8691241414908</v>
       </c>
       <c r="L36" s="4">
         <v>4247.635212339912</v>
       </c>
       <c r="M36" s="4">
-        <v>6098.914013243844</v>
+        <v>6098.9140132438442</v>
       </c>
       <c r="N36" s="4">
-        <v>7275.703180404045</v>
+        <v>7275.7031804040453</v>
       </c>
       <c r="O36" s="4">
-        <v>3314.295846681145</v>
+        <v>3314.2958466811451</v>
       </c>
       <c r="P36" s="4">
-        <v>5212.120659553841</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+        <v>5212.1206595538406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>184</v>
       </c>
       <c r="B37" s="4">
-        <v>4206.195644084102</v>
+        <v>4206.1956440841022</v>
       </c>
       <c r="C37" s="4">
-        <v>6924.237361541252</v>
+        <v>6924.2373615412516</v>
       </c>
       <c r="D37" s="4">
         <v>6990.4474589261945</v>
       </c>
       <c r="E37" s="4">
-        <v>5400.669236584624</v>
+        <v>5400.6692365846238</v>
       </c>
       <c r="F37" s="4">
-        <v>5774.997313482416</v>
+        <v>5774.9973134824158</v>
       </c>
       <c r="G37" s="4">
-        <v>5938.508292920732</v>
+        <v>5938.5082929207319</v>
       </c>
       <c r="H37" s="4">
-        <v>5416.318696452615</v>
+        <v>5416.3186964526149</v>
       </c>
       <c r="I37" s="4">
-        <v>5527.419446749022</v>
+        <v>5527.4194467490224</v>
       </c>
       <c r="J37" s="4">
-        <v>6297.611687388886</v>
+        <v>6297.6116873888859</v>
       </c>
       <c r="K37" s="4">
-        <v>7142.580828739994</v>
+        <v>7142.5808287399941</v>
       </c>
       <c r="L37" s="4">
-        <v>7447.837537482612</v>
+        <v>7447.8375374826119</v>
       </c>
       <c r="M37" s="4">
         <v>9650.817281878537</v>
@@ -2893,27 +2886,27 @@
         <v>10843.862730844161</v>
       </c>
       <c r="O37" s="4">
-        <v>9653.871385726114</v>
+        <v>9653.8713857261137</v>
       </c>
       <c r="P37" s="4">
         <v>12913.85490863192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B38" s="4">
-        <v>-897.0909083437491</v>
+        <v>-897.09090834374911</v>
       </c>
       <c r="C38" s="4">
         <v>-860.6072782926085</v>
       </c>
       <c r="D38" s="4">
-        <v>-989.7334301575256</v>
+        <v>-989.73343015752562</v>
       </c>
       <c r="E38" s="4">
-        <v>-905.124931375397</v>
+        <v>-905.12493137539695</v>
       </c>
       <c r="F38" s="4">
         <v>-1587.5518500268972</v>
@@ -2922,19 +2915,19 @@
         <v>-2148.6668862256647</v>
       </c>
       <c r="H38" s="4">
-        <v>-2380.536109284527</v>
+        <v>-2380.5361092845269</v>
       </c>
       <c r="I38" s="4">
-        <v>-2206.39531086208</v>
+        <v>-2206.3953108620799</v>
       </c>
       <c r="J38" s="4">
-        <v>-2708.527791656321</v>
+        <v>-2708.5277916563209</v>
       </c>
       <c r="K38" s="4">
         <v>-2971.7117045985033</v>
       </c>
       <c r="L38" s="4">
-        <v>-3200.2023251427</v>
+        <v>-3200.2023251426999</v>
       </c>
       <c r="M38" s="4">
         <v>-3551.9032686346927</v>
@@ -2946,10 +2939,10 @@
         <v>-6339.5755390449685</v>
       </c>
       <c r="P38" s="4">
-        <v>-7701.734249078079</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+        <v>-7701.7342490780793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>186</v>
       </c>
@@ -2978,36 +2971,36 @@
         <v>-1634.6874876561487</v>
       </c>
       <c r="J39" s="4">
-        <v>-1474.4947911413</v>
+        <v>-1474.4947911413001</v>
       </c>
       <c r="K39" s="4">
-        <v>-997.2302784294861</v>
+        <v>-997.23027842948613</v>
       </c>
       <c r="L39" s="4">
         <v>-1452.7192314646454</v>
       </c>
       <c r="M39" s="4">
-        <v>-2188.527608467779</v>
+        <v>-2188.5276084677789</v>
       </c>
       <c r="N39" s="4">
-        <v>-2935.811322440357</v>
+        <v>-2935.8113224403569</v>
       </c>
       <c r="O39" s="4">
         <v>-4314.0304176820555</v>
       </c>
       <c r="P39" s="4">
-        <v>-4965.967335244119</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+        <v>-4965.9673352441187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>187</v>
       </c>
       <c r="B40" s="4">
-        <v>4440.19063956561</v>
+        <v>4440.1906395656097</v>
       </c>
       <c r="C40" s="4">
-        <v>5076.655064341368</v>
+        <v>5076.6550643413684</v>
       </c>
       <c r="D40" s="4">
         <v>3833.2224663407633</v>
@@ -3016,16 +3009,16 @@
         <v>4563.732409342053</v>
       </c>
       <c r="F40" s="4">
-        <v>5314.985029832696</v>
+        <v>5314.9850298326955</v>
       </c>
       <c r="G40" s="4">
-        <v>5535.664025507925</v>
+        <v>5535.6640255079246</v>
       </c>
       <c r="H40" s="4">
-        <v>6380.697458624393</v>
+        <v>6380.6974586243932</v>
       </c>
       <c r="I40" s="4">
-        <v>8552.61524371876</v>
+        <v>8552.6152437187593</v>
       </c>
       <c r="J40" s="4">
         <v>9430.286867317267</v>
@@ -3043,33 +3036,33 @@
         <v>14506.454714884025</v>
       </c>
       <c r="O40" s="4">
-        <v>9957.36551784033</v>
+        <v>9957.3655178403296</v>
       </c>
       <c r="P40" s="4">
-        <v>12695.38802981788</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+        <v>12695.388029817879</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>188</v>
       </c>
       <c r="B41" s="4">
-        <v>6214.963124756077</v>
+        <v>6214.9631247560774</v>
       </c>
       <c r="C41" s="4">
-        <v>8547.480385285773</v>
+        <v>8547.4803852857731</v>
       </c>
       <c r="D41" s="4">
-        <v>7908.0378069541</v>
+        <v>7908.0378069541002</v>
       </c>
       <c r="E41" s="4">
-        <v>7510.919557862529</v>
+        <v>7510.9195578625286</v>
       </c>
       <c r="F41" s="4">
-        <v>7898.55220384226</v>
+        <v>7898.5522038422596</v>
       </c>
       <c r="G41" s="4">
-        <v>7846.013569603261</v>
+        <v>7846.0135696032612</v>
       </c>
       <c r="H41" s="4">
         <v>9074.008591212687</v>
@@ -3090,7 +3083,7 @@
         <v>16659.242666569022</v>
       </c>
       <c r="N41" s="4">
-        <v>17442.26603732438</v>
+        <v>17442.266037324382</v>
       </c>
       <c r="O41" s="4">
         <v>14271.395935522385</v>
@@ -3112,30 +3105,17 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="39.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="39.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="8.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="2">
         <v>2007</v>
@@ -3183,42 +3163,42 @@
         <v>2021</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B2" s="4">
-        <v>4483.449452644831</v>
+        <v>4483.4494526448307</v>
       </c>
       <c r="C2" s="4">
-        <v>4586.083981925131</v>
+        <v>4586.0839819251314</v>
       </c>
       <c r="D2" s="4">
-        <v>4837.066916256336</v>
+        <v>4837.0669162563363</v>
       </c>
       <c r="E2" s="4">
-        <v>4725.438853504532</v>
+        <v>4725.4388535045318</v>
       </c>
       <c r="F2" s="4">
-        <v>4814.150461586599</v>
+        <v>4814.1504615865988</v>
       </c>
       <c r="G2" s="4">
-        <v>4914.182359042209</v>
+        <v>4914.1823590422091</v>
       </c>
       <c r="H2" s="4">
-        <v>4666.561753163042</v>
+        <v>4666.5617531630423</v>
       </c>
       <c r="I2" s="4">
-        <v>4740.567711925238</v>
+        <v>4740.5677119252377</v>
       </c>
       <c r="J2" s="4">
-        <v>4668.084551589873</v>
+        <v>4668.0845515898727</v>
       </c>
       <c r="K2" s="4">
-        <v>4730.892015221025</v>
+        <v>4730.8920152210248</v>
       </c>
       <c r="L2" s="4">
-        <v>4792.057988260151</v>
+        <v>4792.0579882601514</v>
       </c>
       <c r="M2" s="4">
         <v>4809.038612096715</v>
@@ -3227,13 +3207,13 @@
         <v>5094.349751837085</v>
       </c>
       <c r="O2" s="4">
-        <v>5024.565335801311</v>
+        <v>5024.5653358013114</v>
       </c>
       <c r="P2" s="4">
-        <v>4945.929420187946</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>4945.9294201879457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>112</v>
       </c>
@@ -3247,7 +3227,7 @@
         <v>3353.3617606528674</v>
       </c>
       <c r="E3" s="4">
-        <v>3345.166976435549</v>
+        <v>3345.1669764355488</v>
       </c>
       <c r="F3" s="4">
         <v>3387.9943065336643</v>
@@ -3283,7 +3263,7 @@
         <v>3466.595954449137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>113</v>
       </c>
@@ -3327,13 +3307,13 @@
         <v>1310.6611385898016</v>
       </c>
       <c r="O4" s="4">
-        <v>1317.842650369326</v>
+        <v>1317.8426503693261</v>
       </c>
       <c r="P4" s="4">
         <v>1243.4034918037198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>114</v>
       </c>
@@ -3365,7 +3345,7 @@
         <v>214.94091604859753</v>
       </c>
       <c r="K5" s="4">
-        <v>217.0903252090835</v>
+        <v>217.09032520908349</v>
       </c>
       <c r="L5" s="4">
         <v>223.12543624989598</v>
@@ -3383,7 +3363,7 @@
         <v>235.92997393508944</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>115</v>
       </c>
@@ -3406,34 +3386,34 @@
         <v>1959.4217363921664</v>
       </c>
       <c r="H6" s="4">
-        <v>2494.159636923239</v>
+        <v>2494.1596369232388</v>
       </c>
       <c r="I6" s="4">
         <v>2667.669040535764</v>
       </c>
       <c r="J6" s="4">
-        <v>2846.266311826499</v>
+        <v>2846.2663118264991</v>
       </c>
       <c r="K6" s="4">
-        <v>2982.508185979888</v>
+        <v>2982.5081859798879</v>
       </c>
       <c r="L6" s="4">
-        <v>3155.549931461114</v>
+        <v>3155.5499314611138</v>
       </c>
       <c r="M6" s="4">
-        <v>3218.338749658316</v>
+        <v>3218.3387496583159</v>
       </c>
       <c r="N6" s="4">
         <v>3436.316215725275</v>
       </c>
       <c r="O6" s="4">
-        <v>2423.32611684664</v>
+        <v>2423.3261168466402</v>
       </c>
       <c r="P6" s="4">
         <v>2901.1875103066295</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>116</v>
       </c>
@@ -3456,7 +3436,7 @@
         <v>333.36180465050944</v>
       </c>
       <c r="H7" s="4">
-        <v>882.7046624392767</v>
+        <v>882.70466243927672</v>
       </c>
       <c r="I7" s="4">
         <v>1012.9666157431088</v>
@@ -3471,69 +3451,69 @@
         <v>1298.3999321330564</v>
       </c>
       <c r="M7" s="4">
-        <v>1272.146271620648</v>
+        <v>1272.1462716206479</v>
       </c>
       <c r="N7" s="4">
         <v>1402.6484062474374</v>
       </c>
       <c r="O7" s="4">
-        <v>606.1357607601774</v>
+        <v>606.13576076017739</v>
       </c>
       <c r="P7" s="4">
         <v>1025.2063326199752</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B8" s="4">
-        <v>687.668840030351</v>
+        <v>687.66884003035102</v>
       </c>
       <c r="C8" s="4">
-        <v>720.8134726667963</v>
+        <v>720.81347266679632</v>
       </c>
       <c r="D8" s="4">
-        <v>709.4929419355199</v>
+        <v>709.49294193551987</v>
       </c>
       <c r="E8" s="4">
-        <v>717.3523338743444</v>
+        <v>717.35233387434437</v>
       </c>
       <c r="F8" s="4">
-        <v>707.7693490213824</v>
+        <v>707.76934902138237</v>
       </c>
       <c r="G8" s="4">
-        <v>726.5821411235638</v>
+        <v>726.58214112356382</v>
       </c>
       <c r="H8" s="4">
-        <v>708.6490123678664</v>
+        <v>708.64901236786636</v>
       </c>
       <c r="I8" s="4">
-        <v>727.5427586133737</v>
+        <v>727.54275861337373</v>
       </c>
       <c r="J8" s="4">
-        <v>743.6596194969266</v>
+        <v>743.65961949692655</v>
       </c>
       <c r="K8" s="4">
-        <v>776.1682951951784</v>
+        <v>776.16829519517842</v>
       </c>
       <c r="L8" s="4">
-        <v>803.3634412079978</v>
+        <v>803.36344120799777</v>
       </c>
       <c r="M8" s="4">
-        <v>820.682707597266</v>
+        <v>820.68270759726602</v>
       </c>
       <c r="N8" s="4">
-        <v>854.0278819121013</v>
+        <v>854.02788191210129</v>
       </c>
       <c r="O8" s="4">
-        <v>741.3575380361117</v>
+        <v>741.35753803611169</v>
       </c>
       <c r="P8" s="4">
         <v>711.992613756433</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>118</v>
       </c>
@@ -3559,13 +3539,13 @@
         <v>144.7552056433824</v>
       </c>
       <c r="I9" s="4">
-        <v>147.6037889895622</v>
+        <v>147.60378898956219</v>
       </c>
       <c r="J9" s="4">
         <v>146.72012201545067</v>
       </c>
       <c r="K9" s="4">
-        <v>157.8296771038914</v>
+        <v>157.82967710389141</v>
       </c>
       <c r="L9" s="4">
         <v>172.77783827519556</v>
@@ -3583,7 +3563,7 @@
         <v>212.32161103485896</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>119</v>
       </c>
@@ -3594,13 +3574,13 @@
         <v>153.09062929389398</v>
       </c>
       <c r="D10" s="4">
-        <v>158.3061065393835</v>
+        <v>158.30610653938351</v>
       </c>
       <c r="E10" s="4">
         <v>173.35191253050294</v>
       </c>
       <c r="F10" s="4">
-        <v>166.1634231957079</v>
+        <v>166.16342319570791</v>
       </c>
       <c r="G10" s="4">
         <v>167.49620077542502</v>
@@ -3630,18 +3610,18 @@
         <v>179.43063632197504</v>
       </c>
       <c r="P10" s="4">
-        <v>191.8866437904524</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>191.88664379045241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>120</v>
       </c>
       <c r="B11" s="4">
-        <v>55.99436354692864</v>
+        <v>55.994363546928639</v>
       </c>
       <c r="C11" s="4">
-        <v>62.84449195194409</v>
+        <v>62.844491951944093</v>
       </c>
       <c r="D11" s="4">
         <v>58.61824929182059</v>
@@ -3650,45 +3630,45 @@
         <v>60.47116252904793</v>
       </c>
       <c r="F11" s="4">
-        <v>62.79698699339803</v>
+        <v>62.796986993398029</v>
       </c>
       <c r="G11" s="4">
-        <v>64.51186134855831</v>
+        <v>64.511861348558313</v>
       </c>
       <c r="H11" s="4">
-        <v>60.64497668330996</v>
+        <v>60.644976683309963</v>
       </c>
       <c r="I11" s="4">
-        <v>62.70562303937267</v>
+        <v>62.705623039372668</v>
       </c>
       <c r="J11" s="4">
-        <v>64.23126738555271</v>
+        <v>64.231267385552712</v>
       </c>
       <c r="K11" s="4">
-        <v>67.64579338996955</v>
+        <v>67.645793389969555</v>
       </c>
       <c r="L11" s="4">
-        <v>77.34997794088012</v>
+        <v>77.349977940880123</v>
       </c>
       <c r="M11" s="4">
-        <v>84.06977814289078</v>
+        <v>84.069778142890783</v>
       </c>
       <c r="N11" s="4">
-        <v>89.14549544558791</v>
+        <v>89.145495445587912</v>
       </c>
       <c r="O11" s="4">
-        <v>72.73797509550425</v>
+        <v>72.737975095504254</v>
       </c>
       <c r="P11" s="4">
-        <v>77.21185322397693</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>77.211853223976931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>121</v>
       </c>
       <c r="B12" s="4">
-        <v>156.495029488641</v>
+        <v>156.49502948864099</v>
       </c>
       <c r="C12" s="4">
         <v>217.97936540424845</v>
@@ -3706,13 +3686,13 @@
         <v>167.46025177902277</v>
       </c>
       <c r="H12" s="4">
-        <v>148.182652840894</v>
+        <v>148.18265284089401</v>
       </c>
       <c r="I12" s="4">
         <v>152.62388847102807</v>
       </c>
       <c r="J12" s="4">
-        <v>163.7913375432194</v>
+        <v>163.79133754321941</v>
       </c>
       <c r="K12" s="4">
         <v>174.14885983927707</v>
@@ -3733,15 +3713,15 @@
         <v>220.68189871020604</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B13" s="4">
-        <v>63.60139524998162</v>
+        <v>63.601395249981621</v>
       </c>
       <c r="C13" s="4">
-        <v>48.66860554663944</v>
+        <v>48.668605546639441</v>
       </c>
       <c r="D13" s="4">
         <v>39.01901449534909</v>
@@ -3750,7 +3730,7 @@
         <v>27.384833500377646</v>
       </c>
       <c r="F13" s="4">
-        <v>24.68744973019306</v>
+        <v>24.687449730193059</v>
       </c>
       <c r="G13" s="4">
         <v>24.997722585461148</v>
@@ -3777,13 +3757,13 @@
         <v>28.304915171260426</v>
       </c>
       <c r="O13" s="4">
-        <v>28.34798569638994</v>
+        <v>28.347985696389941</v>
       </c>
       <c r="P13" s="4">
-        <v>28.73065243431043</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>28.730652434310429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>123</v>
       </c>
@@ -3809,7 +3789,7 @@
         <v>145.07012641927182</v>
       </c>
       <c r="I14" s="4">
-        <v>148.1300964933935</v>
+        <v>148.13009649339349</v>
       </c>
       <c r="J14" s="4">
         <v>153.01275697593127</v>
@@ -3833,7 +3813,7 @@
         <v>181.51413473665792</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>124</v>
       </c>
@@ -3862,7 +3842,7 @@
         <v>214.43349919564142</v>
       </c>
       <c r="J15" s="4">
-        <v>227.3289783585358</v>
+        <v>227.32897835853581</v>
       </c>
       <c r="K15" s="4">
         <v>243.46933582199188</v>
@@ -3883,33 +3863,33 @@
         <v>251.64176999975848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>125</v>
       </c>
       <c r="B16" s="4">
-        <v>8958.83798432991</v>
+        <v>8958.8379843299099</v>
       </c>
       <c r="C16" s="4">
-        <v>9658.110523050716</v>
+        <v>9658.1105230507164</v>
       </c>
       <c r="D16" s="4">
-        <v>9105.200701197506</v>
+        <v>9105.2007011975056</v>
       </c>
       <c r="E16" s="4">
-        <v>9156.46467046279</v>
+        <v>9156.4646704627903</v>
       </c>
       <c r="F16" s="4">
-        <v>9252.542506452966</v>
+        <v>9252.5425064529663</v>
       </c>
       <c r="G16" s="4">
-        <v>9496.462904779015</v>
+        <v>9496.4629047790149</v>
       </c>
       <c r="H16" s="4">
-        <v>9534.545728541112</v>
+        <v>9534.5457285411121</v>
       </c>
       <c r="I16" s="4">
-        <v>9816.629466081285</v>
+        <v>9816.6294660812855</v>
       </c>
       <c r="J16" s="4">
         <v>10061.403016740796</v>
@@ -3933,7 +3913,7 @@
         <v>11846.393540096333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>126</v>
       </c>
@@ -3950,7 +3930,7 @@
         <v>1389.6501086596527</v>
       </c>
       <c r="F17" s="4">
-        <v>1436.562214607044</v>
+        <v>1436.5622146070441</v>
       </c>
       <c r="G17" s="4">
         <v>1487.1193619980306</v>
@@ -3962,7 +3942,7 @@
         <v>1504.6379585388952</v>
       </c>
       <c r="J17" s="4">
-        <v>1650.03314246086</v>
+        <v>1650.0331424608601</v>
       </c>
       <c r="K17" s="4">
         <v>1749.6558570119143</v>
@@ -3974,16 +3954,16 @@
         <v>2016.4127953889092</v>
       </c>
       <c r="N17" s="4">
-        <v>2223.91089259022</v>
+        <v>2223.9108925902201</v>
       </c>
       <c r="O17" s="4">
         <v>2016.7878279392394</v>
       </c>
       <c r="P17" s="4">
-        <v>2399.781438014253</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>2399.7814380142531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>127</v>
       </c>
@@ -4003,25 +3983,25 @@
         <v>2037.4176448975002</v>
       </c>
       <c r="G18" s="4">
-        <v>2107.827025040175</v>
+        <v>2107.8270250401752</v>
       </c>
       <c r="H18" s="4">
         <v>2045.8865839175305</v>
       </c>
       <c r="I18" s="4">
-        <v>2106.496117078459</v>
+        <v>2106.4961170784591</v>
       </c>
       <c r="J18" s="4">
-        <v>2133.919640711255</v>
+        <v>2133.9196407112549</v>
       </c>
       <c r="K18" s="4">
-        <v>2202.308883544319</v>
+        <v>2202.3088835443191</v>
       </c>
       <c r="L18" s="4">
         <v>2188.9287111780277</v>
       </c>
       <c r="M18" s="4">
-        <v>2243.119128506817</v>
+        <v>2243.1191285068171</v>
       </c>
       <c r="N18" s="4">
         <v>2293.9284696178497</v>
@@ -4033,42 +4013,42 @@
         <v>2254.9000788028243</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="4">
-        <v>484.2700131925386</v>
+        <v>484.27001319253861</v>
       </c>
       <c r="C19" s="4">
-        <v>527.1835333946616</v>
+        <v>527.18353339466159</v>
       </c>
       <c r="D19" s="4">
         <v>422.72101125680587</v>
       </c>
       <c r="E19" s="4">
-        <v>400.1751091427273</v>
+        <v>400.17510914272731</v>
       </c>
       <c r="F19" s="4">
-        <v>411.8987234064356</v>
+        <v>411.89872340643558</v>
       </c>
       <c r="G19" s="4">
         <v>472.24142652252675</v>
       </c>
       <c r="H19" s="4">
-        <v>469.2785415973448</v>
+        <v>469.27854159734483</v>
       </c>
       <c r="I19" s="4">
-        <v>542.9527502905025</v>
+        <v>542.95275029050254</v>
       </c>
       <c r="J19" s="4">
-        <v>551.447877863771</v>
+        <v>551.44787786377105</v>
       </c>
       <c r="K19" s="4">
-        <v>649.5958529952779</v>
+        <v>649.59585299527794</v>
       </c>
       <c r="L19" s="4">
-        <v>593.7366253137196</v>
+        <v>593.73662531371963</v>
       </c>
       <c r="M19" s="4">
         <v>368.8971952934877</v>
@@ -4077,13 +4057,13 @@
         <v>426.2882597084257</v>
       </c>
       <c r="O19" s="4">
-        <v>188.3107310116557</v>
+        <v>188.31073101165569</v>
       </c>
       <c r="P19" s="4">
-        <v>281.247427476109</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>281.24742747610901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>129</v>
       </c>
@@ -4133,7 +4113,7 @@
         <v>1453.0163267462656</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>130</v>
       </c>
@@ -4141,19 +4121,19 @@
         <v>290.86260601210245</v>
       </c>
       <c r="C21" s="4">
-        <v>349.2402069902129</v>
+        <v>349.24020699021293</v>
       </c>
       <c r="D21" s="4">
-        <v>398.0942752200925</v>
+        <v>398.09427522009253</v>
       </c>
       <c r="E21" s="4">
-        <v>435.9196086658713</v>
+        <v>435.91960866587129</v>
       </c>
       <c r="F21" s="4">
-        <v>455.9376182238071</v>
+        <v>455.93761822380708</v>
       </c>
       <c r="G21" s="4">
-        <v>408.5717741474579</v>
+        <v>408.57177414745792</v>
       </c>
       <c r="H21" s="4">
         <v>491.83786928234497</v>
@@ -4162,28 +4142,28 @@
         <v>497.95470151336303</v>
       </c>
       <c r="J21" s="4">
-        <v>510.7059562825812</v>
+        <v>510.70595628258121</v>
       </c>
       <c r="K21" s="4">
-        <v>569.2782327124087</v>
+        <v>569.27823271240868</v>
       </c>
       <c r="L21" s="4">
-        <v>590.26011716436</v>
+        <v>590.26011716436005</v>
       </c>
       <c r="M21" s="4">
-        <v>669.3194318058225</v>
+        <v>669.31943180582255</v>
       </c>
       <c r="N21" s="4">
-        <v>738.2950433534448</v>
+        <v>738.29504335344484</v>
       </c>
       <c r="O21" s="4">
-        <v>882.431244101821</v>
+        <v>882.43124410182099</v>
       </c>
       <c r="P21" s="4">
-        <v>938.5399228052565</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>938.53992280525654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>131</v>
       </c>
@@ -4191,7 +4171,7 @@
         <v>325.40903271505334</v>
       </c>
       <c r="C22" s="4">
-        <v>303.6338767222178</v>
+        <v>303.63387672221779</v>
       </c>
       <c r="D22" s="4">
         <v>343.63575318240987</v>
@@ -4212,28 +4192,28 @@
         <v>456.6747197526546</v>
       </c>
       <c r="J22" s="4">
-        <v>532.233461169206</v>
+        <v>532.23346116920595</v>
       </c>
       <c r="K22" s="4">
-        <v>572.7440182912405</v>
+        <v>572.74401829124054</v>
       </c>
       <c r="L22" s="4">
-        <v>656.1333659867411</v>
+        <v>656.13336598674107</v>
       </c>
       <c r="M22" s="4">
-        <v>664.4921681474333</v>
+        <v>664.49216814743329</v>
       </c>
       <c r="N22" s="4">
-        <v>742.0136235160568</v>
+        <v>742.01362351605678</v>
       </c>
       <c r="O22" s="4">
-        <v>745.7194941352516</v>
+        <v>745.71949413525158</v>
       </c>
       <c r="P22" s="4">
-        <v>847.5437476486529</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>847.54374764865292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>132</v>
       </c>
@@ -4250,7 +4230,7 @@
         <v>1275.3185815903794</v>
       </c>
       <c r="F23" s="4">
-        <v>1283.880155651174</v>
+        <v>1283.8801556511739</v>
       </c>
       <c r="G23" s="4">
         <v>1322.8558266925363</v>
@@ -4268,7 +4248,7 @@
         <v>1610.0194480474743</v>
       </c>
       <c r="L23" s="4">
-        <v>1655.223741825219</v>
+        <v>1655.2237418252189</v>
       </c>
       <c r="M23" s="4">
         <v>1649.3194155385133</v>
@@ -4277,18 +4257,18 @@
         <v>1696.642070355651</v>
       </c>
       <c r="O23" s="4">
-        <v>1559.805228059993</v>
+        <v>1559.8052280599929</v>
       </c>
       <c r="P23" s="4">
         <v>1605.3216810564545</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>133</v>
       </c>
       <c r="B24" s="4">
-        <v>1211.040764090457</v>
+        <v>1211.0407640904571</v>
       </c>
       <c r="C24" s="4">
         <v>1336.5867583917338</v>
@@ -4306,10 +4286,10 @@
         <v>1193.5925857696584</v>
       </c>
       <c r="H24" s="4">
-        <v>1172.540810175496</v>
+        <v>1172.5408101754961</v>
       </c>
       <c r="I24" s="4">
-        <v>1185.066079323958</v>
+        <v>1185.0660793239581</v>
       </c>
       <c r="J24" s="4">
         <v>1162.2979363966615</v>
@@ -4327,36 +4307,36 @@
         <v>1155.1058166157736</v>
       </c>
       <c r="O24" s="4">
-        <v>1122.674946237628</v>
+        <v>1122.6749462376281</v>
       </c>
       <c r="P24" s="4">
         <v>1157.5582132371364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>134</v>
       </c>
       <c r="B25" s="4">
-        <v>509.2393726442699</v>
+        <v>509.23937264426991</v>
       </c>
       <c r="C25" s="4">
         <v>446.3302853142186</v>
       </c>
       <c r="D25" s="4">
-        <v>422.8873869297078</v>
+        <v>422.88738692970782</v>
       </c>
       <c r="E25" s="4">
         <v>419.34503309180695</v>
       </c>
       <c r="F25" s="4">
-        <v>364.8693322214425</v>
+        <v>364.86933222144251</v>
       </c>
       <c r="G25" s="4">
-        <v>398.9782651651392</v>
+        <v>398.97826516513919</v>
       </c>
       <c r="H25" s="4">
-        <v>364.9827225322527</v>
+        <v>364.98272253225269</v>
       </c>
       <c r="I25" s="4">
         <v>346.0277246993129</v>
@@ -4368,13 +4348,13 @@
         <v>322.36693827382567</v>
       </c>
       <c r="L25" s="4">
-        <v>355.5311414146419</v>
+        <v>355.53114141464192</v>
       </c>
       <c r="M25" s="4">
-        <v>413.1855325304115</v>
+        <v>413.18553253041148</v>
       </c>
       <c r="N25" s="4">
-        <v>420.2800733031145</v>
+        <v>420.28007330311448</v>
       </c>
       <c r="O25" s="4">
         <v>365.96033011509974</v>
@@ -4383,12 +4363,12 @@
         <v>425.99367673593594</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B26" s="4">
-        <v>247.3474661476351</v>
+        <v>247.34746614763509</v>
       </c>
       <c r="C26" s="4">
         <v>247.18771327356907</v>
@@ -4430,10 +4410,10 @@
         <v>290.32468604592685</v>
       </c>
       <c r="P26" s="4">
-        <v>265.1089355864397</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+        <v>265.10893558643971</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>136</v>
       </c>
@@ -4444,13 +4424,13 @@
         <v>235.9322097888421</v>
       </c>
       <c r="D27" s="4">
-        <v>240.785901946712</v>
+        <v>240.78590194671199</v>
       </c>
       <c r="E27" s="4">
         <v>222.79332797277323</v>
       </c>
       <c r="F27" s="4">
-        <v>217.4798106574715</v>
+        <v>217.47981065747149</v>
       </c>
       <c r="G27" s="4">
         <v>222.92565738809603</v>
@@ -4468,7 +4448,7 @@
         <v>253.59189070040088</v>
       </c>
       <c r="L27" s="4">
-        <v>257.2680151318175</v>
+        <v>257.26801513181749</v>
       </c>
       <c r="M27" s="4">
         <v>317.75447826497856</v>
@@ -4483,42 +4463,42 @@
         <v>217.38209198700366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B28" s="4">
-        <v>-253.5176357879135</v>
+        <v>-253.51763578791349</v>
       </c>
       <c r="C28" s="4">
-        <v>-295.8237235734414</v>
+        <v>-295.82372357344138</v>
       </c>
       <c r="D28" s="4">
         <v>-277.77447039616084</v>
       </c>
       <c r="E28" s="4">
-        <v>-294.978122196899</v>
+        <v>-294.97812219689899</v>
       </c>
       <c r="F28" s="4">
-        <v>-313.7342014671742</v>
+        <v>-313.73420146717422</v>
       </c>
       <c r="G28" s="4">
-        <v>-338.6275714618163</v>
+        <v>-338.62757146181627</v>
       </c>
       <c r="H28" s="4">
-        <v>-336.6270188864223</v>
+        <v>-336.62701888642232</v>
       </c>
       <c r="I28" s="4">
         <v>-357.5765320504845</v>
       </c>
       <c r="J28" s="4">
-        <v>-356.7632610883691</v>
+        <v>-356.76326108836912</v>
       </c>
       <c r="K28" s="4">
-        <v>-423.1035815893691</v>
+        <v>-423.10358158936913</v>
       </c>
       <c r="L28" s="4">
-        <v>-492.2905546323026</v>
+        <v>-492.29055463230259</v>
       </c>
       <c r="M28" s="4">
         <v>-448.29919781435615</v>
@@ -4527,13 +4507,13 @@
         <v>-556.7786277673315</v>
       </c>
       <c r="O28" s="4">
-        <v>-663.6560422172246</v>
+        <v>-663.65604221722458</v>
       </c>
       <c r="P28" s="4">
-        <v>-721.5862258137776</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+        <v>-721.58622581377756</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>138</v>
       </c>
@@ -4565,7 +4545,7 @@
         <v>17218.990619068798</v>
       </c>
       <c r="K29" s="4">
-        <v>17809.8496402898</v>
+        <v>17809.849640289802</v>
       </c>
       <c r="L29" s="4">
         <v>18507.320075856424</v>
@@ -4583,7 +4563,7 @@
         <v>18971.924244777132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>139</v>
       </c>
@@ -4591,16 +4571,16 @@
         <v>1049.9266788587063</v>
       </c>
       <c r="C30" s="4">
-        <v>1238.853659703116</v>
+        <v>1238.8536597031159</v>
       </c>
       <c r="D30" s="4">
-        <v>949.8038049033671</v>
+        <v>949.80380490336711</v>
       </c>
       <c r="E30" s="4">
         <v>1097.2654913390825</v>
       </c>
       <c r="F30" s="4">
-        <v>1181.320183524717</v>
+        <v>1181.3201835247171</v>
       </c>
       <c r="G30" s="4">
         <v>1201.7712157393826</v>
@@ -4627,13 +4607,13 @@
         <v>2207.2117863283215</v>
       </c>
       <c r="O30" s="4">
-        <v>2500.299006069413</v>
+        <v>2500.2990060694128</v>
       </c>
       <c r="P30" s="4">
         <v>2513.4617769389984</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>140</v>
       </c>
@@ -4653,10 +4633,10 @@
         <v>16729.461771710845</v>
       </c>
       <c r="G31" s="4">
-        <v>17233.21064449096</v>
+        <v>17233.210644490959</v>
       </c>
       <c r="H31" s="4">
-        <v>17629.63932624125</v>
+        <v>17629.639326241249</v>
       </c>
       <c r="I31" s="4">
         <v>18218.328791412026</v>
@@ -4677,13 +4657,13 @@
         <v>21880.934414123076</v>
       </c>
       <c r="O31" s="4">
-        <v>20319.14516794672</v>
+        <v>20319.145167946721</v>
       </c>
       <c r="P31" s="4">
-        <v>21485.38602171613</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+        <v>21485.386021716131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>140</v>
       </c>
@@ -4700,13 +4680,13 @@
         <v>16469.502686110784</v>
       </c>
       <c r="F32" s="4">
-        <v>16729.46177171084</v>
+        <v>16729.461771710841</v>
       </c>
       <c r="G32" s="4">
-        <v>17233.21064449096</v>
+        <v>17233.210644490959</v>
       </c>
       <c r="H32" s="4">
-        <v>17629.63932624125</v>
+        <v>17629.639326241249</v>
       </c>
       <c r="I32" s="4">
         <v>18218.328791412023</v>
@@ -4727,13 +4707,13 @@
         <v>21880.934414123076</v>
       </c>
       <c r="O32" s="4">
-        <v>20319.14516794672</v>
+        <v>20319.145167946721</v>
       </c>
       <c r="P32" s="4">
         <v>21485.386021716135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>141</v>
       </c>
@@ -4759,7 +4739,7 @@
         <v>16353.971669141254</v>
       </c>
       <c r="I33" s="4">
-        <v>16092.65307387102</v>
+        <v>16092.653073871021</v>
       </c>
       <c r="J33" s="4">
         <v>16484.421719148442</v>
@@ -4768,13 +4748,13 @@
         <v>17015.196355344422</v>
       </c>
       <c r="L33" s="4">
-        <v>17552.08451658672</v>
+        <v>17552.084516586721</v>
       </c>
       <c r="M33" s="4">
         <v>16965.12210229841</v>
       </c>
       <c r="N33" s="4">
-        <v>17298.56892275456</v>
+        <v>17298.568922754559</v>
       </c>
       <c r="O33" s="4">
         <v>18111.879886567316</v>
@@ -4783,7 +4763,7 @@
         <v>18571.78239141509</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>142</v>
       </c>
@@ -4791,7 +4771,7 @@
         <v>3039.7154022535533</v>
       </c>
       <c r="C34" s="4">
-        <v>2553.707206192283</v>
+        <v>2553.7072061922831</v>
       </c>
       <c r="D34" s="4">
         <v>2199.1538329722057</v>
@@ -4809,16 +4789,16 @@
         <v>2184.2112431897344</v>
       </c>
       <c r="I34" s="4">
-        <v>2247.431976159324</v>
+        <v>2247.4319761593242</v>
       </c>
       <c r="J34" s="4">
-        <v>2259.069373153112</v>
+        <v>2259.0693731531119</v>
       </c>
       <c r="K34" s="4">
         <v>2252.5441377373236</v>
       </c>
       <c r="L34" s="4">
-        <v>2566.006241054666</v>
+        <v>2566.0062410546661</v>
       </c>
       <c r="M34" s="4">
         <v>1626.7680704031063</v>
@@ -4833,7 +4813,7 @@
         <v>2025.1146214586856</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>143</v>
       </c>
@@ -4874,7 +4854,7 @@
         <v>14638.207052203028</v>
       </c>
       <c r="N35" s="4">
-        <v>15079.69927660773</v>
+        <v>15079.699276607729</v>
       </c>
       <c r="O35" s="4">
         <v>15407.511338951781</v>
@@ -4883,27 +4863,27 @@
         <v>15870.469691102526</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>144</v>
       </c>
       <c r="B36" s="4">
-        <v>3309.104735740353</v>
+        <v>3309.1047357403531</v>
       </c>
       <c r="C36" s="4">
-        <v>5867.414388868229</v>
+        <v>5867.4143888682293</v>
       </c>
       <c r="D36" s="4">
-        <v>5064.033888857473</v>
+        <v>5064.0338888574734</v>
       </c>
       <c r="E36" s="4">
-        <v>4194.67440884124</v>
+        <v>4194.6744088412397</v>
       </c>
       <c r="F36" s="4">
         <v>4087.1764841483637</v>
       </c>
       <c r="G36" s="4">
-        <v>4279.68803012817</v>
+        <v>4279.6880301281699</v>
       </c>
       <c r="H36" s="4">
         <v>4050.6608513162128</v>
@@ -4912,119 +4892,119 @@
         <v>3650.4789173146874</v>
       </c>
       <c r="J36" s="4">
-        <v>4375.701775426383</v>
+        <v>4375.7017754263834</v>
       </c>
       <c r="K36" s="4">
-        <v>5054.762556080524</v>
+        <v>5054.7625560805236</v>
       </c>
       <c r="L36" s="4">
-        <v>4557.931566488354</v>
+        <v>4557.9315664883543</v>
       </c>
       <c r="M36" s="4">
-        <v>6766.465350335977</v>
+        <v>6766.4653503359768</v>
       </c>
       <c r="N36" s="4">
-        <v>6904.677256611843</v>
+        <v>6904.6772566118434</v>
       </c>
       <c r="O36" s="4">
         <v>6168.9186772302755</v>
       </c>
       <c r="P36" s="4">
-        <v>4669.163926737894</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+        <v>4669.1639267378941</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>145</v>
       </c>
       <c r="B37" s="4">
-        <v>4206.195644084102</v>
+        <v>4206.1956440841022</v>
       </c>
       <c r="C37" s="4">
-        <v>6829.870411367285</v>
+        <v>6829.8704113672848</v>
       </c>
       <c r="D37" s="4">
-        <v>5936.11219851477</v>
+        <v>5936.1121985147702</v>
       </c>
       <c r="E37" s="4">
-        <v>4893.102774597285</v>
+        <v>4893.1027745972851</v>
       </c>
       <c r="F37" s="4">
-        <v>4924.841863402336</v>
+        <v>4924.8418634023355</v>
       </c>
       <c r="G37" s="4">
-        <v>5075.007570838238</v>
+        <v>5075.0075708382383</v>
       </c>
       <c r="H37" s="4">
-        <v>4672.962533165234</v>
+        <v>4672.9625331652342</v>
       </c>
       <c r="I37" s="4">
-        <v>4620.466990339214</v>
+        <v>4620.4669903392141</v>
       </c>
       <c r="J37" s="4">
-        <v>4669.227386658746</v>
+        <v>4669.2273866587457</v>
       </c>
       <c r="K37" s="4">
-        <v>5204.88417466652</v>
+        <v>5204.8841746665203</v>
       </c>
       <c r="L37" s="4">
-        <v>5111.842422877549</v>
+        <v>5111.8424228775493</v>
       </c>
       <c r="M37" s="4">
         <v>5657.2520727533865</v>
       </c>
       <c r="N37" s="4">
-        <v>6378.585592532498</v>
+        <v>6378.5855925324977</v>
       </c>
       <c r="O37" s="4">
-        <v>5721.640092444303</v>
+        <v>5721.6400924443033</v>
       </c>
       <c r="P37" s="4">
-        <v>6449.648661880917</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+        <v>6449.6486618809167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>146</v>
       </c>
       <c r="B38" s="4">
-        <v>-897.0909083437491</v>
+        <v>-897.09090834374911</v>
       </c>
       <c r="C38" s="4">
-        <v>-962.4560224990555</v>
+        <v>-962.45602249905551</v>
       </c>
       <c r="D38" s="4">
-        <v>-872.0783096572973</v>
+        <v>-872.07830965729727</v>
       </c>
       <c r="E38" s="4">
-        <v>-698.4283657560454</v>
+        <v>-698.42836575604542</v>
       </c>
       <c r="F38" s="4">
-        <v>-837.6653792539719</v>
+        <v>-837.66537925397188</v>
       </c>
       <c r="G38" s="4">
         <v>-795.3195407100684</v>
       </c>
       <c r="H38" s="4">
-        <v>-622.3016818490214</v>
+        <v>-622.30168184902141</v>
       </c>
       <c r="I38" s="4">
-        <v>-969.9880730245268</v>
+        <v>-969.98807302452678</v>
       </c>
       <c r="J38" s="4">
-        <v>-293.5256112323623</v>
+        <v>-293.52561123236228</v>
       </c>
       <c r="K38" s="4">
         <v>-150.12161858599666</v>
       </c>
       <c r="L38" s="4">
-        <v>-553.910856389195</v>
+        <v>-553.91085638919503</v>
       </c>
       <c r="M38" s="4">
         <v>1109.2132775825903</v>
       </c>
       <c r="N38" s="4">
-        <v>526.0916640793457</v>
+        <v>526.09166407934572</v>
       </c>
       <c r="O38" s="4">
         <v>447.27858478597227</v>
@@ -5033,7 +5013,7 @@
         <v>-1780.4847351430226</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>147</v>
       </c>
@@ -5041,7 +5021,7 @@
         <v>-1774.7724851904677</v>
       </c>
       <c r="C39" s="4">
-        <v>-3515.757574673821</v>
+        <v>-3515.7575746738212</v>
       </c>
       <c r="D39" s="4">
         <v>-3227.6562987446555</v>
@@ -5053,7 +5033,7 @@
         <v>-2510.8258875129086</v>
       </c>
       <c r="G39" s="4">
-        <v>-2488.309484246768</v>
+        <v>-2488.3094842467681</v>
       </c>
       <c r="H39" s="4">
         <v>-2774.9931942162175</v>
@@ -5062,7 +5042,7 @@
         <v>-1524.8031997736816</v>
       </c>
       <c r="J39" s="4">
-        <v>-2071.142341604853</v>
+        <v>-2071.1423416048528</v>
       </c>
       <c r="K39" s="4">
         <v>-2530.7062970026627</v>
@@ -5083,18 +5063,18 @@
         <v>-1755.5602964368536</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>148</v>
       </c>
       <c r="B40" s="4">
-        <v>4440.19063956561</v>
+        <v>4440.1906395656097</v>
       </c>
       <c r="C40" s="4">
-        <v>5000.347144087092</v>
+        <v>5000.3471440870917</v>
       </c>
       <c r="D40" s="4">
-        <v>3770.587954587881</v>
+        <v>3770.5879545878811</v>
       </c>
       <c r="E40" s="4">
         <v>3984.9455597519636</v>
@@ -5106,7 +5086,7 @@
         <v>4031.3446385104744</v>
       </c>
       <c r="H40" s="4">
-        <v>4457.956923193898</v>
+        <v>4457.9569231938976</v>
       </c>
       <c r="I40" s="4">
         <v>6212.405355385974</v>
@@ -5115,57 +5095,57 @@
         <v>6172.5274175940485</v>
       </c>
       <c r="K40" s="4">
-        <v>6112.029139579053</v>
+        <v>6112.0291395790528</v>
       </c>
       <c r="L40" s="4">
-        <v>8886.644106135473</v>
+        <v>8886.6441061354726</v>
       </c>
       <c r="M40" s="4">
-        <v>9104.304482793397</v>
+        <v>9104.3044827933973</v>
       </c>
       <c r="N40" s="4">
         <v>10097.783576744807</v>
       </c>
       <c r="O40" s="4">
-        <v>6398.387145781348</v>
+        <v>6398.3871457813484</v>
       </c>
       <c r="P40" s="4">
-        <v>9917.93829090942</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+        <v>9917.9382909094202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>149</v>
       </c>
       <c r="B41" s="4">
-        <v>6214.963124756077</v>
+        <v>6214.9631247560774</v>
       </c>
       <c r="C41" s="4">
-        <v>8516.104718760913</v>
+        <v>8516.1047187609129</v>
       </c>
       <c r="D41" s="4">
-        <v>6998.244253332537</v>
+        <v>6998.2442533325366</v>
       </c>
       <c r="E41" s="4">
-        <v>6585.959294129459</v>
+        <v>6585.9592941294586</v>
       </c>
       <c r="F41" s="4">
-        <v>6752.627730335284</v>
+        <v>6752.6277303352836</v>
       </c>
       <c r="G41" s="4">
         <v>6519.6541227572425</v>
       </c>
       <c r="H41" s="4">
-        <v>7232.950117410115</v>
+        <v>7232.9501174101151</v>
       </c>
       <c r="I41" s="4">
-        <v>7737.208555159656</v>
+        <v>7737.2085551596556</v>
       </c>
       <c r="J41" s="4">
-        <v>8243.669759198901</v>
+        <v>8243.6697591989014</v>
       </c>
       <c r="K41" s="4">
-        <v>8642.735436581715</v>
+        <v>8642.7354365817155</v>
       </c>
       <c r="L41" s="4">
         <v>10688.868667825396</v>
@@ -5177,13 +5157,13 @@
         <v>12420.095341988133</v>
       </c>
       <c r="O41" s="4">
-        <v>10360.04054163222</v>
+        <v>10360.040541632219</v>
       </c>
       <c r="P41" s="4">
         <v>11673.498587346274</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -5213,31 +5193,30 @@
   </sheetPr>
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="8">
         <v>2007</v>
@@ -5285,12 +5264,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="4">
-        <v>2201.057</v>
+        <v>2201.0569999999998</v>
       </c>
       <c r="C2" s="4">
         <v>2685.19</v>
@@ -5302,16 +5281,16 @@
         <v>2604.096</v>
       </c>
       <c r="F2" s="4">
-        <v>2660.988</v>
+        <v>2660.9879999999998</v>
       </c>
       <c r="G2" s="4">
-        <v>2643.435</v>
+        <v>2643.4349999999999</v>
       </c>
       <c r="H2" s="4">
-        <v>2818.132</v>
+        <v>2818.1320000000001</v>
       </c>
       <c r="I2" s="4">
-        <v>3246.206</v>
+        <v>3246.2060000000001</v>
       </c>
       <c r="J2" s="4">
         <v>3517.0609999999997</v>
@@ -5320,22 +5299,22 @@
         <v>4889.023941375116</v>
       </c>
       <c r="L2" s="4">
-        <v>5486.76026759279</v>
+        <v>5486.7602675927901</v>
       </c>
       <c r="M2" s="4">
-        <v>6366.43316429223</v>
+        <v>6366.4331642922298</v>
       </c>
       <c r="N2" s="4">
-        <v>7359.00563045162</v>
+        <v>7359.0056304516202</v>
       </c>
       <c r="O2" s="4">
-        <v>6320.7029066187</v>
+        <v>6320.7029066186997</v>
       </c>
       <c r="P2" s="4">
-        <v>6454.332849867969</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>6454.3328498679693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>60</v>
       </c>
@@ -5355,7 +5334,7 @@
         <v>2270.683</v>
       </c>
       <c r="G3" s="4">
-        <v>2380.544</v>
+        <v>2380.5439999999999</v>
       </c>
       <c r="H3" s="4">
         <v>2521.989</v>
@@ -5364,60 +5343,60 @@
         <v>2653.34</v>
       </c>
       <c r="J3" s="4">
-        <v>3092.834</v>
+        <v>3092.8339999999998</v>
       </c>
       <c r="K3" s="4">
-        <v>3764.53258558803</v>
+        <v>3764.5325855880301</v>
       </c>
       <c r="L3" s="4">
-        <v>4449.89028161615</v>
+        <v>4449.8902816161499</v>
       </c>
       <c r="M3" s="4">
         <v>5135.3</v>
       </c>
       <c r="N3" s="4">
-        <v>5772.19263045162</v>
+        <v>5772.1926304516201</v>
       </c>
       <c r="O3" s="4">
         <v>5077.9943360814395</v>
       </c>
       <c r="P3" s="4">
-        <v>6083.407652538111</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>6083.4076525381106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="4">
-        <v>1573.138</v>
+        <v>1573.1379999999999</v>
       </c>
       <c r="C4" s="4">
-        <v>2087.197</v>
+        <v>2087.1970000000001</v>
       </c>
       <c r="D4" s="4">
         <v>1782.0390000000002</v>
       </c>
       <c r="E4" s="4">
-        <v>1980.824</v>
+        <v>1980.8240000000001</v>
       </c>
       <c r="F4" s="4">
-        <v>2234.383</v>
+        <v>2234.3829999999998</v>
       </c>
       <c r="G4" s="4">
-        <v>2263.007</v>
+        <v>2263.0070000000001</v>
       </c>
       <c r="H4" s="4">
-        <v>2451.492</v>
+        <v>2451.4920000000002</v>
       </c>
       <c r="I4" s="4">
-        <v>2588.804</v>
+        <v>2588.8040000000001</v>
       </c>
       <c r="J4" s="4">
-        <v>3012.048</v>
+        <v>3012.0479999999998</v>
       </c>
       <c r="K4" s="4">
-        <v>3648.952</v>
+        <v>3648.9520000000002</v>
       </c>
       <c r="L4" s="4">
         <v>4327.74070822265</v>
@@ -5426,21 +5405,21 @@
         <v>5002.8</v>
       </c>
       <c r="N4" s="4">
-        <v>5627.891024248</v>
+        <v>5627.8910242479997</v>
       </c>
       <c r="O4" s="4">
         <v>4898.18611241689</v>
       </c>
       <c r="P4" s="4">
-        <v>5913.158359263321</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>5913.1583592633206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="4">
-        <v>798.679</v>
+        <v>798.67899999999997</v>
       </c>
       <c r="C5" s="4">
         <v>1079.838</v>
@@ -5449,13 +5428,13 @@
         <v>1028.6070000000002</v>
       </c>
       <c r="E5" s="4">
-        <v>1151.081</v>
+        <v>1151.0809999999999</v>
       </c>
       <c r="F5" s="4">
-        <v>1237.263</v>
+        <v>1237.2629999999999</v>
       </c>
       <c r="G5" s="4">
-        <v>1214.4</v>
+        <v>1214.4000000000001</v>
       </c>
       <c r="H5" s="4">
         <v>1279.174</v>
@@ -5470,7 +5449,7 @@
         <v>1966.28</v>
       </c>
       <c r="L5" s="4">
-        <v>2280.62442466065</v>
+        <v>2280.6244246606502</v>
       </c>
       <c r="M5" s="4">
         <v>2574.9</v>
@@ -5485,21 +5464,21 @@
         <v>3256.1463592633204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="4">
-        <v>774.459</v>
+        <v>774.45899999999995</v>
       </c>
       <c r="C6" s="4">
         <v>1007.359</v>
       </c>
       <c r="D6" s="4">
-        <v>753.432</v>
+        <v>753.43200000000002</v>
       </c>
       <c r="E6" s="4">
-        <v>829.743</v>
+        <v>829.74300000000005</v>
       </c>
       <c r="F6" s="4">
         <v>997.12</v>
@@ -5511,7 +5490,7 @@
         <v>1172.318</v>
       </c>
       <c r="I6" s="4">
-        <v>1255.034</v>
+        <v>1255.0340000000001</v>
       </c>
       <c r="J6" s="4">
         <v>1458.29</v>
@@ -5526,27 +5505,27 @@
         <v>2427.9</v>
       </c>
       <c r="N6" s="4">
-        <v>2748.341024248</v>
+        <v>2748.3410242479999</v>
       </c>
       <c r="O6" s="4">
-        <v>2187.382984894</v>
+        <v>2187.3829848939999</v>
       </c>
       <c r="P6" s="4">
-        <v>2657.012</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>2657.0120000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="4">
-        <v>92.64977743616485</v>
+        <v>92.649777436164854</v>
       </c>
       <c r="C7" s="4">
-        <v>170.8755740516615</v>
+        <v>170.87557405166149</v>
       </c>
       <c r="D7" s="4">
-        <v>193.5195</v>
+        <v>193.51949999999999</v>
       </c>
       <c r="E7" s="4">
         <v>180.8</v>
@@ -5564,7 +5543,7 @@
         <v>31.878</v>
       </c>
       <c r="J7" s="4">
-        <v>40.758</v>
+        <v>40.758000000000003</v>
       </c>
       <c r="K7" s="4">
         <v>152.5364634595</v>
@@ -5573,7 +5552,7 @@
         <v>187.61156491307</v>
       </c>
       <c r="M7" s="4">
-        <v>247.76183981316</v>
+        <v>247.76183981316001</v>
       </c>
       <c r="N7" s="4">
         <v>212.833</v>
@@ -5582,15 +5561,15 @@
         <v>132.19704105</v>
       </c>
       <c r="P7" s="4">
-        <v>175.002</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>175.00200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="4">
-        <v>21.79722251083515</v>
+        <v>21.797222510835152</v>
       </c>
       <c r="C8" s="4">
         <v>26.199425923338513</v>
@@ -5620,27 +5599,27 @@
         <v>16.878463459500004</v>
       </c>
       <c r="L8" s="4">
-        <v>22.934092495</v>
+        <v>22.934092495000002</v>
       </c>
       <c r="M8" s="4">
         <v>36.486180073</v>
       </c>
       <c r="N8" s="4">
-        <v>30.557302285</v>
+        <v>30.557302284999999</v>
       </c>
       <c r="O8" s="4">
-        <v>59.355</v>
+        <v>59.354999999999997</v>
       </c>
       <c r="P8" s="4">
-        <v>30.751</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>30.751000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="4">
-        <v>1458.691000053</v>
+        <v>1458.6910000529999</v>
       </c>
       <c r="C9" s="4">
         <v>1890.122000025</v>
@@ -5655,13 +5634,13 @@
         <v>2037.683</v>
       </c>
       <c r="G9" s="4">
-        <v>2126.807</v>
+        <v>2126.8069999999998</v>
       </c>
       <c r="H9" s="4">
-        <v>2408.792</v>
+        <v>2408.7919999999999</v>
       </c>
       <c r="I9" s="4">
-        <v>2552.648</v>
+        <v>2552.6480000000001</v>
       </c>
       <c r="J9" s="4">
         <v>2971.29</v>
@@ -5670,36 +5649,36 @@
         <v>3479.537073081</v>
       </c>
       <c r="L9" s="4">
-        <v>4117.19505081458</v>
+        <v>4117.1950508145801</v>
       </c>
       <c r="M9" s="4">
-        <v>4718.55198011384</v>
+        <v>4718.5519801138398</v>
       </c>
       <c r="N9" s="4">
-        <v>5384.500721963001</v>
+        <v>5384.5007219630006</v>
       </c>
       <c r="O9" s="4">
-        <v>4706.634071366891</v>
+        <v>4706.6340713668906</v>
       </c>
       <c r="P9" s="4">
-        <v>5707.405359263321</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>5707.4053592633209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="4">
-        <v>706.0292225638351</v>
+        <v>706.02922256383511</v>
       </c>
       <c r="C10" s="4">
-        <v>908.9624259483385</v>
+        <v>908.96242594833848</v>
       </c>
       <c r="D10" s="4">
         <v>835.0875000000002</v>
       </c>
       <c r="E10" s="4">
-        <v>970.281</v>
+        <v>970.28099999999995</v>
       </c>
       <c r="F10" s="4">
         <v>1068.463</v>
@@ -5711,42 +5690,42 @@
         <v>1247.374</v>
       </c>
       <c r="I10" s="4">
-        <v>1301.892</v>
+        <v>1301.8920000000001</v>
       </c>
       <c r="J10" s="4">
         <v>1513</v>
       </c>
       <c r="K10" s="4">
-        <v>1813.7435365405</v>
+        <v>1813.7435365404999</v>
       </c>
       <c r="L10" s="4">
         <v>2093.01285974758</v>
       </c>
       <c r="M10" s="4">
-        <v>2327.13816018684</v>
+        <v>2327.1381601868402</v>
       </c>
       <c r="N10" s="4">
-        <v>2666.717</v>
+        <v>2666.7170000000001</v>
       </c>
       <c r="O10" s="4">
-        <v>2578.60608647289</v>
+        <v>2578.6060864728902</v>
       </c>
       <c r="P10" s="4">
         <v>3081.1443592633204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="4">
-        <v>752.6617774891648</v>
+        <v>752.66177748916482</v>
       </c>
       <c r="C11" s="4">
-        <v>981.1595740766616</v>
+        <v>981.15957407666156</v>
       </c>
       <c r="D11" s="4">
-        <v>734.7125</v>
+        <v>734.71249999999998</v>
       </c>
       <c r="E11" s="4">
         <v>810.4430000000001</v>
@@ -5758,63 +5737,63 @@
         <v>1028.107</v>
       </c>
       <c r="H11" s="4">
-        <v>1161.418</v>
+        <v>1161.4179999999999</v>
       </c>
       <c r="I11" s="4">
-        <v>1250.756</v>
+        <v>1250.7560000000001</v>
       </c>
       <c r="J11" s="4">
         <v>1458.29</v>
       </c>
       <c r="K11" s="4">
-        <v>1665.7935365405</v>
+        <v>1665.7935365405001</v>
       </c>
       <c r="L11" s="4">
-        <v>2024.182191067</v>
+        <v>2024.1821910670001</v>
       </c>
       <c r="M11" s="4">
-        <v>2391.413819927</v>
+        <v>2391.4138199270001</v>
       </c>
       <c r="N11" s="4">
-        <v>2717.783721963</v>
+        <v>2717.7837219630001</v>
       </c>
       <c r="O11" s="4">
-        <v>2128.027984894</v>
+        <v>2128.0279848939999</v>
       </c>
       <c r="P11" s="4">
         <v>2626.261</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="4">
-        <v>34.641</v>
+        <v>34.640999999999998</v>
       </c>
       <c r="C12" s="4">
         <v>49.68</v>
       </c>
       <c r="D12" s="4">
-        <v>80.15</v>
+        <v>80.150000000000006</v>
       </c>
       <c r="E12" s="4">
         <v>268.33</v>
       </c>
       <c r="F12" s="4">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="G12" s="4">
-        <v>117.537</v>
+        <v>117.53700000000001</v>
       </c>
       <c r="H12" s="4">
         <v>70.497</v>
       </c>
       <c r="I12" s="4">
-        <v>64.536</v>
+        <v>64.536000000000001</v>
       </c>
       <c r="J12" s="4">
-        <v>80.786</v>
+        <v>80.786000000000001</v>
       </c>
       <c r="K12" s="4">
         <v>115.58058558803002</v>
@@ -5829,30 +5808,30 @@
         <v>144.30160620361997</v>
       </c>
       <c r="O12" s="4">
-        <v>179.80822366455</v>
+        <v>179.80822366455001</v>
       </c>
       <c r="P12" s="4">
-        <v>170.24929327479</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>170.24929327479001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="4">
-        <v>593.278</v>
+        <v>593.27800000000002</v>
       </c>
       <c r="C13" s="4">
-        <v>548.313</v>
+        <v>548.31299999999999</v>
       </c>
       <c r="D13" s="4">
-        <v>277.445</v>
+        <v>277.44499999999999</v>
       </c>
       <c r="E13" s="4">
-        <v>354.942</v>
+        <v>354.94200000000001</v>
       </c>
       <c r="F13" s="4">
-        <v>390.305</v>
+        <v>390.30500000000001</v>
       </c>
       <c r="G13" s="4">
         <v>262.89099999999996</v>
@@ -5861,13 +5840,13 @@
         <v>296.14300000000003</v>
       </c>
       <c r="I13" s="4">
-        <v>592.866</v>
+        <v>592.86599999999999</v>
       </c>
       <c r="J13" s="4">
-        <v>424.227</v>
+        <v>424.22699999999998</v>
       </c>
       <c r="K13" s="4">
-        <v>1124.491355787086</v>
+        <v>1124.4913557870859</v>
       </c>
       <c r="L13" s="4">
         <v>1036.86998597664</v>
@@ -5876,7 +5855,7 @@
         <v>1231.1331642922298</v>
       </c>
       <c r="N13" s="4">
-        <v>1586.813</v>
+        <v>1586.8130000000001</v>
       </c>
       <c r="O13" s="4">
         <v>1242.7085705372601</v>
@@ -5885,36 +5864,36 @@
         <v>370.92519732985903</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="4">
-        <v>89.147</v>
+        <v>89.147000000000006</v>
       </c>
       <c r="C14" s="4">
         <v>127.482</v>
       </c>
       <c r="D14" s="4">
-        <v>21.045</v>
+        <v>21.045000000000002</v>
       </c>
       <c r="E14" s="4">
         <v>18.238</v>
       </c>
       <c r="F14" s="4">
-        <v>17.415</v>
+        <v>17.414999999999999</v>
       </c>
       <c r="G14" s="4">
-        <v>0.599</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="H14" s="4">
-        <v>0.608</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="I14" s="4">
-        <v>206.757</v>
+        <v>206.75700000000001</v>
       </c>
       <c r="J14" s="4">
-        <v>40.171</v>
+        <v>40.170999999999999</v>
       </c>
       <c r="K14" s="4">
         <v>227.72693428800002</v>
@@ -5923,60 +5902,60 @@
         <v>298.38687927664</v>
       </c>
       <c r="M14" s="4">
-        <v>414.18271668018</v>
+        <v>414.18271668018002</v>
       </c>
       <c r="N14" s="4">
-        <v>365.104</v>
+        <v>365.10399999999998</v>
       </c>
       <c r="O14" s="4">
-        <v>434.67530481502</v>
+        <v>434.67530481502001</v>
       </c>
       <c r="P14" s="4">
         <v>1.149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="4">
-        <v>504.131</v>
+        <v>504.13099999999997</v>
       </c>
       <c r="C15" s="4">
-        <v>420.831</v>
+        <v>420.83100000000002</v>
       </c>
       <c r="D15" s="4">
-        <v>256.4</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="E15" s="4">
-        <v>336.704</v>
+        <v>336.70400000000001</v>
       </c>
       <c r="F15" s="4">
         <v>372.89</v>
       </c>
       <c r="G15" s="4">
-        <v>262.292</v>
+        <v>262.29199999999997</v>
       </c>
       <c r="H15" s="4">
-        <v>295.535</v>
+        <v>295.53500000000003</v>
       </c>
       <c r="I15" s="4">
-        <v>386.109</v>
+        <v>386.10899999999998</v>
       </c>
       <c r="J15" s="4">
-        <v>384.056</v>
+        <v>384.05599999999998</v>
       </c>
       <c r="K15" s="4">
-        <v>896.7644214990859</v>
+        <v>896.76442149908587</v>
       </c>
       <c r="L15" s="4">
-        <v>738.4831067</v>
+        <v>738.48310670000001</v>
       </c>
       <c r="M15" s="4">
-        <v>816.9504476120499</v>
+        <v>816.95044761204986</v>
       </c>
       <c r="N15" s="4">
-        <v>1221.709</v>
+        <v>1221.7090000000001</v>
       </c>
       <c r="O15" s="4">
         <v>808.03326572224</v>
@@ -5985,15 +5964,15 @@
         <v>369.77619732985903</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="4">
-        <v>2570.024999947</v>
+        <v>2570.0249999470002</v>
       </c>
       <c r="C16" s="4">
-        <v>2997.603999975</v>
+        <v>2997.6039999750001</v>
       </c>
       <c r="D16" s="4">
         <v>2565.6609999999996</v>
@@ -6002,22 +5981,22 @@
         <v>2765.5215366390003</v>
       </c>
       <c r="F16" s="4">
-        <v>3012.984</v>
+        <v>3012.9839999999999</v>
       </c>
       <c r="G16" s="4">
         <v>2917.9924023000003</v>
       </c>
       <c r="H16" s="4">
-        <v>3235.572</v>
+        <v>3235.5720000000001</v>
       </c>
       <c r="I16" s="4">
         <v>3823.4849999999997</v>
       </c>
       <c r="J16" s="4">
-        <v>4364.735</v>
+        <v>4364.7349999999997</v>
       </c>
       <c r="K16" s="4">
-        <v>5317.214503115321</v>
+        <v>5317.2145031153213</v>
       </c>
       <c r="L16" s="4">
         <v>6330.2837341715285</v>
@@ -6026,21 +6005,21 @@
         <v>7068.106959231417</v>
       </c>
       <c r="N16" s="4">
-        <v>7930.59181681719</v>
+        <v>7930.5918168171902</v>
       </c>
       <c r="O16" s="4">
-        <v>8276.781409173876</v>
+        <v>8276.7814091738765</v>
       </c>
       <c r="P16" s="4">
         <v>8008.8064810663745</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="4">
-        <v>1519.929999947</v>
+        <v>1519.9299999469999</v>
       </c>
       <c r="C17" s="4">
         <v>1750.5859999749998</v>
@@ -6070,7 +6049,7 @@
         <v>3649.0015893626282</v>
       </c>
       <c r="L17" s="4">
-        <v>4408.505932109399</v>
+        <v>4408.5059321093986</v>
       </c>
       <c r="M17" s="4">
         <v>4619.4895116193675</v>
@@ -6079,13 +6058,13 @@
         <v>5076.00581681719</v>
       </c>
       <c r="O17" s="4">
-        <v>4934.113825369156</v>
+        <v>4934.1138253691561</v>
       </c>
       <c r="P17" s="4">
-        <v>5054.21903244791</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>5054.2190324479097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>74</v>
       </c>
@@ -6102,7 +6081,7 @@
         <v>1570.51</v>
       </c>
       <c r="F18" s="4">
-        <v>1827.161</v>
+        <v>1827.1610000000001</v>
       </c>
       <c r="G18" s="4">
         <v>2013.3600000000001</v>
@@ -6111,10 +6090,10 @@
         <v>2326.163</v>
       </c>
       <c r="I18" s="4">
-        <v>2632.281</v>
+        <v>2632.2809999999999</v>
       </c>
       <c r="J18" s="4">
-        <v>2919.276</v>
+        <v>2919.2759999999998</v>
       </c>
       <c r="K18" s="4">
         <v>3262.720662443628</v>
@@ -6126,36 +6105,36 @@
         <v>4095.3414917332075</v>
       </c>
       <c r="N18" s="4">
-        <v>4743.675</v>
+        <v>4743.6750000000002</v>
       </c>
       <c r="O18" s="4">
-        <v>5377.71192171128</v>
+        <v>5377.7119217112804</v>
       </c>
       <c r="P18" s="4">
-        <v>5384.48103809048</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>5384.4810380904801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="4">
-        <v>711.246</v>
+        <v>711.24599999999998</v>
       </c>
       <c r="C19" s="4">
-        <v>758.882</v>
+        <v>758.88199999999995</v>
       </c>
       <c r="D19" s="4">
-        <v>803.222</v>
+        <v>803.22199999999998</v>
       </c>
       <c r="E19" s="4">
-        <v>944.905</v>
+        <v>944.90499999999997</v>
       </c>
       <c r="F19" s="4">
         <v>1060.355</v>
       </c>
       <c r="G19" s="4">
-        <v>1167.262</v>
+        <v>1167.2619999999999</v>
       </c>
       <c r="H19" s="4">
         <v>1341.654</v>
@@ -6167,45 +6146,45 @@
         <v>1566.106</v>
       </c>
       <c r="K19" s="4">
-        <v>1795.7322722205</v>
+        <v>1795.7322722204999</v>
       </c>
       <c r="L19" s="4">
         <v>1963.2470523716197</v>
       </c>
       <c r="M19" s="4">
-        <v>2330.42621528287</v>
+        <v>2330.4262152828701</v>
       </c>
       <c r="N19" s="4">
-        <v>2489.629</v>
+        <v>2489.6289999999999</v>
       </c>
       <c r="O19" s="4">
-        <v>2785.92122797138</v>
+        <v>2785.9212279713802</v>
       </c>
       <c r="P19" s="4">
         <v>2866.2869046947803</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B20" s="4">
-        <v>711.246</v>
+        <v>711.24599999999998</v>
       </c>
       <c r="C20" s="4">
-        <v>758.882</v>
+        <v>758.88199999999995</v>
       </c>
       <c r="D20" s="4">
-        <v>803.222</v>
+        <v>803.22199999999998</v>
       </c>
       <c r="E20" s="4">
-        <v>944.905</v>
+        <v>944.90499999999997</v>
       </c>
       <c r="F20" s="4">
         <v>1060.355</v>
       </c>
       <c r="G20" s="4">
-        <v>1167.262</v>
+        <v>1167.2619999999999</v>
       </c>
       <c r="H20" s="4">
         <v>1341.654</v>
@@ -6217,7 +6196,7 @@
         <v>1566.106</v>
       </c>
       <c r="K20" s="4">
-        <v>1662.29969368129</v>
+        <v>1662.2996936812899</v>
       </c>
       <c r="L20" s="4">
         <v>1802.0866029983997</v>
@@ -6226,7 +6205,7 @@
         <v>2154.1</v>
       </c>
       <c r="N20" s="4">
-        <v>2293.802</v>
+        <v>2293.8020000000001</v>
       </c>
       <c r="O20" s="4">
         <v>2591.02295610377</v>
@@ -6235,7 +6214,7 @@
         <v>2688.9544208236603</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>77</v>
       </c>
@@ -6270,22 +6249,22 @@
         <v>133.43257853920997</v>
       </c>
       <c r="L21" s="4">
-        <v>161.16044937322</v>
+        <v>161.16044937321999</v>
       </c>
       <c r="M21" s="4">
-        <v>176.32621528287</v>
+        <v>176.32621528287001</v>
       </c>
       <c r="N21" s="4">
         <v>195.827</v>
       </c>
       <c r="O21" s="4">
-        <v>194.89827186761</v>
+        <v>194.89827186760999</v>
       </c>
       <c r="P21" s="4">
-        <v>177.33248387112</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>177.33248387111999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>78</v>
       </c>
@@ -6293,19 +6272,19 @@
         <v>432.43399999999997</v>
       </c>
       <c r="C22" s="4">
-        <v>745.444</v>
+        <v>745.44399999999996</v>
       </c>
       <c r="D22" s="4">
-        <v>514.7669999999999</v>
+        <v>514.76699999999994</v>
       </c>
       <c r="E22" s="4">
-        <v>477.703</v>
+        <v>477.70299999999997</v>
       </c>
       <c r="F22" s="4">
-        <v>623.558</v>
+        <v>623.55799999999999</v>
       </c>
       <c r="G22" s="4">
-        <v>702.083</v>
+        <v>702.08299999999997</v>
       </c>
       <c r="H22" s="4">
         <v>860.548</v>
@@ -6317,7 +6296,7 @@
         <v>1122.25</v>
       </c>
       <c r="K22" s="4">
-        <v>1188.89764761698</v>
+        <v>1188.8976476169801</v>
       </c>
       <c r="L22" s="4">
         <v>1740.9672148064499</v>
@@ -6329,24 +6308,24 @@
         <v>1898.05</v>
       </c>
       <c r="O22" s="4">
-        <v>2230.23854567447</v>
+        <v>2230.2385456744701</v>
       </c>
       <c r="P22" s="4">
-        <v>2164.2991333957</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>2164.2991333957002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B23" s="4">
-        <v>215.647</v>
+        <v>215.64699999999999</v>
       </c>
       <c r="C23" s="4">
-        <v>276.747</v>
+        <v>276.74700000000001</v>
       </c>
       <c r="D23" s="4">
-        <v>198.468</v>
+        <v>198.46799999999999</v>
       </c>
       <c r="E23" s="4">
         <v>198.375</v>
@@ -6355,16 +6334,16 @@
         <v>214.92</v>
       </c>
       <c r="G23" s="4">
-        <v>168.914</v>
+        <v>168.91399999999999</v>
       </c>
       <c r="H23" s="4">
-        <v>150.022</v>
+        <v>150.02199999999999</v>
       </c>
       <c r="I23" s="4">
         <v>220.262</v>
       </c>
       <c r="J23" s="4">
-        <v>156.695</v>
+        <v>156.69499999999999</v>
       </c>
       <c r="K23" s="4">
         <v>193.15936355819002</v>
@@ -6376,45 +6355,45 @@
         <v>356.1</v>
       </c>
       <c r="N23" s="4">
-        <v>313.962</v>
+        <v>313.96199999999999</v>
       </c>
       <c r="O23" s="4">
-        <v>338.29455815211</v>
+        <v>338.29455815211003</v>
       </c>
       <c r="P23" s="4">
-        <v>337.7680901271901</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <v>337.76809012719008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B24" s="4">
-        <v>216.787</v>
+        <v>216.78700000000001</v>
       </c>
       <c r="C24" s="4">
         <v>468.697</v>
       </c>
       <c r="D24" s="4">
-        <v>316.299</v>
+        <v>316.29899999999998</v>
       </c>
       <c r="E24" s="4">
-        <v>279.328</v>
+        <v>279.32799999999997</v>
       </c>
       <c r="F24" s="4">
-        <v>408.638</v>
+        <v>408.63799999999998</v>
       </c>
       <c r="G24" s="4">
-        <v>533.169</v>
+        <v>533.16899999999998</v>
       </c>
       <c r="H24" s="4">
-        <v>710.526</v>
+        <v>710.52599999999995</v>
       </c>
       <c r="I24" s="4">
-        <v>824.046</v>
+        <v>824.04600000000005</v>
       </c>
       <c r="J24" s="4">
-        <v>965.555</v>
+        <v>965.55499999999995</v>
       </c>
       <c r="K24" s="4">
         <v>995.7382840587901</v>
@@ -6432,15 +6411,15 @@
         <v>1891.94398752236</v>
       </c>
       <c r="P24" s="4">
-        <v>1826.53104326851</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>1826.5310432685101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B25" s="4">
-        <v>155.668</v>
+        <v>155.66800000000001</v>
       </c>
       <c r="C25" s="4">
         <v>127.334</v>
@@ -6449,10 +6428,10 @@
         <v>128.49200000000002</v>
       </c>
       <c r="E25" s="4">
-        <v>147.902</v>
+        <v>147.90199999999999</v>
       </c>
       <c r="F25" s="4">
-        <v>143.248</v>
+        <v>143.24799999999999</v>
       </c>
       <c r="G25" s="4">
         <v>144.01500000000001</v>
@@ -6461,7 +6440,7 @@
         <v>123.961</v>
       </c>
       <c r="I25" s="4">
-        <v>142.383</v>
+        <v>142.38300000000001</v>
       </c>
       <c r="J25" s="4">
         <v>230.92</v>
@@ -6473,24 +6452,24 @@
         <v>285.46746103761274</v>
       </c>
       <c r="M25" s="4">
-        <v>353.115276450337</v>
+        <v>353.11527645033698</v>
       </c>
       <c r="N25" s="4">
-        <v>355.996</v>
+        <v>355.99599999999998</v>
       </c>
       <c r="O25" s="4">
         <v>361.55214806543</v>
       </c>
       <c r="P25" s="4">
-        <v>353.895</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+        <v>353.89499999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="4">
-        <v>21.132</v>
+        <v>21.132000000000001</v>
       </c>
       <c r="C26" s="4">
         <v>24.901</v>
@@ -6499,16 +6478,16 @@
         <v>32.988</v>
       </c>
       <c r="E26" s="4">
-        <v>32.572</v>
+        <v>32.572000000000003</v>
       </c>
       <c r="F26" s="4">
-        <v>37.312</v>
+        <v>37.311999999999998</v>
       </c>
       <c r="G26" s="4">
         <v>37.71</v>
       </c>
       <c r="H26" s="4">
-        <v>38.66</v>
+        <v>38.659999999999997</v>
       </c>
       <c r="I26" s="4">
         <v>45.23</v>
@@ -6517,10 +6496,10 @@
         <v>57.41</v>
       </c>
       <c r="K26" s="4">
-        <v>64.68074260614809</v>
+        <v>64.680742606148087</v>
       </c>
       <c r="L26" s="4">
-        <v>70.18406103761271</v>
+        <v>70.184061037612707</v>
       </c>
       <c r="M26" s="4">
         <v>105.515276450337</v>
@@ -6529,13 +6508,13 @@
         <v>106.819</v>
       </c>
       <c r="O26" s="4">
-        <v>115.20338450392</v>
+        <v>115.20338450392001</v>
       </c>
       <c r="P26" s="4">
-        <v>122.859</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+        <v>122.85899999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>83</v>
       </c>
@@ -6543,25 +6522,25 @@
         <v>134.536</v>
       </c>
       <c r="C27" s="4">
-        <v>102.433</v>
+        <v>102.43300000000001</v>
       </c>
       <c r="D27" s="4">
-        <v>95.504</v>
+        <v>95.504000000000005</v>
       </c>
       <c r="E27" s="4">
         <v>115.33</v>
       </c>
       <c r="F27" s="4">
-        <v>105.936</v>
+        <v>105.93600000000001</v>
       </c>
       <c r="G27" s="4">
-        <v>106.305</v>
+        <v>106.30500000000001</v>
       </c>
       <c r="H27" s="4">
-        <v>85.301</v>
+        <v>85.301000000000002</v>
       </c>
       <c r="I27" s="4">
-        <v>97.153</v>
+        <v>97.153000000000006</v>
       </c>
       <c r="J27" s="4">
         <v>173.51</v>
@@ -6576,7 +6555,7 @@
         <v>247.6</v>
       </c>
       <c r="N27" s="4">
-        <v>249.177</v>
+        <v>249.17699999999999</v>
       </c>
       <c r="O27" s="4">
         <v>246.34876356151</v>
@@ -6585,12 +6564,12 @@
         <v>231.036</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B28" s="4">
-        <v>220.581999947</v>
+        <v>220.58199994700001</v>
       </c>
       <c r="C28" s="4">
         <v>118.925999975</v>
@@ -6605,37 +6584,37 @@
         <v>343.887</v>
       </c>
       <c r="G28" s="4">
-        <v>309.4334023</v>
+        <v>309.43340230000001</v>
       </c>
       <c r="H28" s="4">
-        <v>179.007</v>
+        <v>179.00700000000001</v>
       </c>
       <c r="I28" s="4">
-        <v>190.278</v>
+        <v>190.27799999999999</v>
       </c>
       <c r="J28" s="4">
         <v>444.99399999999997</v>
       </c>
       <c r="K28" s="4">
-        <v>386.280926919</v>
+        <v>386.28092691900002</v>
       </c>
       <c r="L28" s="4">
-        <v>418.8242038937158</v>
+        <v>418.82420389371578</v>
       </c>
       <c r="M28" s="4">
         <v>524.14801988616</v>
       </c>
       <c r="N28" s="4">
-        <v>332.3308168171901</v>
+        <v>332.33081681719011</v>
       </c>
       <c r="O28" s="4">
-        <v>-443.598096342124</v>
+        <v>-443.59809634212399</v>
       </c>
       <c r="P28" s="4">
-        <v>-330.26200564257</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+        <v>-330.26200564256999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>85</v>
       </c>
@@ -6655,28 +6634,28 @@
         <v>196.70000000000002</v>
       </c>
       <c r="G29" s="4">
-        <v>136.2</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="H29" s="4">
         <v>42.7</v>
       </c>
       <c r="I29" s="4">
-        <v>36.156</v>
+        <v>36.155999999999999</v>
       </c>
       <c r="J29" s="4">
-        <v>40.758</v>
+        <v>40.758000000000003</v>
       </c>
       <c r="K29" s="4">
-        <v>169.414926919</v>
+        <v>169.41492691900001</v>
       </c>
       <c r="L29" s="4">
         <v>210.54565740806999</v>
       </c>
       <c r="M29" s="4">
-        <v>284.24801988616</v>
+        <v>284.24801988616002</v>
       </c>
       <c r="N29" s="4">
-        <v>243.390302285</v>
+        <v>243.39030228499999</v>
       </c>
       <c r="O29" s="4">
         <v>191.55204104999999</v>
@@ -6685,21 +6664,21 @@
         <v>205.75300000000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="4">
-        <v>106.135</v>
+        <v>106.13500000000001</v>
       </c>
       <c r="C30" s="4">
-        <v>-78.149</v>
+        <v>-78.149000000000001</v>
       </c>
       <c r="D30" s="4">
-        <v>93.698</v>
+        <v>93.697999999999993</v>
       </c>
       <c r="E30" s="4">
-        <v>80.38553663900001</v>
+        <v>80.385536639000009</v>
       </c>
       <c r="F30" s="4">
         <v>147.18699999999998</v>
@@ -6714,28 +6693,28 @@
         <v>154.12199999999999</v>
       </c>
       <c r="J30" s="4">
-        <v>404.236</v>
+        <v>404.23599999999999</v>
       </c>
       <c r="K30" s="4">
-        <v>216.866</v>
+        <v>216.86600000000001</v>
       </c>
       <c r="L30" s="4">
-        <v>208.2785464856458</v>
+        <v>208.27854648564579</v>
       </c>
       <c r="M30" s="4">
         <v>239.9</v>
       </c>
       <c r="N30" s="4">
-        <v>88.94051453219011</v>
+        <v>88.940514532190107</v>
       </c>
       <c r="O30" s="4">
-        <v>-635.150137392124</v>
+        <v>-635.15013739212395</v>
       </c>
       <c r="P30" s="4">
-        <v>-536.01500564257</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+        <v>-536.01500564257003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>87</v>
       </c>
@@ -6746,19 +6725,19 @@
         <v>1244.848</v>
       </c>
       <c r="D31" s="4">
-        <v>812.968</v>
+        <v>812.96799999999996</v>
       </c>
       <c r="E31" s="4">
-        <v>914.5260000000001</v>
+        <v>914.52600000000007</v>
       </c>
       <c r="F31" s="4">
-        <v>841.832</v>
+        <v>841.83199999999999</v>
       </c>
       <c r="G31" s="4">
-        <v>595.199</v>
+        <v>595.19899999999996</v>
       </c>
       <c r="H31" s="4">
-        <v>730.402</v>
+        <v>730.40200000000004</v>
       </c>
       <c r="I31" s="4">
         <v>999.029</v>
@@ -6767,10 +6746,10 @@
         <v>1000.465</v>
       </c>
       <c r="K31" s="4">
-        <v>1668.212913752693</v>
+        <v>1668.2129137526931</v>
       </c>
       <c r="L31" s="4">
-        <v>1921.77780206213</v>
+        <v>1921.7778020621299</v>
       </c>
       <c r="M31" s="4">
         <v>2448.6174476120495</v>
@@ -6785,42 +6764,42 @@
         <v>2954.5874486184653</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B32" s="4">
-        <v>314.937</v>
+        <v>314.93700000000001</v>
       </c>
       <c r="C32" s="4">
-        <v>474.229</v>
+        <v>474.22899999999998</v>
       </c>
       <c r="D32" s="4">
-        <v>361.313</v>
+        <v>361.31299999999999</v>
       </c>
       <c r="E32" s="4">
         <v>385</v>
       </c>
       <c r="F32" s="4">
-        <v>286.491</v>
+        <v>286.49099999999999</v>
       </c>
       <c r="G32" s="4">
         <v>165.17</v>
       </c>
       <c r="H32" s="4">
-        <v>137.747</v>
+        <v>137.74700000000001</v>
       </c>
       <c r="I32" s="4">
         <v>284.892</v>
       </c>
       <c r="J32" s="4">
-        <v>274.879</v>
+        <v>274.87900000000002</v>
       </c>
       <c r="K32" s="4">
         <v>386.20336112705024</v>
       </c>
       <c r="L32" s="4">
-        <v>668.9469917762</v>
+        <v>668.94699177619998</v>
       </c>
       <c r="M32" s="4">
         <v>833.8</v>
@@ -6829,54 +6808,54 @@
         <v>748.697</v>
       </c>
       <c r="O32" s="4">
-        <v>1449.8872766802</v>
+        <v>1449.8872766802001</v>
       </c>
       <c r="P32" s="4">
         <v>1460.6878253638201</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B33" s="4">
-        <v>734.983</v>
+        <v>734.98299999999995</v>
       </c>
       <c r="C33" s="4">
-        <v>770.619</v>
+        <v>770.61900000000003</v>
       </c>
       <c r="D33" s="4">
-        <v>451.655</v>
+        <v>451.65499999999997</v>
       </c>
       <c r="E33" s="4">
-        <v>529.5260000000001</v>
+        <v>529.52600000000007</v>
       </c>
       <c r="F33" s="4">
-        <v>555.341</v>
+        <v>555.34100000000001</v>
       </c>
       <c r="G33" s="4">
         <v>430.029</v>
       </c>
       <c r="H33" s="4">
-        <v>592.655</v>
+        <v>592.65499999999997</v>
       </c>
       <c r="I33" s="4">
-        <v>714.137</v>
+        <v>714.13699999999994</v>
       </c>
       <c r="J33" s="4">
-        <v>725.586</v>
+        <v>725.58600000000001</v>
       </c>
       <c r="K33" s="4">
         <v>1282.009552625643</v>
       </c>
       <c r="L33" s="4">
-        <v>1252.83081028593</v>
+        <v>1252.8308102859301</v>
       </c>
       <c r="M33" s="4">
         <v>1614.8174476120498</v>
       </c>
       <c r="N33" s="4">
-        <v>2105.889</v>
+        <v>2105.8890000000001</v>
       </c>
       <c r="O33" s="4">
         <v>1892.78030712452</v>
@@ -6885,7 +6864,7 @@
         <v>1493.8996232546451</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>90</v>
       </c>
@@ -6893,7 +6872,7 @@
         <v>230.852</v>
       </c>
       <c r="C34" s="4">
-        <v>349.788</v>
+        <v>349.78800000000001</v>
       </c>
       <c r="D34" s="4">
         <v>195.255</v>
@@ -6902,16 +6881,16 @@
         <v>192.822</v>
       </c>
       <c r="F34" s="4">
-        <v>182.451</v>
+        <v>182.45099999999999</v>
       </c>
       <c r="G34" s="4">
-        <v>167.737</v>
+        <v>167.73699999999999</v>
       </c>
       <c r="H34" s="4">
         <v>297.12</v>
       </c>
       <c r="I34" s="4">
-        <v>328.028</v>
+        <v>328.02800000000002</v>
       </c>
       <c r="J34" s="4">
         <v>341.53</v>
@@ -6920,10 +6899,10 @@
         <v>385.24513112655706</v>
       </c>
       <c r="L34" s="4">
-        <v>514.34770358593</v>
+        <v>514.34770358593005</v>
       </c>
       <c r="M34" s="4">
-        <v>797.867</v>
+        <v>797.86699999999996</v>
       </c>
       <c r="N34" s="4">
         <v>884.18</v>
@@ -6935,48 +6914,48 @@
         <v>1124.123425924786</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B35" s="4">
-        <v>504.131</v>
+        <v>504.13099999999997</v>
       </c>
       <c r="C35" s="4">
-        <v>420.831</v>
+        <v>420.83100000000002</v>
       </c>
       <c r="D35" s="4">
-        <v>256.4</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="E35" s="4">
-        <v>336.704</v>
+        <v>336.70400000000001</v>
       </c>
       <c r="F35" s="4">
         <v>372.89</v>
       </c>
       <c r="G35" s="4">
-        <v>262.292</v>
+        <v>262.29199999999997</v>
       </c>
       <c r="H35" s="4">
-        <v>295.535</v>
+        <v>295.53500000000003</v>
       </c>
       <c r="I35" s="4">
-        <v>386.109</v>
+        <v>386.10899999999998</v>
       </c>
       <c r="J35" s="4">
-        <v>384.056</v>
+        <v>384.05599999999998</v>
       </c>
       <c r="K35" s="4">
-        <v>896.7644214990859</v>
+        <v>896.76442149908587</v>
       </c>
       <c r="L35" s="4">
-        <v>738.4831067</v>
+        <v>738.48310670000001</v>
       </c>
       <c r="M35" s="4">
-        <v>816.9504476120499</v>
+        <v>816.95044761204986</v>
       </c>
       <c r="N35" s="4">
-        <v>1221.709</v>
+        <v>1221.7090000000001</v>
       </c>
       <c r="O35" s="4">
         <v>808.03326572224</v>
@@ -6985,15 +6964,15 @@
         <v>369.77619732985903</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B36" s="4">
-        <v>-368.9679999470004</v>
+        <v>-368.96799994700041</v>
       </c>
       <c r="C36" s="4">
-        <v>-312.413999975</v>
+        <v>-312.41399997500002</v>
       </c>
       <c r="D36" s="4">
         <v>-426.02699999999913</v>
@@ -7002,31 +6981,31 @@
         <v>-161.42553663900026</v>
       </c>
       <c r="F36" s="4">
-        <v>-351.9960000000001</v>
+        <v>-351.99600000000009</v>
       </c>
       <c r="G36" s="4">
-        <v>-274.5574023000004</v>
+        <v>-274.55740230000038</v>
       </c>
       <c r="H36" s="4">
         <v>-417.44000000000005</v>
       </c>
       <c r="I36" s="4">
-        <v>-577.2789999999995</v>
+        <v>-577.27899999999954</v>
       </c>
       <c r="J36" s="4">
-        <v>-847.674</v>
+        <v>-847.67399999999998</v>
       </c>
       <c r="K36" s="4">
         <v>-428.19056174020534</v>
       </c>
       <c r="L36" s="4">
-        <v>-843.5234665787384</v>
+        <v>-843.52346657873841</v>
       </c>
       <c r="M36" s="4">
-        <v>-701.6737949391872</v>
+        <v>-701.67379493918725</v>
       </c>
       <c r="N36" s="4">
-        <v>-571.58618636557</v>
+        <v>-571.58618636557003</v>
       </c>
       <c r="O36" s="4">
         <v>-1956.0785025551768</v>
@@ -7035,21 +7014,21 @@
         <v>-1554.4736311984052</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B37" s="4">
-        <v>-24.226</v>
+        <v>-24.225999999999999</v>
       </c>
       <c r="C37" s="4">
         <v>-32.15</v>
       </c>
       <c r="D37" s="4">
-        <v>1.055</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="E37" s="4">
-        <v>-37.593</v>
+        <v>-37.593000000000004</v>
       </c>
       <c r="F37" s="4">
         <v>13.708</v>
@@ -7061,10 +7040,10 @@
         <v>-39.69</v>
       </c>
       <c r="I37" s="4">
-        <v>-49.282</v>
+        <v>-49.281999999999996</v>
       </c>
       <c r="J37" s="4">
-        <v>-204.725</v>
+        <v>-204.72499999999999</v>
       </c>
       <c r="K37" s="4">
         <v>-231.71163884693985</v>
@@ -7076,16 +7055,16 @@
         <v>-302.37201193690987</v>
       </c>
       <c r="N37" s="4">
-        <v>-125.177</v>
+        <v>-125.17700000000001</v>
       </c>
       <c r="O37" s="4">
-        <v>219.48850259194</v>
+        <v>219.48850259194001</v>
       </c>
       <c r="P37" s="4">
         <v>-221.90900000000002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>94</v>
       </c>
@@ -7093,10 +7072,10 @@
         <v>-392.9419999470004</v>
       </c>
       <c r="C38" s="4">
-        <v>-344.370999975</v>
+        <v>-344.37099997500002</v>
       </c>
       <c r="D38" s="4">
-        <v>-424.9719999999991</v>
+        <v>-424.97199999999913</v>
       </c>
       <c r="E38" s="4">
         <v>-199.01853663900027</v>
@@ -7105,28 +7084,28 @@
         <v>-338.28800000000007</v>
       </c>
       <c r="G38" s="4">
-        <v>-294.5454023000004</v>
+        <v>-294.54540230000038</v>
       </c>
       <c r="H38" s="4">
         <v>-457.13000000000005</v>
       </c>
       <c r="I38" s="4">
-        <v>-626.5609999999996</v>
+        <v>-626.56099999999958</v>
       </c>
       <c r="J38" s="4">
-        <v>-1052.399</v>
+        <v>-1052.3989999999999</v>
       </c>
       <c r="K38" s="4">
-        <v>-659.9022005871452</v>
+        <v>-659.90220058714522</v>
       </c>
       <c r="L38" s="4">
-        <v>-855.5176277039175</v>
+        <v>-855.51762770391747</v>
       </c>
       <c r="M38" s="4">
         <v>-1004.0458068760971</v>
       </c>
       <c r="N38" s="4">
-        <v>-696.76318636557</v>
+        <v>-696.76318636557005</v>
       </c>
       <c r="O38" s="4">
         <v>-1736.5899999632368</v>
@@ -7135,12 +7114,12 @@
         <v>-1776.3826311984053</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B39" s="4">
-        <v>-71.41999994699984</v>
+        <v>-71.419999946999837</v>
       </c>
       <c r="C39" s="4">
         <v>39.396000025000205</v>
@@ -7155,45 +7134,45 @@
         <v>-43.608000000000175</v>
       </c>
       <c r="G39" s="4">
-        <v>36.5955976999995</v>
+        <v>36.595597699999502</v>
       </c>
       <c r="H39" s="4">
         <v>3.0329999999997312</v>
       </c>
       <c r="I39" s="4">
-        <v>-311.7279999999998</v>
+        <v>-311.72799999999978</v>
       </c>
       <c r="J39" s="4">
         <v>-315.3950000000001</v>
       </c>
       <c r="K39" s="4">
-        <v>7.418377704499676</v>
+        <v>7.4183777044996759</v>
       </c>
       <c r="L39" s="4">
         <v>-342.09518123183636</v>
       </c>
       <c r="M39" s="4">
-        <v>35.1257648309695</v>
+        <v>35.125764830969501</v>
       </c>
       <c r="N39" s="4">
         <v>303.4858136344302</v>
       </c>
       <c r="O39" s="4">
-        <v>-944.4546179024869</v>
+        <v>-944.45461790248692</v>
       </c>
       <c r="P39" s="4">
-        <v>-77.60420527361975</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+        <v>-77.604205273619755</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="4">
-        <v>392.942</v>
+        <v>392.94200000000001</v>
       </c>
       <c r="C40" s="4">
-        <v>344.371</v>
+        <v>344.37099999999998</v>
       </c>
       <c r="D40" s="4">
         <v>424.97</v>
@@ -7202,31 +7181,31 @@
         <v>199.01999999999998</v>
       </c>
       <c r="F40" s="4">
-        <v>338.295</v>
+        <v>338.29500000000002</v>
       </c>
       <c r="G40" s="4">
-        <v>294.521</v>
+        <v>294.52100000000002</v>
       </c>
       <c r="H40" s="4">
-        <v>457.124</v>
+        <v>457.12400000000002</v>
       </c>
       <c r="I40" s="4">
-        <v>626.561</v>
+        <v>626.56100000000004</v>
       </c>
       <c r="J40" s="4">
-        <v>1052.399</v>
+        <v>1052.3989999999999</v>
       </c>
       <c r="K40" s="4">
-        <v>659.9026310259067</v>
+        <v>659.90263102590666</v>
       </c>
       <c r="L40" s="4">
-        <v>855.5176277039168</v>
+        <v>855.51762770391679</v>
       </c>
       <c r="M40" s="4">
         <v>1004.0458058760971</v>
       </c>
       <c r="N40" s="4">
-        <v>696.7629999999998</v>
+        <v>696.76299999999981</v>
       </c>
       <c r="O40" s="4">
         <v>1736.5954706287657</v>
@@ -7235,7 +7214,7 @@
         <v>1776.3875603280758</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>97</v>
       </c>
@@ -7243,49 +7222,49 @@
         <v>203.035</v>
       </c>
       <c r="C41" s="4">
-        <v>323.47</v>
+        <v>323.47000000000003</v>
       </c>
       <c r="D41" s="4">
         <v>123.09599999999999</v>
       </c>
       <c r="E41" s="4">
-        <v>132.419</v>
+        <v>132.41900000000001</v>
       </c>
       <c r="F41" s="4">
-        <v>95.871</v>
+        <v>95.870999999999995</v>
       </c>
       <c r="G41" s="4">
-        <v>98.469</v>
+        <v>98.468999999999994</v>
       </c>
       <c r="H41" s="4">
-        <v>233.752</v>
+        <v>233.75200000000001</v>
       </c>
       <c r="I41" s="4">
         <v>309.91700000000003</v>
       </c>
       <c r="J41" s="4">
-        <v>619.6669999999999</v>
+        <v>619.66699999999992</v>
       </c>
       <c r="K41" s="4">
         <v>214.41249318039596</v>
       </c>
       <c r="L41" s="4">
-        <v>499.680775029048</v>
+        <v>499.68077502904799</v>
       </c>
       <c r="M41" s="4">
-        <v>738.3207019925806</v>
+        <v>738.32070199258055</v>
       </c>
       <c r="N41" s="4">
-        <v>655.1019999999999</v>
+        <v>655.10199999999986</v>
       </c>
       <c r="O41" s="4">
-        <v>885.4145561925881</v>
+        <v>885.41455619258807</v>
       </c>
       <c r="P41" s="4">
         <v>1303.713425924786</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -7293,7 +7272,7 @@
         <v>230.852</v>
       </c>
       <c r="C42" s="4">
-        <v>349.788</v>
+        <v>349.78800000000001</v>
       </c>
       <c r="D42" s="4">
         <v>195.255</v>
@@ -7302,10 +7281,10 @@
         <v>192.822</v>
       </c>
       <c r="F42" s="4">
-        <v>182.451</v>
+        <v>182.45099999999999</v>
       </c>
       <c r="G42" s="4">
-        <v>167.737</v>
+        <v>167.73699999999999</v>
       </c>
       <c r="H42" s="4">
         <v>297.12</v>
@@ -7314,7 +7293,7 @@
         <v>442.74</v>
       </c>
       <c r="J42" s="4">
-        <v>736.602</v>
+        <v>736.60199999999998</v>
       </c>
       <c r="K42" s="4">
         <v>437.84413112655704</v>
@@ -7323,19 +7302,19 @@
         <v>748.66503674638</v>
       </c>
       <c r="M42" s="4">
-        <v>973.824</v>
+        <v>973.82399999999996</v>
       </c>
       <c r="N42" s="4">
         <v>889.5379999999999</v>
       </c>
       <c r="O42" s="4">
-        <v>1161.48636133238</v>
+        <v>1161.4863613323801</v>
       </c>
       <c r="P42" s="4">
-        <v>1671.090425924786</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+        <v>1671.0904259247859</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -7343,7 +7322,7 @@
         <v>230.852</v>
       </c>
       <c r="C43" s="4">
-        <v>349.788</v>
+        <v>349.78800000000001</v>
       </c>
       <c r="D43" s="4">
         <v>195.255</v>
@@ -7352,16 +7331,16 @@
         <v>192.822</v>
       </c>
       <c r="F43" s="4">
-        <v>182.451</v>
+        <v>182.45099999999999</v>
       </c>
       <c r="G43" s="4">
-        <v>167.737</v>
+        <v>167.73699999999999</v>
       </c>
       <c r="H43" s="4">
         <v>297.12</v>
       </c>
       <c r="I43" s="4">
-        <v>328.028</v>
+        <v>328.02800000000002</v>
       </c>
       <c r="J43" s="4">
         <v>341.53</v>
@@ -7370,10 +7349,10 @@
         <v>385.24513112655706</v>
       </c>
       <c r="L43" s="4">
-        <v>514.34770358593</v>
+        <v>514.34770358593005</v>
       </c>
       <c r="M43" s="4">
-        <v>797.867</v>
+        <v>797.86699999999996</v>
       </c>
       <c r="N43" s="4">
         <v>884.18</v>
@@ -7385,7 +7364,7 @@
         <v>1124.123425924786</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>100</v>
       </c>
@@ -7417,25 +7396,25 @@
         <v>395.072</v>
       </c>
       <c r="K44" s="4">
-        <v>52.599</v>
+        <v>52.598999999999997</v>
       </c>
       <c r="L44" s="4">
         <v>234.31733316044998</v>
       </c>
       <c r="M44" s="4">
-        <v>175.957</v>
+        <v>175.95699999999999</v>
       </c>
       <c r="N44" s="4">
-        <v>5.358</v>
+        <v>5.3579999999999997</v>
       </c>
       <c r="O44" s="4">
-        <v>76.7393199301</v>
+        <v>76.739319930099995</v>
       </c>
       <c r="P44" s="4">
-        <v>546.967</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+        <v>546.96699999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>101</v>
       </c>
@@ -7443,31 +7422,31 @@
         <v>-27.817</v>
       </c>
       <c r="C45" s="4">
-        <v>-26.318</v>
+        <v>-26.318000000000001</v>
       </c>
       <c r="D45" s="4">
-        <v>-72.159</v>
+        <v>-72.159000000000006</v>
       </c>
       <c r="E45" s="4">
-        <v>-60.403</v>
+        <v>-60.402999999999999</v>
       </c>
       <c r="F45" s="4">
         <v>-86.58</v>
       </c>
       <c r="G45" s="4">
-        <v>-69.268</v>
+        <v>-69.268000000000001</v>
       </c>
       <c r="H45" s="4">
-        <v>-63.368</v>
+        <v>-63.368000000000002</v>
       </c>
       <c r="I45" s="4">
-        <v>-132.823</v>
+        <v>-132.82300000000001</v>
       </c>
       <c r="J45" s="4">
         <v>-116.935</v>
       </c>
       <c r="K45" s="4">
-        <v>-223.4316379461611</v>
+        <v>-223.43163794616109</v>
       </c>
       <c r="L45" s="4">
         <v>-248.984261717332</v>
@@ -7476,30 +7455,30 @@
         <v>-235.50329800741943</v>
       </c>
       <c r="N45" s="4">
-        <v>-234.436</v>
+        <v>-234.43600000000001</v>
       </c>
       <c r="O45" s="4">
-        <v>-276.071805139792</v>
+        <v>-276.07180513979199</v>
       </c>
       <c r="P45" s="4">
-        <v>-367.377</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+        <v>-367.37700000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B46" s="4">
-        <v>83.62899999999999</v>
+        <v>83.628999999999991</v>
       </c>
       <c r="C46" s="4">
         <v>-137.17300000000006</v>
       </c>
       <c r="D46" s="4">
-        <v>301.874</v>
+        <v>301.87400000000002</v>
       </c>
       <c r="E46" s="4">
-        <v>66.60099999999997</v>
+        <v>66.600999999999971</v>
       </c>
       <c r="F46" s="4">
         <v>242.42400000000004</v>
@@ -7508,16 +7487,16 @@
         <v>196.05200000000002</v>
       </c>
       <c r="H46" s="4">
-        <v>223.372</v>
+        <v>223.37200000000001</v>
       </c>
       <c r="I46" s="4">
-        <v>316.644</v>
+        <v>316.64400000000001</v>
       </c>
       <c r="J46" s="4">
-        <v>432.732</v>
+        <v>432.73200000000003</v>
       </c>
       <c r="K46" s="4">
-        <v>445.4901378455107</v>
+        <v>445.49013784551067</v>
       </c>
       <c r="L46" s="4">
         <v>355.83685267486874</v>
@@ -7529,27 +7508,27 @@
         <v>41.660999999999994</v>
       </c>
       <c r="O46" s="4">
-        <v>851.1809144361778</v>
+        <v>851.18091443617777</v>
       </c>
       <c r="P46" s="4">
-        <v>472.6741344032898</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+        <v>472.67413440328983</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B47" s="4">
-        <v>23.889</v>
+        <v>23.888999999999999</v>
       </c>
       <c r="C47" s="4">
-        <v>-262.559</v>
+        <v>-262.55900000000003</v>
       </c>
       <c r="D47" s="4">
-        <v>313.451</v>
+        <v>313.45100000000002</v>
       </c>
       <c r="E47" s="4">
-        <v>-248.585</v>
+        <v>-248.58500000000001</v>
       </c>
       <c r="F47" s="4">
         <v>383.387</v>
@@ -7558,13 +7537,13 @@
         <v>266.173</v>
       </c>
       <c r="H47" s="4">
-        <v>440.014</v>
+        <v>440.01400000000001</v>
       </c>
       <c r="I47" s="4">
         <v>116.998</v>
       </c>
       <c r="J47" s="4">
-        <v>469.557</v>
+        <v>469.55700000000002</v>
       </c>
       <c r="K47" s="4">
         <v>225.08453003941997</v>
@@ -7573,42 +7552,42 @@
         <v>151.45913257821732</v>
       </c>
       <c r="M47" s="4">
-        <v>219.8387295853181</v>
+        <v>219.83872958531811</v>
       </c>
       <c r="N47" s="4">
-        <v>-31.028</v>
+        <v>-31.027999999999999</v>
       </c>
       <c r="O47" s="4">
-        <v>596.579695645357</v>
+        <v>596.57969564535699</v>
       </c>
       <c r="P47" s="4">
         <v>229.60190440512892</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B48" s="4">
-        <v>13.549</v>
+        <v>13.548999999999999</v>
       </c>
       <c r="C48" s="4">
-        <v>-78.383</v>
+        <v>-78.382999999999996</v>
       </c>
       <c r="D48" s="4">
-        <v>165.118</v>
+        <v>165.11799999999999</v>
       </c>
       <c r="E48" s="4">
         <v>-217.434</v>
       </c>
       <c r="F48" s="4">
-        <v>258.663</v>
+        <v>258.66300000000001</v>
       </c>
       <c r="G48" s="4">
-        <v>93.272</v>
+        <v>93.272000000000006</v>
       </c>
       <c r="H48" s="4">
-        <v>270.998</v>
+        <v>270.99799999999999</v>
       </c>
       <c r="I48" s="4">
         <v>222.245</v>
@@ -7617,13 +7596,13 @@
         <v>397.452</v>
       </c>
       <c r="K48" s="4">
-        <v>-20.92387527656011</v>
+        <v>-20.923875276560111</v>
       </c>
       <c r="L48" s="4">
         <v>-142.41498068459987</v>
       </c>
       <c r="M48" s="4">
-        <v>61.5169601959101</v>
+        <v>61.516960195910102</v>
       </c>
       <c r="N48" s="4">
         <v>-190.84203129571986</v>
@@ -7635,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>105</v>
       </c>
@@ -7679,13 +7658,13 @@
         <v>106</v>
       </c>
       <c r="O49" s="4">
-        <v>1288.4</v>
+        <v>1288.4000000000001</v>
       </c>
       <c r="P49" s="4">
         <v>536</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>107</v>
       </c>
@@ -7735,27 +7714,27 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="4">
-        <v>0.572</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="C51" s="4">
-        <v>19.201</v>
+        <v>19.201000000000001</v>
       </c>
       <c r="D51" s="4">
-        <v>-21.554</v>
+        <v>-21.553999999999998</v>
       </c>
       <c r="E51" s="4">
-        <v>17.077</v>
+        <v>17.077000000000002</v>
       </c>
       <c r="F51" s="4">
-        <v>8.588</v>
+        <v>8.5879999999999992</v>
       </c>
       <c r="G51" s="4">
-        <v>-8.174</v>
+        <v>-8.1739999999999995</v>
       </c>
       <c r="H51" s="4">
         <v>-11.942</v>
@@ -7764,16 +7743,16 @@
         <v>-0.112</v>
       </c>
       <c r="J51" s="4">
-        <v>-2.443</v>
+        <v>-2.4430000000000001</v>
       </c>
       <c r="K51" s="4">
-        <v>2.884</v>
+        <v>2.8839999999999999</v>
       </c>
       <c r="L51" s="4">
-        <v>4.1351</v>
+        <v>4.1351000000000004</v>
       </c>
       <c r="M51" s="4">
-        <v>12.45247429819847</v>
+        <v>12.452474298198471</v>
       </c>
       <c r="N51" s="4">
         <v>0.252</v>
@@ -7782,80 +7761,80 @@
         <v>18.8794</v>
       </c>
       <c r="P51" s="4">
-        <v>25.522</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+        <v>25.521999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B52" s="4">
-        <v>-36.603</v>
+        <v>-36.603000000000002</v>
       </c>
       <c r="C52" s="4">
         <v>-206.428</v>
       </c>
       <c r="D52" s="4">
-        <v>-43.935</v>
+        <v>-43.935000000000002</v>
       </c>
       <c r="E52" s="4">
-        <v>103.856</v>
+        <v>103.85599999999999</v>
       </c>
       <c r="F52" s="4">
-        <v>-41.118</v>
+        <v>-41.118000000000002</v>
       </c>
       <c r="G52" s="4">
         <v>-100.628</v>
       </c>
       <c r="H52" s="4">
-        <v>63.389</v>
+        <v>63.389000000000003</v>
       </c>
       <c r="I52" s="4">
-        <v>16.518</v>
+        <v>16.518000000000001</v>
       </c>
       <c r="J52" s="4">
-        <v>98.019</v>
+        <v>98.019000000000005</v>
       </c>
       <c r="K52" s="4">
         <v>258.58569</v>
       </c>
       <c r="L52" s="4">
-        <v>275.9758100000001</v>
+        <v>275.97581000000008</v>
       </c>
       <c r="M52" s="4">
-        <v>-66.56610000000003</v>
+        <v>-66.566100000000034</v>
       </c>
       <c r="N52" s="4">
         <v>-13.023</v>
       </c>
       <c r="O52" s="4">
-        <v>-72.1195</v>
+        <v>-72.119500000000002</v>
       </c>
       <c r="P52" s="4">
-        <v>-87.373</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+        <v>-87.373000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B53" s="4">
-        <v>95.771</v>
+        <v>95.771000000000001</v>
       </c>
       <c r="C53" s="4">
         <v>312.613</v>
       </c>
       <c r="D53" s="4">
-        <v>53.912</v>
+        <v>53.911999999999999</v>
       </c>
       <c r="E53" s="4">
-        <v>194.253</v>
+        <v>194.25299999999999</v>
       </c>
       <c r="F53" s="4">
-        <v>-108.433</v>
+        <v>-108.43300000000001</v>
       </c>
       <c r="G53" s="4">
-        <v>38.681</v>
+        <v>38.680999999999997</v>
       </c>
       <c r="H53" s="4">
         <v>-268.089</v>
@@ -7864,13 +7843,13 @@
         <v>183.24</v>
       </c>
       <c r="J53" s="4">
-        <v>-132.401</v>
+        <v>-132.40100000000001</v>
       </c>
       <c r="K53" s="4">
-        <v>-41.06408219390933</v>
+        <v>-41.064082193909329</v>
       </c>
       <c r="L53" s="4">
-        <v>-75.73318990334863</v>
+        <v>-75.733189903348631</v>
       </c>
       <c r="M53" s="4">
         <v>100</v>
@@ -7879,7 +7858,7 @@
         <v>85.46</v>
       </c>
       <c r="O53" s="4">
-        <v>307.8413187908208</v>
+        <v>307.84131879082082</v>
       </c>
       <c r="P53" s="4">
         <v>304.92322999816093</v>
@@ -7898,30 +7877,23 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="33.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="33" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="8" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8">
         <v>2007</v>
@@ -7969,15 +7941,15 @@
         <v>2021</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="4">
-        <v>-575.479331887967</v>
+        <v>-575.47933188796696</v>
       </c>
       <c r="C2" s="4">
-        <v>-1116.319508544832</v>
+        <v>-1116.3195085448319</v>
       </c>
       <c r="D2" s="4">
         <v>-1185.8039119942164</v>
@@ -7992,22 +7964,22 @@
         <v>-506.79941703280423</v>
       </c>
       <c r="H2" s="4">
-        <v>-400.2511970816764</v>
+        <v>-400.25119708167642</v>
       </c>
       <c r="I2" s="4">
-        <v>-75.62480629868725</v>
+        <v>-75.624806298687247</v>
       </c>
       <c r="J2" s="4">
         <v>-126.76552355100068</v>
       </c>
       <c r="K2" s="4">
-        <v>79.12698515649117</v>
+        <v>79.126985156491173</v>
       </c>
       <c r="L2" s="4">
         <v>-46.89227843644926</v>
       </c>
       <c r="M2" s="4">
-        <v>69.60623525687686</v>
+        <v>69.606235256876857</v>
       </c>
       <c r="N2" s="4">
         <v>-233.61540225224599</v>
@@ -8016,15 +7988,15 @@
         <v>-415.59061615867563</v>
       </c>
       <c r="P2" s="4">
-        <v>-514.0020213350587</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>-514.00202133505866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="4">
-        <v>-760.4889900236946</v>
+        <v>-760.48899002369456</v>
       </c>
       <c r="C3" s="4">
         <v>-1366.9232028355216</v>
@@ -8033,16 +8005,16 @@
         <v>-1312.0326000959667</v>
       </c>
       <c r="E3" s="4">
-        <v>-814.1585949198541</v>
+        <v>-814.15859491985407</v>
       </c>
       <c r="F3" s="4">
-        <v>-712.694671590458</v>
+        <v>-712.69467159045803</v>
       </c>
       <c r="G3" s="4">
-        <v>-680.3204309567681</v>
+        <v>-680.32043095676806</v>
       </c>
       <c r="H3" s="4">
-        <v>-594.0173626785722</v>
+        <v>-594.01736267857223</v>
       </c>
       <c r="I3" s="4">
         <v>-307.98237773054643</v>
@@ -8054,51 +8026,51 @@
         <v>-124.66092537807583</v>
       </c>
       <c r="L3" s="4">
-        <v>-323.2489061802788</v>
+        <v>-323.24890618027882</v>
       </c>
       <c r="M3" s="4">
-        <v>-335.454649081035</v>
+        <v>-335.45464908103497</v>
       </c>
       <c r="N3" s="4">
         <v>-482.27328803745775</v>
       </c>
       <c r="O3" s="4">
-        <v>-809.7626382009155</v>
+        <v>-809.76263820091549</v>
       </c>
       <c r="P3" s="4">
         <v>-1028.8935011920798</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="4">
-        <v>-654.6770474455083</v>
+        <v>-654.67704744550826</v>
       </c>
       <c r="C4" s="4">
-        <v>-1204.909239219416</v>
+        <v>-1204.9092392194159</v>
       </c>
       <c r="D4" s="4">
         <v>-1081.000835951887</v>
       </c>
       <c r="E4" s="4">
-        <v>-686.0770642487248</v>
+        <v>-686.07706424872481</v>
       </c>
       <c r="F4" s="4">
-        <v>-631.5913787840968</v>
+        <v>-631.59137878409683</v>
       </c>
       <c r="G4" s="4">
-        <v>-727.3737526236663</v>
+        <v>-727.37375262366629</v>
       </c>
       <c r="H4" s="4">
-        <v>-548.3167255341396</v>
+        <v>-548.31672553413955</v>
       </c>
       <c r="I4" s="4">
-        <v>-359.9672477853542</v>
+        <v>-359.96724778535417</v>
       </c>
       <c r="J4" s="4">
-        <v>-235.0553711071807</v>
+        <v>-235.05537110718069</v>
       </c>
       <c r="K4" s="4">
         <v>-190.01396012282657</v>
@@ -8113,30 +8085,30 @@
         <v>-610.8776125771617</v>
       </c>
       <c r="O4" s="4">
-        <v>-644.6877606286728</v>
+        <v>-644.68776062867278</v>
       </c>
       <c r="P4" s="4">
-        <v>-678.9775478897927</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>-678.97754788979273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="4">
-        <v>808.6476469152889</v>
+        <v>808.64764691528887</v>
       </c>
       <c r="C5" s="4">
-        <v>828.8960487794564</v>
+        <v>828.89604877945635</v>
       </c>
       <c r="D5" s="4">
-        <v>682.1972807959673</v>
+        <v>682.19728079596734</v>
       </c>
       <c r="E5" s="4">
-        <v>753.376157095425</v>
+        <v>753.37615709542501</v>
       </c>
       <c r="F5" s="4">
-        <v>932.7579209104601</v>
+        <v>932.75792091046014</v>
       </c>
       <c r="G5" s="4">
         <v>989.7383929732888</v>
@@ -8157,7 +8129,7 @@
         <v>2020.9486180658641</v>
       </c>
       <c r="M5" s="4">
-        <v>2143.277297617797</v>
+        <v>2143.2772976177971</v>
       </c>
       <c r="N5" s="4">
         <v>1890.7511520150877</v>
@@ -8169,7 +8141,7 @@
         <v>1904.038170226092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -8189,7 +8161,7 @@
         <v>-1564.349299694557</v>
       </c>
       <c r="G6" s="4">
-        <v>-1717.112145596955</v>
+        <v>-1717.1121455969551</v>
       </c>
       <c r="H6" s="4">
         <v>-1813.418022230238</v>
@@ -8219,7 +8191,7 @@
         <v>-2583.0157181158847</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -8236,25 +8208,25 @@
         <v>-128.08153067112926</v>
       </c>
       <c r="F7" s="4">
-        <v>-81.1032928063612</v>
+        <v>-81.103292806361196</v>
       </c>
       <c r="G7" s="4">
-        <v>47.05332166689823</v>
+        <v>47.053321666898228</v>
       </c>
       <c r="H7" s="4">
         <v>-45.700637144432676</v>
       </c>
       <c r="I7" s="4">
-        <v>51.98487005480774</v>
+        <v>51.984870054807743</v>
       </c>
       <c r="J7" s="4">
         <v>-1.6399253909584104</v>
       </c>
       <c r="K7" s="4">
-        <v>65.35303474475074</v>
+        <v>65.353034744750744</v>
       </c>
       <c r="L7" s="4">
-        <v>-0.9823509634405809</v>
+        <v>-0.98235096344058093</v>
       </c>
       <c r="M7" s="4">
         <v>-11.302730680163336</v>
@@ -8266,48 +8238,48 @@
         <v>-165.07487757224277</v>
       </c>
       <c r="P7" s="4">
-        <v>-349.9159533022872</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>-349.91595330228722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="4">
-        <v>652.1615202089154</v>
+        <v>652.16152020891536</v>
       </c>
       <c r="C8" s="4">
-        <v>820.4926699736013</v>
+        <v>820.49266997360132</v>
       </c>
       <c r="D8" s="4">
-        <v>558.6677083652307</v>
+        <v>558.66770836523074</v>
       </c>
       <c r="E8" s="4">
-        <v>675.310691080844</v>
+        <v>675.31069108084398</v>
       </c>
       <c r="F8" s="4">
-        <v>743.7372841305042</v>
+        <v>743.73728413050424</v>
       </c>
       <c r="G8" s="4">
-        <v>860.1308211103128</v>
+        <v>860.13082111031281</v>
       </c>
       <c r="H8" s="4">
-        <v>830.9604560442568</v>
+        <v>830.96045604425683</v>
       </c>
       <c r="I8" s="4">
-        <v>858.3623498907743</v>
+        <v>858.36234989077434</v>
       </c>
       <c r="J8" s="4">
-        <v>775.390185654185</v>
+        <v>775.39018565418496</v>
       </c>
       <c r="K8" s="4">
-        <v>854.0361247048982</v>
+        <v>854.03612470489816</v>
       </c>
       <c r="L8" s="4">
-        <v>917.1933234382919</v>
+        <v>917.19332343829194</v>
       </c>
       <c r="M8" s="4">
-        <v>935.0349863450821</v>
+        <v>935.03498634508207</v>
       </c>
       <c r="N8" s="4">
         <v>1035.5104192535418</v>
@@ -8316,60 +8288,60 @@
         <v>459.3656996790059</v>
       </c>
       <c r="P8" s="4">
-        <v>449.1284693624999</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>449.12846936249991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="4">
-        <v>-757.9734627871017</v>
+        <v>-757.97346278710165</v>
       </c>
       <c r="C9" s="4">
-        <v>-982.506633589707</v>
+        <v>-982.50663358970701</v>
       </c>
       <c r="D9" s="4">
-        <v>-789.6994725093103</v>
+        <v>-789.69947250931034</v>
       </c>
       <c r="E9" s="4">
-        <v>-803.3922217519732</v>
+        <v>-803.39222175197324</v>
       </c>
       <c r="F9" s="4">
-        <v>-824.8405769368654</v>
+        <v>-824.84057693686543</v>
       </c>
       <c r="G9" s="4">
-        <v>-813.0774994434146</v>
+        <v>-813.07749944341458</v>
       </c>
       <c r="H9" s="4">
-        <v>-876.6610931886895</v>
+        <v>-876.66109318868951</v>
       </c>
       <c r="I9" s="4">
         <v>-806.3774798359666</v>
       </c>
       <c r="J9" s="4">
-        <v>-777.0301110451434</v>
+        <v>-777.03011104514337</v>
       </c>
       <c r="K9" s="4">
-        <v>-788.6830899601474</v>
+        <v>-788.68308996014741</v>
       </c>
       <c r="L9" s="4">
-        <v>-918.1756744017325</v>
+        <v>-918.17567440173252</v>
       </c>
       <c r="M9" s="4">
-        <v>-946.3377170252454</v>
+        <v>-946.33771702524541</v>
       </c>
       <c r="N9" s="4">
-        <v>-906.9060947138379</v>
+        <v>-906.90609471383789</v>
       </c>
       <c r="O9" s="4">
-        <v>-624.4405772512487</v>
+        <v>-624.44057725124867</v>
       </c>
       <c r="P9" s="4">
-        <v>-799.0444226647871</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>-799.04442266478713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -8377,25 +8349,25 @@
         <v>-48.559485290058454</v>
       </c>
       <c r="C10" s="4">
-        <v>-49.30856133716962</v>
+        <v>-49.308561337169621</v>
       </c>
       <c r="D10" s="4">
-        <v>-72.65296848325679</v>
+        <v>-72.652968483256785</v>
       </c>
       <c r="E10" s="4">
-        <v>-85.37779914181252</v>
+        <v>-85.377799141812517</v>
       </c>
       <c r="F10" s="4">
-        <v>-98.41992683242795</v>
+        <v>-98.419926832427947</v>
       </c>
       <c r="G10" s="4">
-        <v>-216.8717816074584</v>
+        <v>-216.87178160745839</v>
       </c>
       <c r="H10" s="4">
         <v>-223.44404974489032</v>
       </c>
       <c r="I10" s="4">
-        <v>-195.6576146994991</v>
+        <v>-195.65761469949911</v>
       </c>
       <c r="J10" s="4">
         <v>-268.81449386455176</v>
@@ -8407,10 +8379,10 @@
         <v>-255.20949974754765</v>
       </c>
       <c r="M10" s="4">
-        <v>-280.7795848257714</v>
+        <v>-280.77958482577139</v>
       </c>
       <c r="N10" s="4">
-        <v>-329.1689995346291</v>
+        <v>-329.16899953462911</v>
       </c>
       <c r="O10" s="4">
         <v>-239.64317406277354</v>
@@ -8419,21 +8391,21 @@
         <v>-182.49371939027765</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="4">
-        <v>33.8285199905823</v>
+        <v>33.828519990582301</v>
       </c>
       <c r="C11" s="4">
-        <v>39.76950176439665</v>
+        <v>39.769501764396651</v>
       </c>
       <c r="D11" s="4">
-        <v>22.1325353273473</v>
+        <v>22.132535327347298</v>
       </c>
       <c r="E11" s="4">
-        <v>41.09561893048381</v>
+        <v>41.095618930483809</v>
       </c>
       <c r="F11" s="4">
         <v>53.95616136744583</v>
@@ -8442,45 +8414,45 @@
         <v>22.165226999999998</v>
       </c>
       <c r="H11" s="4">
-        <v>11.845482</v>
+        <v>11.845482000000001</v>
       </c>
       <c r="I11" s="4">
-        <v>9.558382604733948</v>
+        <v>9.5583826047339482</v>
       </c>
       <c r="J11" s="4">
         <v>11.781515460517085</v>
       </c>
       <c r="K11" s="4">
-        <v>24.30315555740563</v>
+        <v>24.303155557405631</v>
       </c>
       <c r="L11" s="4">
         <v>27.447219704539503</v>
       </c>
       <c r="M11" s="4">
-        <v>39.76916652234311</v>
+        <v>39.769166522343113</v>
       </c>
       <c r="N11" s="4">
-        <v>44.32966137071215</v>
+        <v>44.329661370712152</v>
       </c>
       <c r="O11" s="4">
-        <v>32.255627</v>
+        <v>32.255626999999997</v>
       </c>
       <c r="P11" s="4">
         <v>30.099935000000002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="4">
-        <v>-82.38800528064075</v>
+        <v>-82.388005280640755</v>
       </c>
       <c r="C12" s="4">
-        <v>-89.07806310156627</v>
+        <v>-89.078063101566272</v>
       </c>
       <c r="D12" s="4">
-        <v>-94.78550381060408</v>
+        <v>-94.785503810604084</v>
       </c>
       <c r="E12" s="4">
         <v>-126.47341807229633</v>
@@ -8501,13 +8473,13 @@
         <v>-280.59600932506885</v>
       </c>
       <c r="K12" s="4">
-        <v>-317.3972807926871</v>
+        <v>-317.39728079268713</v>
       </c>
       <c r="L12" s="4">
         <v>-282.65671945208715</v>
       </c>
       <c r="M12" s="4">
-        <v>-320.5487513481145</v>
+        <v>-320.54875134811448</v>
       </c>
       <c r="N12" s="4">
         <v>-373.49866090534124</v>
@@ -8519,18 +8491,18 @@
         <v>-212.59365439027766</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="4">
-        <v>-7.419973534729596</v>
+        <v>-7.4199735347295963</v>
       </c>
       <c r="C13" s="4">
-        <v>-9.225925037525165</v>
+        <v>-9.2259250375251654</v>
       </c>
       <c r="D13" s="4">
-        <v>-9.961957720703385</v>
+        <v>-9.9619577207033849</v>
       </c>
       <c r="E13" s="4">
         <v>-10.212446113272584</v>
@@ -8566,10 +8538,10 @@
         <v>-21.896133548917994</v>
       </c>
       <c r="P13" s="4">
-        <v>-22.3880820925077</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>-22.388082092507702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
@@ -8586,40 +8558,40 @@
         <v>318.6966879264474</v>
       </c>
       <c r="F14" s="4">
-        <v>373.1029452017075</v>
+        <v>373.10294520170748</v>
       </c>
       <c r="G14" s="4">
-        <v>390.3927955314222</v>
+        <v>390.39279553142222</v>
       </c>
       <c r="H14" s="4">
-        <v>417.2102153417861</v>
+        <v>417.21021534178612</v>
       </c>
       <c r="I14" s="4">
-        <v>428.0151861313583</v>
+        <v>428.01518613135829</v>
       </c>
       <c r="J14" s="4">
-        <v>378.7442668116902</v>
+        <v>378.74426681169018</v>
       </c>
       <c r="K14" s="4">
         <v>496.88203576984847</v>
       </c>
       <c r="L14" s="4">
-        <v>531.5661274913772</v>
+        <v>531.56612749137719</v>
       </c>
       <c r="M14" s="4">
-        <v>685.8404691636832</v>
+        <v>685.84046916368322</v>
       </c>
       <c r="N14" s="4">
-        <v>577.8268853198408</v>
+        <v>577.82688531984081</v>
       </c>
       <c r="O14" s="4">
-        <v>633.8151961050135</v>
+        <v>633.81519610501346</v>
       </c>
       <c r="P14" s="4">
-        <v>697.3851992472988</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>697.38519924729883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>31</v>
       </c>
@@ -8627,16 +8599,16 @@
         <v>55.5685084336233</v>
       </c>
       <c r="C15" s="4">
-        <v>81.83760811207432</v>
+        <v>81.837608112074321</v>
       </c>
       <c r="D15" s="4">
         <v>30.512993891647678</v>
       </c>
       <c r="E15" s="4">
-        <v>39.77809675641352</v>
+        <v>39.778096756413518</v>
       </c>
       <c r="F15" s="4">
-        <v>41.08741987662349</v>
+        <v>41.087419876623493</v>
       </c>
       <c r="G15" s="4">
         <v>44.205811999999995</v>
@@ -8648,7 +8620,7 @@
         <v>29.856529778386516</v>
       </c>
       <c r="J15" s="4">
-        <v>55.03819995765283</v>
+        <v>55.038199957652829</v>
       </c>
       <c r="K15" s="4">
         <v>100.30786088927701</v>
@@ -8660,16 +8632,16 @@
         <v>125.65479784339628</v>
       </c>
       <c r="N15" s="4">
-        <v>86.4183816460731</v>
+        <v>86.418381646073101</v>
       </c>
       <c r="O15" s="4">
         <v>103.45767382827697</v>
       </c>
       <c r="P15" s="4">
-        <v>22.197317</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>22.197317000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
@@ -8680,7 +8652,7 @@
         <v>58.37773967708037</v>
       </c>
       <c r="D16" s="4">
-        <v>8.774118630037687</v>
+        <v>8.7741186300376874</v>
       </c>
       <c r="E16" s="4">
         <v>5.23</v>
@@ -8704,22 +8676,22 @@
         <v>50.353996218114816</v>
       </c>
       <c r="L16" s="4">
-        <v>65.48261962990159</v>
+        <v>65.482619629901592</v>
       </c>
       <c r="M16" s="4">
-        <v>85.22479225587088</v>
+        <v>85.224792255870881</v>
       </c>
       <c r="N16" s="4">
-        <v>72.87927964512178</v>
+        <v>72.879279645121784</v>
       </c>
       <c r="O16" s="4">
-        <v>82.67083582827696</v>
+        <v>82.670835828276964</v>
       </c>
       <c r="P16" s="4">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
@@ -8733,10 +8705,10 @@
         <v>168.3686626933594</v>
       </c>
       <c r="E17" s="4">
-        <v>278.9185911700339</v>
+        <v>278.91859117003389</v>
       </c>
       <c r="F17" s="4">
-        <v>332.015525325084</v>
+        <v>332.01552532508401</v>
       </c>
       <c r="G17" s="4">
         <v>346.18698353142224</v>
@@ -8745,36 +8717,36 @@
         <v>372.7278553417861</v>
       </c>
       <c r="I17" s="4">
-        <v>398.1586563529718</v>
+        <v>398.15865635297178</v>
       </c>
       <c r="J17" s="4">
-        <v>323.7060668540374</v>
+        <v>323.70606685403737</v>
       </c>
       <c r="K17" s="4">
-        <v>396.5741748805715</v>
+        <v>396.57417488057149</v>
       </c>
       <c r="L17" s="4">
-        <v>425.8928216059729</v>
+        <v>425.89282160597293</v>
       </c>
       <c r="M17" s="4">
-        <v>560.1856713202869</v>
+        <v>560.18567132028693</v>
       </c>
       <c r="N17" s="4">
         <v>491.40850367376765</v>
       </c>
       <c r="O17" s="4">
-        <v>530.3575222767365</v>
+        <v>530.35752227673652</v>
       </c>
       <c r="P17" s="4">
-        <v>675.1878822472988</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>675.18788224729883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="4">
-        <v>766.3486480300513</v>
+        <v>766.34864803005132</v>
       </c>
       <c r="C18" s="4">
         <v>1177.2203538471094</v>
@@ -8783,16 +8755,16 @@
         <v>1048.2889474314784</v>
       </c>
       <c r="E18" s="4">
-        <v>619.3782831905903</v>
+        <v>619.37828319059031</v>
       </c>
       <c r="F18" s="4">
-        <v>548.9295425793275</v>
+        <v>548.92954257932752</v>
       </c>
       <c r="G18" s="4">
-        <v>462.4767511281979</v>
+        <v>462.47675112819792</v>
       </c>
       <c r="H18" s="4">
-        <v>271.9664431337109</v>
+        <v>271.96644313371092</v>
       </c>
       <c r="I18" s="4">
         <v>130.65511322039103</v>
@@ -8813,13 +8785,13 @@
         <v>191.63095548288499</v>
       </c>
       <c r="O18" s="4">
-        <v>288.1655145095272</v>
+        <v>288.16551450952721</v>
       </c>
       <c r="P18" s="4">
-        <v>719.8111121383342</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>719.81111213833424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>35</v>
       </c>
@@ -8839,10 +8811,10 @@
         <v>116.2853130345913</v>
       </c>
       <c r="G19" s="4">
-        <v>78.08669914026014</v>
+        <v>78.086699140260137</v>
       </c>
       <c r="H19" s="4">
-        <v>88.12564734338889</v>
+        <v>88.125647343388891</v>
       </c>
       <c r="I19" s="4">
         <v>104.06315380343506</v>
@@ -8860,16 +8832,16 @@
         <v>170.60753852196072</v>
       </c>
       <c r="N19" s="4">
-        <v>243.3279894235282</v>
+        <v>243.32798942352821</v>
       </c>
       <c r="O19" s="4">
         <v>153.32699539321447</v>
       </c>
       <c r="P19" s="4">
-        <v>67.93687140994791</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>67.936871409947912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
@@ -8889,10 +8861,10 @@
         <v>116.2853130345913</v>
       </c>
       <c r="G20" s="4">
-        <v>78.08669914026014</v>
+        <v>78.086699140260137</v>
       </c>
       <c r="H20" s="4">
-        <v>88.12564734338889</v>
+        <v>88.125647343388891</v>
       </c>
       <c r="I20" s="4">
         <v>104.06315380343506</v>
@@ -8910,16 +8882,16 @@
         <v>170.60753852196072</v>
       </c>
       <c r="N20" s="4">
-        <v>243.3279894235282</v>
+        <v>243.32798942352821</v>
       </c>
       <c r="O20" s="4">
         <v>153.32699539321447</v>
       </c>
       <c r="P20" s="4">
-        <v>67.93687140994791</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>67.936871409947912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>37</v>
       </c>
@@ -8969,24 +8941,24 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="4">
-        <v>588.0919374643929</v>
+        <v>588.09193746439291</v>
       </c>
       <c r="C22" s="4">
         <v>1020.7417127148244</v>
       </c>
       <c r="D22" s="4">
-        <v>999.2886728931945</v>
+        <v>999.28867289319453</v>
       </c>
       <c r="E22" s="4">
-        <v>570.2445350311496</v>
+        <v>570.24453503114955</v>
       </c>
       <c r="F22" s="4">
-        <v>432.6442295447363</v>
+        <v>432.64422954473628</v>
       </c>
       <c r="G22" s="4">
         <v>384.3900519879378</v>
@@ -8998,7 +8970,7 @@
         <v>26.591959416955973</v>
       </c>
       <c r="J22" s="4">
-        <v>75.98157383852256</v>
+        <v>75.981573838522564</v>
       </c>
       <c r="K22" s="4">
         <v>-3.6415626007168385</v>
@@ -9010,16 +8982,16 @@
         <v>-13.582264748705768</v>
       </c>
       <c r="N22" s="4">
-        <v>-51.69703394064322</v>
+        <v>-51.697033940643223</v>
       </c>
       <c r="O22" s="4">
         <v>134.83851911631274</v>
       </c>
       <c r="P22" s="4">
-        <v>651.8742407283863</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>651.87424072838633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>39</v>
       </c>
@@ -9027,13 +8999,13 @@
         <v>486.52398492047735</v>
       </c>
       <c r="C23" s="4">
-        <v>687.7935234457275</v>
+        <v>687.79352344572749</v>
       </c>
       <c r="D23" s="4">
-        <v>835.1037417608932</v>
+        <v>835.10374176089317</v>
       </c>
       <c r="E23" s="4">
-        <v>502.0985685456112</v>
+        <v>502.09856854561122</v>
       </c>
       <c r="F23" s="4">
         <v>489.11219018391154</v>
@@ -9045,22 +9017,22 @@
         <v>362.79134668027694</v>
       </c>
       <c r="I23" s="4">
-        <v>220.8005425927168</v>
+        <v>220.80054259271679</v>
       </c>
       <c r="J23" s="4">
         <v>176.14537285775262</v>
       </c>
       <c r="K23" s="4">
-        <v>324.9102922935234</v>
+        <v>324.91029229352341</v>
       </c>
       <c r="L23" s="4">
         <v>257.96982129919724</v>
       </c>
       <c r="M23" s="4">
-        <v>350.7396352846363</v>
+        <v>350.73963528463628</v>
       </c>
       <c r="N23" s="4">
-        <v>270.1403281088727</v>
+        <v>270.14032810887272</v>
       </c>
       <c r="O23" s="4">
         <v>172.09767242936482</v>
@@ -9069,7 +9041,7 @@
         <v>171.235848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
@@ -9086,7 +9058,7 @@
         <v>1.207569685311634</v>
       </c>
       <c r="F24" s="4">
-        <v>0.003339690046626063</v>
+        <v>3.339690046626063E-3</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
@@ -9095,19 +9067,19 @@
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <v>-0.8092294336524671</v>
+        <v>-0.80922943365246713</v>
       </c>
       <c r="J24" s="4">
         <v>-13.908210268272148</v>
       </c>
       <c r="K24" s="4">
-        <v>-0.678642</v>
+        <v>-0.67864199999999997</v>
       </c>
       <c r="L24" s="4">
         <v>0.12493100000000003</v>
       </c>
       <c r="M24" s="4">
-        <v>-0.004107</v>
+        <v>-4.1070000000000004E-3</v>
       </c>
       <c r="N24" s="4">
         <v>0</v>
@@ -9119,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>41</v>
       </c>
@@ -9127,13 +9099,13 @@
         <v>101.56795254391552</v>
       </c>
       <c r="C25" s="4">
-        <v>332.7748650174598</v>
+        <v>332.77486501745977</v>
       </c>
       <c r="D25" s="4">
         <v>164.18493113230136</v>
       </c>
       <c r="E25" s="4">
-        <v>66.93839680022677</v>
+        <v>66.938396800226769</v>
       </c>
       <c r="F25" s="4">
         <v>-56.47130032922189</v>
@@ -9142,16 +9114,16 @@
         <v>-123.3273140120622</v>
       </c>
       <c r="H25" s="4">
-        <v>-178.9505508899549</v>
+        <v>-178.95055088995491</v>
       </c>
       <c r="I25" s="4">
         <v>-193.39935374210836</v>
       </c>
       <c r="J25" s="4">
-        <v>-86.25558875095791</v>
+        <v>-86.255588750957912</v>
       </c>
       <c r="K25" s="4">
-        <v>-327.8732128942402</v>
+        <v>-327.87321289424023</v>
       </c>
       <c r="L25" s="4">
         <v>-215.464049364142</v>
@@ -9163,13 +9135,13 @@
         <v>-321.83736204951595</v>
       </c>
       <c r="O25" s="4">
-        <v>-37.25915331305209</v>
+        <v>-37.259153313052089</v>
       </c>
       <c r="P25" s="4">
         <v>480.63839272838635</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>42</v>
       </c>
@@ -9183,22 +9155,22 @@
         <v>39.65566580850296</v>
       </c>
       <c r="E26" s="4">
-        <v>41.15269544062251</v>
+        <v>41.152695440622509</v>
       </c>
       <c r="F26" s="4">
         <v>30.038278123224508</v>
       </c>
       <c r="G26" s="4">
-        <v>28.93442671707387</v>
+        <v>28.934426717073869</v>
       </c>
       <c r="H26" s="4">
-        <v>69.63866362219149</v>
+        <v>69.638663622191487</v>
       </c>
       <c r="I26" s="4">
-        <v>52.340631067964</v>
+        <v>52.340631067963997</v>
       </c>
       <c r="J26" s="4">
-        <v>150.5681673060859</v>
+        <v>150.56816730608591</v>
       </c>
       <c r="K26" s="4">
         <v>48.870360032688865</v>
@@ -9219,7 +9191,7 @@
         <v>240.06763854163438</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>43</v>
       </c>
@@ -9236,22 +9208,22 @@
         <v>60.11191271576611</v>
       </c>
       <c r="F27" s="4">
-        <v>56.99411000654583</v>
+        <v>56.994110006545831</v>
       </c>
       <c r="G27" s="4">
-        <v>50.07447185662341</v>
+        <v>50.074471856623411</v>
       </c>
       <c r="H27" s="4">
-        <v>88.50339358665303</v>
+        <v>88.503393586653033</v>
       </c>
       <c r="I27" s="4">
-        <v>88.33515056405417</v>
+        <v>88.335150564054175</v>
       </c>
       <c r="J27" s="4">
         <v>178.71156198425533</v>
       </c>
       <c r="K27" s="4">
-        <v>99.32548004923997</v>
+        <v>99.325480049239971</v>
       </c>
       <c r="L27" s="4">
         <v>174.08657656604163</v>
@@ -9263,13 +9235,13 @@
         <v>181.90058418933046</v>
       </c>
       <c r="O27" s="4">
-        <v>216.2021969145237</v>
+        <v>216.20219691452371</v>
       </c>
       <c r="P27" s="4">
-        <v>307.0132138344431</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+        <v>307.01321383444309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>44</v>
       </c>
@@ -9277,7 +9249,7 @@
         <v>125.88372999999999</v>
       </c>
       <c r="C28" s="4">
-        <v>189.72526</v>
+        <v>189.72525999999999</v>
       </c>
       <c r="D28" s="4">
         <v>64.11952445675459</v>
@@ -9286,28 +9258,28 @@
         <v>60.11191271576611</v>
       </c>
       <c r="F28" s="4">
-        <v>56.99411000654583</v>
+        <v>56.994110006545831</v>
       </c>
       <c r="G28" s="4">
-        <v>50.07447185662341</v>
+        <v>50.074471856623411</v>
       </c>
       <c r="H28" s="4">
-        <v>88.50339358665303</v>
+        <v>88.503393586653033</v>
       </c>
       <c r="I28" s="4">
-        <v>88.33515056405417</v>
+        <v>88.335150564054175</v>
       </c>
       <c r="J28" s="4">
-        <v>82.75800617322253</v>
+        <v>82.758006173222526</v>
       </c>
       <c r="K28" s="4">
-        <v>86.88981958834233</v>
+        <v>86.889819588342334</v>
       </c>
       <c r="L28" s="4">
         <v>118.85112998488277</v>
       </c>
       <c r="M28" s="4">
-        <v>167.4208293118743</v>
+        <v>167.42082931187429</v>
       </c>
       <c r="N28" s="4">
         <v>177.11231540107391</v>
@@ -9319,12 +9291,12 @@
         <v>206.16984261289167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="4">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="C29" s="4">
         <v>66.14</v>
@@ -9357,10 +9329,10 @@
         <v>55.23544658115884</v>
       </c>
       <c r="M29" s="4">
-        <v>37.06782149104893</v>
+        <v>37.067821491048932</v>
       </c>
       <c r="N29" s="4">
-        <v>4.788268788256533</v>
+        <v>4.7882687882565333</v>
       </c>
       <c r="O29" s="4">
         <v>14.561540783700188</v>
@@ -9369,21 +9341,21 @@
         <v>100.84337122155142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
-        <v>-9.77753511016818</v>
+        <v>-9.7775351101681807</v>
       </c>
       <c r="C30" s="4">
-        <v>-9.997494612671002</v>
+        <v>-9.9974946126710016</v>
       </c>
       <c r="D30" s="4">
         <v>-24.46385864825163</v>
       </c>
       <c r="E30" s="4">
-        <v>-18.9592172751436</v>
+        <v>-18.959217275143601</v>
       </c>
       <c r="F30" s="4">
         <v>-26.955831883321324</v>
@@ -9392,13 +9364,13 @@
         <v>-21.140045139549542</v>
       </c>
       <c r="H30" s="4">
-        <v>-18.86472996446155</v>
+        <v>-18.864729964461549</v>
       </c>
       <c r="I30" s="4">
-        <v>-35.99451949609018</v>
+        <v>-35.994519496090177</v>
       </c>
       <c r="J30" s="4">
-        <v>-28.14339467816942</v>
+        <v>-28.143394678169422</v>
       </c>
       <c r="K30" s="4">
         <v>-50.455120016551106</v>
@@ -9416,27 +9388,27 @@
         <v>-52.40963547597751</v>
       </c>
       <c r="P30" s="4">
-        <v>-66.9455752928087</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+        <v>-66.945575292808698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="4">
-        <v>44.51650614330054</v>
+        <v>44.516506143300539</v>
       </c>
       <c r="C31" s="4">
         <v>106.36243273282133</v>
       </c>
       <c r="D31" s="4">
-        <v>253.4160049946022</v>
+        <v>253.41600499460219</v>
       </c>
       <c r="E31" s="4">
         <v>-113.21104055589015</v>
       </c>
       <c r="F31" s="4">
-        <v>-84.11529096238945</v>
+        <v>-84.115290962389452</v>
       </c>
       <c r="G31" s="4">
         <v>-132.8452982118186</v>
@@ -9451,10 +9423,10 @@
         <v>-123.61767819574405</v>
       </c>
       <c r="K31" s="4">
-        <v>-147.41363724408</v>
+        <v>-147.41363724408001</v>
       </c>
       <c r="L31" s="4">
-        <v>-98.05665320014587</v>
+        <v>-98.056653200145874</v>
       </c>
       <c r="M31" s="4">
         <v>-155.60679258662398</v>
@@ -9469,15 +9441,15 @@
         <v>247.47315070032943</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="4">
-        <v>-3.173851158636051</v>
+        <v>-3.1738511586360509</v>
       </c>
       <c r="C32" s="4">
-        <v>0.7649418151491076</v>
+        <v>0.76494181514910764</v>
       </c>
       <c r="D32" s="4">
         <v>-11.300686996715498</v>
@@ -9501,30 +9473,30 @@
         <v>13.997281817661563</v>
       </c>
       <c r="K32" s="4">
-        <v>-5.09750026431951</v>
+        <v>-5.0975002643195104</v>
       </c>
       <c r="L32" s="4">
         <v>1.8222987773282426</v>
       </c>
       <c r="M32" s="4">
-        <v>44.38136510138295</v>
+        <v>44.381365101382947</v>
       </c>
       <c r="N32" s="4">
         <v>11.878740999364993</v>
       </c>
       <c r="O32" s="4">
-        <v>-94.51812278675705</v>
+        <v>-94.518122786757047</v>
       </c>
       <c r="P32" s="4">
-        <v>-7.501306407109951</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+        <v>-7.5013064071099507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="4">
-        <v>-92.68089733058078</v>
+        <v>-92.680897330580777</v>
       </c>
       <c r="C33" s="4">
         <v>-20.220274917839618</v>
@@ -9536,10 +9508,10 @@
         <v>168.92087751072293</v>
       </c>
       <c r="F33" s="4">
-        <v>-19.9535858836584</v>
+        <v>-19.953585883658398</v>
       </c>
       <c r="G33" s="4">
-        <v>-7.120438969060189</v>
+        <v>-7.1204389690601886</v>
       </c>
       <c r="H33" s="4">
         <v>-165.32403080346873</v>
@@ -9557,7 +9529,7 @@
         <v>-235.94047961847693</v>
       </c>
       <c r="M33" s="4">
-        <v>-407.4668320444416</v>
+        <v>-407.46683204444162</v>
       </c>
       <c r="N33" s="4">
         <v>-221.31050098055303</v>
@@ -9566,10 +9538,10 @@
         <v>16.12272361820623</v>
       </c>
       <c r="P33" s="4">
-        <v>0.5989098935325146</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+        <v>0.59890989353251456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>50</v>
       </c>
@@ -9577,7 +9549,7 @@
         <v>-38.369457232635796</v>
       </c>
       <c r="C34" s="4">
-        <v>7.698846432223945</v>
+        <v>7.6988464322239452</v>
       </c>
       <c r="D34" s="4">
         <v>26.668571250251716</v>
@@ -9589,37 +9561,37 @@
         <v>-27.919314827895846</v>
       </c>
       <c r="G34" s="4">
-        <v>-9.819313472382134</v>
+        <v>-9.8193134723821345</v>
       </c>
       <c r="H34" s="4">
         <v>-46.265132802113214</v>
       </c>
       <c r="I34" s="4">
-        <v>-40.28358226650411</v>
+        <v>-40.283582266504112</v>
       </c>
       <c r="J34" s="4">
-        <v>6.289816122079799</v>
+        <v>6.2898161220797988</v>
       </c>
       <c r="K34" s="4">
-        <v>-66.87271606546278</v>
+        <v>-66.872716065462782</v>
       </c>
       <c r="L34" s="4">
-        <v>4.559522675476188</v>
+        <v>4.5595226754761882</v>
       </c>
       <c r="M34" s="4">
         <v>-116.14061951783205</v>
       </c>
       <c r="N34" s="4">
-        <v>-43.90759422203831</v>
+        <v>-43.907594222038313</v>
       </c>
       <c r="O34" s="4">
-        <v>-9.646810012782566</v>
+        <v>-9.6468100127825664</v>
       </c>
       <c r="P34" s="4">
         <v>-26.289735956935374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>51</v>
       </c>
@@ -9627,22 +9599,22 @@
         <v>152.49985890944856</v>
       </c>
       <c r="C35" s="4">
-        <v>68.59969173450145</v>
+        <v>68.599691734501448</v>
       </c>
       <c r="D35" s="4">
         <v>-110.84639331248627</v>
       </c>
       <c r="E35" s="4">
-        <v>41.18837165087746</v>
+        <v>41.188371650877457</v>
       </c>
       <c r="F35" s="4">
-        <v>82.99857453025322</v>
+        <v>82.998574530253222</v>
       </c>
       <c r="G35" s="4">
         <v>-54.141979376988445</v>
       </c>
       <c r="H35" s="4">
-        <v>-174.5498867500787</v>
+        <v>-174.54988675007871</v>
       </c>
       <c r="I35" s="4">
         <v>14.746724655199671</v>
@@ -9660,57 +9632,57 @@
         <v>110.49088951229976</v>
       </c>
       <c r="N35" s="4">
-        <v>-85.89204099139931</v>
+        <v>-85.892040991399313</v>
       </c>
       <c r="O35" s="4">
         <v>-137.07191166193098</v>
       </c>
       <c r="P35" s="4">
-        <v>179.5193548463402</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+        <v>179.51935484634021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="4">
-        <v>-152.4998589094486</v>
+        <v>-152.49985890944859</v>
       </c>
       <c r="C36" s="4">
-        <v>-68.59969173450153</v>
+        <v>-68.599691734501533</v>
       </c>
       <c r="D36" s="4">
         <v>110.84639331248627</v>
       </c>
       <c r="E36" s="4">
-        <v>-41.18837165087753</v>
+        <v>-41.188371650877528</v>
       </c>
       <c r="F36" s="4">
-        <v>-82.99857453025321</v>
+        <v>-82.998574530253208</v>
       </c>
       <c r="G36" s="4">
-        <v>54.14197937698849</v>
+        <v>54.141979376988488</v>
       </c>
       <c r="H36" s="4">
-        <v>174.5498867500787</v>
+        <v>174.54988675007871</v>
       </c>
       <c r="I36" s="4">
         <v>-14.726724655199682</v>
       </c>
       <c r="J36" s="4">
-        <v>-48.62422984413529</v>
+        <v>-48.624229844135293</v>
       </c>
       <c r="K36" s="4">
         <v>-210.87894444261494</v>
       </c>
       <c r="L36" s="4">
-        <v>-168.73704660462</v>
+        <v>-168.73704660461999</v>
       </c>
       <c r="M36" s="4">
         <v>-110.49088951229976</v>
       </c>
       <c r="N36" s="4">
-        <v>85.89204099139931</v>
+        <v>85.892040991399313</v>
       </c>
       <c r="O36" s="4">
         <v>137.07191166193095</v>
@@ -9719,48 +9691,48 @@
         <v>-179.51935484634018</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="4">
-        <v>-152.4998589094486</v>
+        <v>-152.49985890944859</v>
       </c>
       <c r="C37" s="4">
-        <v>-68.59969173450153</v>
+        <v>-68.599691734501533</v>
       </c>
       <c r="D37" s="4">
         <v>110.84639331248627</v>
       </c>
       <c r="E37" s="4">
-        <v>-41.18837165087753</v>
+        <v>-41.188371650877528</v>
       </c>
       <c r="F37" s="4">
-        <v>-82.99857453025321</v>
+        <v>-82.998574530253208</v>
       </c>
       <c r="G37" s="4">
-        <v>54.14197937698849</v>
+        <v>54.141979376988488</v>
       </c>
       <c r="H37" s="4">
-        <v>174.5498867500787</v>
+        <v>174.54988675007871</v>
       </c>
       <c r="I37" s="4">
         <v>-14.726724655199682</v>
       </c>
       <c r="J37" s="4">
-        <v>-48.62422984413529</v>
+        <v>-48.624229844135293</v>
       </c>
       <c r="K37" s="4">
         <v>-210.87894444261494</v>
       </c>
       <c r="L37" s="4">
-        <v>-168.73704660462</v>
+        <v>-168.73704660461999</v>
       </c>
       <c r="M37" s="4">
         <v>-110.49088951229976</v>
       </c>
       <c r="N37" s="4">
-        <v>85.89204099139931</v>
+        <v>85.892040991399313</v>
       </c>
       <c r="O37" s="4">
         <v>130.97191166193096</v>
@@ -9769,12 +9741,12 @@
         <v>-194.89385984634018</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="4">
-        <v>7.872122523469587</v>
+        <v>7.8721225234695869</v>
       </c>
       <c r="C38" s="4">
         <v>36.830999999999996</v>
@@ -9786,22 +9758,22 @@
         <v>-1.2899999999999998</v>
       </c>
       <c r="F38" s="4">
-        <v>-2.26</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="G38" s="4">
         <v>-4.414733</v>
       </c>
       <c r="H38" s="4">
-        <v>-6.150441</v>
+        <v>-6.1504409999999998</v>
       </c>
       <c r="I38" s="4">
         <v>17.518817951102406</v>
       </c>
       <c r="J38" s="4">
-        <v>18.79495344989912</v>
+        <v>18.794953449899118</v>
       </c>
       <c r="K38" s="4">
-        <v>20.82851384509994</v>
+        <v>20.828513845099941</v>
       </c>
       <c r="L38" s="4">
         <v>83.54438618157748</v>
@@ -9810,7 +9782,7 @@
         <v>24.399314999999998</v>
       </c>
       <c r="N38" s="4">
-        <v>58.63801000000001</v>
+        <v>58.638010000000008</v>
       </c>
       <c r="O38" s="4">
         <v>274.90299999999996</v>
@@ -9819,7 +9791,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>55</v>
       </c>
@@ -9833,22 +9805,22 @@
         <v>111.29344031248627</v>
       </c>
       <c r="E39" s="4">
-        <v>-39.89837165087753</v>
+        <v>-39.898371650877529</v>
       </c>
       <c r="F39" s="4">
-        <v>-80.7385745302532</v>
+        <v>-80.738574530253203</v>
       </c>
       <c r="G39" s="4">
         <v>58.556712376988486</v>
       </c>
       <c r="H39" s="4">
-        <v>180.7003277500787</v>
+        <v>180.70032775007871</v>
       </c>
       <c r="I39" s="4">
-        <v>-32.24554260630209</v>
+        <v>-32.245542606302088</v>
       </c>
       <c r="J39" s="4">
-        <v>-67.41918329403441</v>
+        <v>-67.419183294034411</v>
       </c>
       <c r="K39" s="4">
         <v>-231.70745828771487</v>
@@ -9866,10 +9838,10 @@
         <v>-143.931088338069</v>
       </c>
       <c r="P39" s="4">
-        <v>-291.7938598463402</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+        <v>-291.79385984634018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>56</v>
       </c>
@@ -9919,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>57</v>
       </c>
@@ -9966,10 +9938,10 @@
         <v>6.1</v>
       </c>
       <c r="P41" s="4">
-        <v>15.374505</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+        <v>15.374504999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>58</v>
       </c>
@@ -10032,30 +10004,23 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="36.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>2007</v>
@@ -10103,12 +10068,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>840.6401</v>
+        <v>840.64009999999996</v>
       </c>
       <c r="C2" s="4">
         <v>936.3</v>
@@ -10117,7 +10082,7 @@
         <v>1007.6</v>
       </c>
       <c r="E2" s="4">
-        <v>1173.9</v>
+        <v>1173.9000000000001</v>
       </c>
       <c r="F2" s="4">
         <v>1477.5</v>
@@ -10132,7 +10097,7 @@
         <v>1825.5</v>
       </c>
       <c r="J2" s="4">
-        <v>2115.44112127207</v>
+        <v>2115.4411212720702</v>
       </c>
       <c r="K2" s="4">
         <v>2632.3</v>
@@ -10150,15 +10115,15 @@
         <v>3570.1785307295995</v>
       </c>
       <c r="P2" s="4">
-        <v>4117.128467955779</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>4117.1284679557793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>2462.8063</v>
+        <v>2462.8063000000002</v>
       </c>
       <c r="C3" s="4">
         <v>2789.6</v>
@@ -10185,16 +10150,16 @@
         <v>5386.8</v>
       </c>
       <c r="K3" s="4">
-        <v>6374.999999999999</v>
+        <v>6374.9999999999991</v>
       </c>
       <c r="L3" s="4">
-        <v>7506.800000000001</v>
+        <v>7506.8000000000011</v>
       </c>
       <c r="M3" s="4">
         <v>8407.6</v>
       </c>
       <c r="N3" s="4">
-        <v>9344.575111000782</v>
+        <v>9344.5751110007823</v>
       </c>
       <c r="O3" s="4">
         <v>10620.138750612143</v>
@@ -10203,21 +10168,21 @@
         <v>11801.940236152117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>3303.4025</v>
+        <v>3303.4025000000001</v>
       </c>
       <c r="C4" s="4">
-        <v>3726.187979</v>
+        <v>3726.1879789999998</v>
       </c>
       <c r="D4" s="4">
         <v>4102.5</v>
       </c>
       <c r="E4" s="4">
-        <v>4498.4</v>
+        <v>4498.3999999999996</v>
       </c>
       <c r="F4" s="4">
         <v>5237</v>
@@ -10232,10 +10197,10 @@
         <v>6549.3</v>
       </c>
       <c r="J4" s="4">
-        <v>7502.241121272071</v>
+        <v>7502.2411212720708</v>
       </c>
       <c r="K4" s="4">
-        <v>9007.3</v>
+        <v>9007.2999999999993</v>
       </c>
       <c r="L4" s="4">
         <v>10607.241111688312</v>
@@ -10253,7 +10218,7 @@
         <v>15919.068704107896</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -10261,7 +10226,7 @@
         <v>1901.1152000000002</v>
       </c>
       <c r="C5" s="4">
-        <v>2149.187979</v>
+        <v>2149.1879789999998</v>
       </c>
       <c r="D5" s="4">
         <v>1982.9000000000003</v>
@@ -10273,13 +10238,13 @@
         <v>2692.1000000000004</v>
       </c>
       <c r="G5" s="4">
-        <v>2593.7</v>
+        <v>2593.6999999999998</v>
       </c>
       <c r="H5" s="4">
         <v>1839.8999999999994</v>
       </c>
       <c r="I5" s="4">
-        <v>2151.8</v>
+        <v>2151.8000000000002</v>
       </c>
       <c r="J5" s="4">
         <v>2609.9411212720715</v>
@@ -10288,39 +10253,39 @@
         <v>3584.0000000000005</v>
       </c>
       <c r="L5" s="4">
-        <v>4416.341111688311</v>
+        <v>4416.3411116883108</v>
       </c>
       <c r="M5" s="4">
-        <v>4927.099999999999</v>
+        <v>4927.0999999999995</v>
       </c>
       <c r="N5" s="4">
-        <v>4614.205733083074</v>
+        <v>4614.2057330830739</v>
       </c>
       <c r="O5" s="4">
-        <v>4876.326589189261</v>
+        <v>4876.3265891892606</v>
       </c>
       <c r="P5" s="4">
-        <v>5018.149020490107</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>5018.1490204901074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>1398.853</v>
+        <v>1398.8530000000001</v>
       </c>
       <c r="C6" s="4">
         <v>1634.857317</v>
       </c>
       <c r="D6" s="4">
-        <v>1400.291151</v>
+        <v>1400.2911509999999</v>
       </c>
       <c r="E6" s="4">
-        <v>1644.013804</v>
+        <v>1644.0138039999999</v>
       </c>
       <c r="F6" s="4">
-        <v>1996.288284144628</v>
+        <v>1996.2882841446281</v>
       </c>
       <c r="G6" s="4">
         <v>1842.8921052631576</v>
@@ -10335,75 +10300,75 @@
         <v>1762.9212375423647</v>
       </c>
       <c r="K6" s="4">
-        <v>2705.946920380571</v>
+        <v>2705.9469203805711</v>
       </c>
       <c r="L6" s="4">
-        <v>3526.556675324675</v>
+        <v>3526.5566753246749</v>
       </c>
       <c r="M6" s="4">
         <v>4207.6923918351395</v>
       </c>
       <c r="N6" s="4">
-        <v>3925.02704442352</v>
+        <v>3925.0270444235198</v>
       </c>
       <c r="O6" s="4">
         <v>3597.2713283473604</v>
       </c>
       <c r="P6" s="4">
-        <v>3690.84989649986</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>3690.8498964998598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>502.2622</v>
+        <v>502.26220000000001</v>
       </c>
       <c r="C7" s="4">
-        <v>514.330662</v>
+        <v>514.33066199999996</v>
       </c>
       <c r="D7" s="4">
-        <v>582.6088490000004</v>
+        <v>582.60884900000042</v>
       </c>
       <c r="E7" s="4">
-        <v>726.2861959999997</v>
+        <v>726.28619599999968</v>
       </c>
       <c r="F7" s="4">
-        <v>695.8117158553725</v>
+        <v>695.81171585537254</v>
       </c>
       <c r="G7" s="4">
-        <v>750.807894736842</v>
+        <v>750.80789473684194</v>
       </c>
       <c r="H7" s="4">
-        <v>620.9677183098586</v>
+        <v>620.96771830985858</v>
       </c>
       <c r="I7" s="4">
-        <v>770.0584965034964</v>
+        <v>770.05849650349637</v>
       </c>
       <c r="J7" s="4">
-        <v>847.0198837297067</v>
+        <v>847.01988372970675</v>
       </c>
       <c r="K7" s="4">
-        <v>878.0530796194292</v>
+        <v>878.05307961942924</v>
       </c>
       <c r="L7" s="4">
-        <v>889.7844363636364</v>
+        <v>889.78443636363636</v>
       </c>
       <c r="M7" s="4">
-        <v>719.4076081648597</v>
+        <v>719.40760816485965</v>
       </c>
       <c r="N7" s="4">
-        <v>689.1786886595539</v>
+        <v>689.17868865955393</v>
       </c>
       <c r="O7" s="4">
         <v>1279.0552608419005</v>
       </c>
       <c r="P7" s="4">
-        <v>1327.299123990248</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>1327.2991239902481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -10432,33 +10397,33 @@
         <v>4397.5</v>
       </c>
       <c r="J8" s="4">
-        <v>4892.299999999999</v>
+        <v>4892.2999999999993</v>
       </c>
       <c r="K8" s="4">
-        <v>5423.299999999999</v>
+        <v>5423.2999999999993</v>
       </c>
       <c r="L8" s="4">
-        <v>6190.900000000001</v>
+        <v>6190.9000000000005</v>
       </c>
       <c r="M8" s="4">
         <v>6896.6</v>
       </c>
       <c r="N8" s="4">
-        <v>8045.123372065707</v>
+        <v>8045.1233720657074</v>
       </c>
       <c r="O8" s="4">
-        <v>9313.990692152482</v>
+        <v>9313.9906921524816</v>
       </c>
       <c r="P8" s="4">
         <v>10900.919683617789</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>1535.6072</v>
+        <v>1535.6071999999999</v>
       </c>
       <c r="C9" s="4">
         <v>1680.4</v>
@@ -10485,7 +10450,7 @@
         <v>5558.4</v>
       </c>
       <c r="K9" s="4">
-        <v>6174.299999999999</v>
+        <v>6174.2999999999993</v>
       </c>
       <c r="L9" s="4">
         <v>7000.6</v>
@@ -10503,30 +10468,30 @@
         <v>12411.332246946868</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>131.9561</v>
+        <v>131.95609999999999</v>
       </c>
       <c r="C10" s="4">
         <v>-137</v>
       </c>
       <c r="D10" s="4">
-        <v>159.3</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="E10" s="4">
-        <v>-61.70000000000002</v>
+        <v>-61.700000000000017</v>
       </c>
       <c r="F10" s="4">
-        <v>259.6</v>
+        <v>259.60000000000002</v>
       </c>
       <c r="G10" s="4">
-        <v>604.3000000000001</v>
+        <v>604.30000000000007</v>
       </c>
       <c r="H10" s="4">
-        <v>1118.6</v>
+        <v>1118.5999999999999</v>
       </c>
       <c r="I10" s="4">
         <v>1232</v>
@@ -10541,7 +10506,7 @@
         <v>2093.1</v>
       </c>
       <c r="M10" s="4">
-        <v>2099.2</v>
+        <v>2099.1999999999998</v>
       </c>
       <c r="N10" s="4">
         <v>2074.1867237183733</v>
@@ -10550,15 +10515,15 @@
         <v>2893.0396145842315</v>
       </c>
       <c r="P10" s="4">
-        <v>3072.24221639747</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>3072.2422163974702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>-31.132</v>
+        <v>-31.132000000000001</v>
       </c>
       <c r="C11" s="4">
         <v>-293.7</v>
@@ -10579,7 +10544,7 @@
         <v>860.7</v>
       </c>
       <c r="I11" s="4">
-        <v>977.6999999999999</v>
+        <v>977.69999999999993</v>
       </c>
       <c r="J11" s="4">
         <v>1447.3</v>
@@ -10603,7 +10568,7 @@
         <v>2838.0543901434903</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -10629,13 +10594,13 @@
         <v>429.6</v>
       </c>
       <c r="I12" s="4">
-        <v>651.8</v>
+        <v>651.79999999999995</v>
       </c>
       <c r="J12" s="4">
         <v>1049.3</v>
       </c>
       <c r="K12" s="4">
-        <v>1028.4</v>
+        <v>1028.4000000000001</v>
       </c>
       <c r="L12" s="4">
         <v>886</v>
@@ -10644,24 +10609,24 @@
         <v>947.5</v>
       </c>
       <c r="N12" s="4">
-        <v>756.6325572151501</v>
+        <v>756.63255721515009</v>
       </c>
       <c r="O12" s="4">
-        <v>1043.6757553417</v>
+        <v>1043.6757553417001</v>
       </c>
       <c r="P12" s="4">
         <v>1271.1285374722502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>31.502</v>
+        <v>31.501999999999999</v>
       </c>
       <c r="C13" s="4">
-        <v>-152.7</v>
+        <v>-152.69999999999999</v>
       </c>
       <c r="D13" s="4">
         <v>-4.3</v>
@@ -10673,13 +10638,13 @@
         <v>89.2</v>
       </c>
       <c r="G13" s="4">
-        <v>262.1</v>
+        <v>262.10000000000002</v>
       </c>
       <c r="H13" s="4">
         <v>431.1</v>
       </c>
       <c r="I13" s="4">
-        <v>325.9</v>
+        <v>325.89999999999998</v>
       </c>
       <c r="J13" s="4">
         <v>398</v>
@@ -10700,10 +10665,10 @@
         <v>1564.7767303966614</v>
       </c>
       <c r="P13" s="4">
-        <v>1566.92585267124</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>1566.9258526712399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -10711,7 +10676,7 @@
         <v>163.0881</v>
       </c>
       <c r="C14" s="4">
-        <v>156.7</v>
+        <v>156.69999999999999</v>
       </c>
       <c r="D14" s="4">
         <v>148.9</v>
@@ -10726,7 +10691,7 @@
         <v>183.6</v>
       </c>
       <c r="H14" s="4">
-        <v>257.9</v>
+        <v>257.89999999999998</v>
       </c>
       <c r="I14" s="4">
         <v>254.3</v>
@@ -10753,7 +10718,7 @@
         <v>234.18782625398006</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -10773,7 +10738,7 @@
         <v>2314.7999999999997</v>
       </c>
       <c r="G15" s="4">
-        <v>2440.3</v>
+        <v>2440.3000000000002</v>
       </c>
       <c r="H15" s="4">
         <v>2824.1</v>
@@ -10785,7 +10750,7 @@
         <v>3862.9</v>
       </c>
       <c r="K15" s="4">
-        <v>4181.599999999999</v>
+        <v>4181.5999999999995</v>
       </c>
       <c r="L15" s="4">
         <v>4907.5</v>
@@ -10794,21 +10759,21 @@
         <v>5836</v>
       </c>
       <c r="N15" s="4">
-        <v>7050.635040386612</v>
+        <v>7050.6350403866118</v>
       </c>
       <c r="O15" s="4">
         <v>7792.2660756910755</v>
       </c>
       <c r="P15" s="4">
-        <v>9339.090030549398</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>9339.0900305493979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>4.6973</v>
+        <v>4.6973000000000003</v>
       </c>
       <c r="C16" s="4">
         <v>5</v>
@@ -10829,7 +10794,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J16" s="4">
         <v>5.9</v>
@@ -10841,7 +10806,7 @@
         <v>15.4</v>
       </c>
       <c r="M16" s="4">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="N16" s="4">
         <v>22.58361831213</v>
@@ -10850,15 +10815,15 @@
         <v>26.217227620679992</v>
       </c>
       <c r="P16" s="4">
-        <v>28.36414883382995</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>28.364148833829951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>1.2022</v>
+        <v>1.2021999999999999</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
@@ -10873,7 +10838,7 @@
         <v>99.4</v>
       </c>
       <c r="G17" s="4">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="H17" s="4">
         <v>22.5</v>
@@ -10903,12 +10868,12 @@
         <v>180.021605502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>1397.7516</v>
+        <v>1397.7516000000001</v>
       </c>
       <c r="C18" s="4">
         <v>1796.4</v>
@@ -10917,7 +10882,7 @@
         <v>1926.2</v>
       </c>
       <c r="E18" s="4">
-        <v>2133.7</v>
+        <v>2133.6999999999998</v>
       </c>
       <c r="F18" s="4">
         <v>2207.6</v>
@@ -10935,7 +10900,7 @@
         <v>3809.5</v>
       </c>
       <c r="K18" s="4">
-        <v>4160.9</v>
+        <v>4160.8999999999996</v>
       </c>
       <c r="L18" s="4">
         <v>4804.5</v>
@@ -10947,18 +10912,18 @@
         <v>6677.7887927194815</v>
       </c>
       <c r="O18" s="4">
-        <v>7634.943845927395</v>
+        <v>7634.9438459273952</v>
       </c>
       <c r="P18" s="4">
-        <v>9130.704276213568</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>9130.7042762135679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>-133.3199</v>
+        <v>-133.31989999999999</v>
       </c>
       <c r="C19" s="4">
         <v>-103.4</v>
@@ -10991,7 +10956,7 @@
         <v>-809.7</v>
       </c>
       <c r="M19" s="4">
-        <v>-1038.6</v>
+        <v>-1038.5999999999999</v>
       </c>
       <c r="N19" s="4">
         <v>-1079.6983920392772</v>

--- a/datamacro/data.xlsx
+++ b/datamacro/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="pibn" sheetId="1" r:id="rId1"/>
@@ -17,19 +17,19 @@
     <sheet name="ogt" sheetId="3" r:id="rId3"/>
     <sheet name="bop" sheetId="4" r:id="rId4"/>
     <sheet name="mon" sheetId="5" r:id="rId5"/>
+    <sheet name="interet" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">bop!$A$1:$P$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">mon!$A$1:$P$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ogt!$A$1:$P$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">pibr!$A$1:$P$42</definedName>
   </definedNames>
-  <calcPr calcId="3025149972"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="191">
   <si>
     <t>SM_Circulation fiduciaire</t>
   </si>
@@ -457,7 +457,7 @@
     <t>CNR_Dépenses de consommation finale</t>
   </si>
   <si>
-    <t xml:space="preserve">CNR_Dépenses de consommation finale des Administrations </t>
+    <t>CNR_Dépenses_consommation_finale_Administrations</t>
   </si>
   <si>
     <t xml:space="preserve">CNR_Dépenses de consommation finale des Ménages </t>
@@ -596,17 +596,22 @@
   </si>
   <si>
     <t>CNN_Importations de bsnf</t>
+  </si>
+  <si>
+    <t>interetr</t>
+  </si>
+  <si>
+    <t>interetn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,12 +622,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
-      <name val="Candara"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Candara"/>
       <family val="2"/>
     </font>
@@ -692,41 +691,45 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="7" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="7" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="7" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,20 +1035,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="16" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
+      <c r="A1" s="10"/>
       <c r="B1" s="2">
         <v>2007</v>
       </c>
@@ -1093,7 +1096,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>150</v>
       </c>
       <c r="B2" s="4">
@@ -1143,7 +1146,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B3" s="4">
@@ -1193,7 +1196,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="4">
@@ -1243,7 +1246,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>153</v>
       </c>
       <c r="B5" s="4">
@@ -1293,7 +1296,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="4">
@@ -1343,7 +1346,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>155</v>
       </c>
       <c r="B7" s="4">
@@ -1393,7 +1396,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>156</v>
       </c>
       <c r="B8" s="4">
@@ -1443,7 +1446,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="4">
@@ -1493,7 +1496,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="4">
@@ -1543,7 +1546,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="4">
@@ -1593,7 +1596,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>160</v>
       </c>
       <c r="B12" s="4">
@@ -1643,7 +1646,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B13" s="4">
@@ -1693,7 +1696,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>162</v>
       </c>
       <c r="B14" s="4">
@@ -1743,7 +1746,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>163</v>
       </c>
       <c r="B15" s="4">
@@ -1793,7 +1796,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>164</v>
       </c>
       <c r="B16" s="4">
@@ -1843,7 +1846,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>165</v>
       </c>
       <c r="B17" s="4">
@@ -1893,7 +1896,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>166</v>
       </c>
       <c r="B18" s="4">
@@ -1943,7 +1946,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>167</v>
       </c>
       <c r="B19" s="4">
@@ -1993,7 +1996,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>168</v>
       </c>
       <c r="B20" s="4">
@@ -2043,7 +2046,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>169</v>
       </c>
       <c r="B21" s="4">
@@ -2093,7 +2096,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>170</v>
       </c>
       <c r="B22" s="4">
@@ -2143,7 +2146,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>171</v>
       </c>
       <c r="B23" s="4">
@@ -2193,7 +2196,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>172</v>
       </c>
       <c r="B24" s="4">
@@ -2243,7 +2246,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>173</v>
       </c>
       <c r="B25" s="4">
@@ -2293,7 +2296,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>174</v>
       </c>
       <c r="B26" s="4">
@@ -2343,7 +2346,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>175</v>
       </c>
       <c r="B27" s="4">
@@ -2393,7 +2396,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>176</v>
       </c>
       <c r="B28" s="4">
@@ -2443,7 +2446,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>177</v>
       </c>
       <c r="B29" s="4">
@@ -2493,7 +2496,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>178</v>
       </c>
       <c r="B30" s="4">
@@ -2543,11 +2546,11 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>179</v>
       </c>
       <c r="B31" s="4">
-        <v>15974.088179613684</v>
+        <v>15974.088179613685</v>
       </c>
       <c r="C31" s="4">
         <v>18322.512467039596</v>
@@ -2571,7 +2574,7 @@
         <v>30240.583633164639</v>
       </c>
       <c r="J31" s="4">
-        <v>33216.175581725132</v>
+        <v>33216.175581725125</v>
       </c>
       <c r="K31" s="4">
         <v>37637.58599549206</v>
@@ -2593,502 +2596,452 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>179</v>
+      <c r="A32" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="B32" s="4">
-        <v>15974.088179613685</v>
+        <v>14439.755929063798</v>
       </c>
       <c r="C32" s="4">
-        <v>18322.512467039596</v>
+        <v>15729.707704735358</v>
       </c>
       <c r="D32" s="4">
-        <v>18812.59559556243</v>
+        <v>16886.696907407098</v>
       </c>
       <c r="E32" s="4">
-        <v>20863.367561085586</v>
+        <v>19315.010404396835</v>
       </c>
       <c r="F32" s="4">
-        <v>23393.792064529418</v>
+        <v>21789.913775083463</v>
       </c>
       <c r="G32" s="4">
-        <v>25415.464299223342</v>
+        <v>23935.972436623611</v>
       </c>
       <c r="H32" s="4">
-        <v>27417.720538512211</v>
+        <v>27075.249083932416</v>
       </c>
       <c r="I32" s="4">
-        <v>30240.583633164639</v>
+        <v>28554.246984933845</v>
       </c>
       <c r="J32" s="4">
-        <v>33216.175581725125</v>
+        <v>31101.586477133867</v>
       </c>
       <c r="K32" s="4">
-        <v>37637.58599549206</v>
+        <v>34463.947149780055</v>
       </c>
       <c r="L32" s="4">
-        <v>41058.842551971553</v>
+        <v>38263.926571096286</v>
       </c>
       <c r="M32" s="4">
-        <v>45886.302016670073</v>
+        <v>41975.915611894008</v>
       </c>
       <c r="N32" s="4">
-        <v>51035.216506307064</v>
+        <v>46695.324648343376</v>
       </c>
       <c r="O32" s="4">
-        <v>49435.649383377378</v>
+        <v>50435.383954378289</v>
       </c>
       <c r="P32" s="4">
-        <v>55744.385863697316</v>
+        <v>55498.232539387594</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>180</v>
+      <c r="A33" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="B33" s="4">
-        <v>14439.755929063798</v>
+        <v>3039.7154022535533</v>
       </c>
       <c r="C33" s="4">
-        <v>15729.707704735358</v>
+        <v>2579.2558856938931</v>
       </c>
       <c r="D33" s="4">
-        <v>16886.696907407098</v>
+        <v>2353.1987240267472</v>
       </c>
       <c r="E33" s="4">
-        <v>19315.010404396835</v>
+        <v>2736.454846911367</v>
       </c>
       <c r="F33" s="4">
-        <v>21789.913775083463</v>
+        <v>3302.528221042855</v>
       </c>
       <c r="G33" s="4">
-        <v>23935.972436623611</v>
+        <v>3814.2748549877178</v>
       </c>
       <c r="H33" s="4">
-        <v>27075.249083932416</v>
+        <v>4289.9601635952386</v>
       </c>
       <c r="I33" s="4">
-        <v>28554.246984933845</v>
+        <v>4778.0129583438174</v>
       </c>
       <c r="J33" s="4">
-        <v>31101.586477133867</v>
+        <v>5029.0353408442479</v>
       </c>
       <c r="K33" s="4">
-        <v>34463.947149780055</v>
+        <v>5555.7937083475945</v>
       </c>
       <c r="L33" s="4">
-        <v>38263.926571096286</v>
+        <v>6619.7393930386088</v>
       </c>
       <c r="M33" s="4">
-        <v>41975.915611894008</v>
+        <v>6242.0537316948939</v>
       </c>
       <c r="N33" s="4">
-        <v>46695.324648343376</v>
+        <v>7709.440605150402</v>
       </c>
       <c r="O33" s="4">
-        <v>50435.383954378289</v>
+        <v>9256.316778799468</v>
       </c>
       <c r="P33" s="4">
-        <v>55498.232539387594</v>
+        <v>9595.6773922953253</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>181</v>
+      <c r="A34" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="B34" s="4">
-        <v>3039.7154022535533</v>
+        <v>10473.147526810244</v>
       </c>
       <c r="C34" s="4">
-        <v>2579.2558856938931</v>
+        <v>12114.822819041465</v>
       </c>
       <c r="D34" s="4">
-        <v>2353.1987240267472</v>
+        <v>13531.80818338035</v>
       </c>
       <c r="E34" s="4">
-        <v>2736.454846911367</v>
+        <v>15435.275557485467</v>
       </c>
       <c r="F34" s="4">
-        <v>3302.528221042855</v>
+        <v>17212.110554040606</v>
       </c>
       <c r="G34" s="4">
-        <v>3814.2748549877178</v>
+        <v>18785.521581635894</v>
       </c>
       <c r="H34" s="4">
-        <v>4289.9601635952386</v>
+        <v>21293.612920337178</v>
       </c>
       <c r="I34" s="4">
-        <v>4778.0129583438174</v>
+        <v>22110.382026590029</v>
       </c>
       <c r="J34" s="4">
-        <v>5029.0353408442479</v>
+        <v>24349.750136289622</v>
       </c>
       <c r="K34" s="4">
-        <v>5555.7937083475945</v>
+        <v>26919.261805653769</v>
       </c>
       <c r="L34" s="4">
-        <v>6619.7393930386088</v>
+        <v>29401.905863880369</v>
       </c>
       <c r="M34" s="4">
-        <v>6242.0537316948939</v>
+        <v>33047.335664916245</v>
       </c>
       <c r="N34" s="4">
-        <v>7709.440605150402</v>
+        <v>36182.293043192971</v>
       </c>
       <c r="O34" s="4">
-        <v>9256.316778799468</v>
+        <v>38054.851389455333</v>
       </c>
       <c r="P34" s="4">
-        <v>9595.6773922953253</v>
+        <v>42698.500152270295</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>182</v>
+      <c r="A35" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="B35" s="4">
-        <v>10473.147526810244</v>
+        <v>3309.1047357403531</v>
       </c>
       <c r="C35" s="4">
-        <v>12114.822819041465</v>
+        <v>6063.6300832486431</v>
       </c>
       <c r="D35" s="4">
-        <v>13531.80818338035</v>
+        <v>6000.7140287686689</v>
       </c>
       <c r="E35" s="4">
-        <v>15435.275557485467</v>
+        <v>4495.5443052092269</v>
       </c>
       <c r="F35" s="4">
-        <v>17212.110554040606</v>
+        <v>4187.4454634555186</v>
       </c>
       <c r="G35" s="4">
-        <v>18785.521581635894</v>
+        <v>3789.8414066950672</v>
       </c>
       <c r="H35" s="4">
-        <v>21293.612920337178</v>
+        <v>3035.782587168088</v>
       </c>
       <c r="I35" s="4">
-        <v>22110.382026590029</v>
+        <v>3321.0241358869425</v>
       </c>
       <c r="J35" s="4">
-        <v>24349.750136289622</v>
+        <v>3589.083895732565</v>
       </c>
       <c r="K35" s="4">
-        <v>26919.261805653769</v>
+        <v>4170.8691241414908</v>
       </c>
       <c r="L35" s="4">
-        <v>29401.905863880369</v>
+        <v>4247.635212339912</v>
       </c>
       <c r="M35" s="4">
-        <v>33047.335664916245</v>
+        <v>6098.9140132438442</v>
       </c>
       <c r="N35" s="4">
-        <v>36182.293043192971</v>
+        <v>7275.7031804040453</v>
       </c>
       <c r="O35" s="4">
-        <v>38054.851389455333</v>
+        <v>3314.2958466811451</v>
       </c>
       <c r="P35" s="4">
-        <v>42698.500152270295</v>
+        <v>5212.1206595538406</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>183</v>
+      <c r="A36" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="B36" s="4">
-        <v>3309.1047357403531</v>
+        <v>4206.1956440841022</v>
       </c>
       <c r="C36" s="4">
-        <v>6063.6300832486431</v>
+        <v>6924.2373615412516</v>
       </c>
       <c r="D36" s="4">
-        <v>6000.7140287686689</v>
+        <v>6990.4474589261945</v>
       </c>
       <c r="E36" s="4">
-        <v>4495.5443052092269</v>
+        <v>5400.6692365846238</v>
       </c>
       <c r="F36" s="4">
-        <v>4187.4454634555186</v>
+        <v>5774.9973134824158</v>
       </c>
       <c r="G36" s="4">
-        <v>3789.8414066950672</v>
+        <v>5938.5082929207319</v>
       </c>
       <c r="H36" s="4">
-        <v>3035.782587168088</v>
+        <v>5416.3186964526149</v>
       </c>
       <c r="I36" s="4">
-        <v>3321.0241358869425</v>
+        <v>5527.4194467490224</v>
       </c>
       <c r="J36" s="4">
-        <v>3589.083895732565</v>
+        <v>6297.6116873888859</v>
       </c>
       <c r="K36" s="4">
-        <v>4170.8691241414908</v>
+        <v>7142.5808287399941</v>
       </c>
       <c r="L36" s="4">
-        <v>4247.635212339912</v>
+        <v>7447.8375374826119</v>
       </c>
       <c r="M36" s="4">
-        <v>6098.9140132438442</v>
+        <v>9650.817281878537</v>
       </c>
       <c r="N36" s="4">
-        <v>7275.7031804040453</v>
+        <v>10843.862730844161</v>
       </c>
       <c r="O36" s="4">
-        <v>3314.2958466811451</v>
+        <v>9653.8713857261137</v>
       </c>
       <c r="P36" s="4">
-        <v>5212.1206595538406</v>
+        <v>12913.85490863192</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>184</v>
+      <c r="A37" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="B37" s="4">
-        <v>4206.1956440841022</v>
+        <v>-897.09090834374911</v>
       </c>
       <c r="C37" s="4">
-        <v>6924.2373615412516</v>
+        <v>-860.6072782926085</v>
       </c>
       <c r="D37" s="4">
-        <v>6990.4474589261945</v>
+        <v>-989.73343015752562</v>
       </c>
       <c r="E37" s="4">
-        <v>5400.6692365846238</v>
+        <v>-905.12493137539695</v>
       </c>
       <c r="F37" s="4">
-        <v>5774.9973134824158</v>
+        <v>-1587.5518500268972</v>
       </c>
       <c r="G37" s="4">
-        <v>5938.5082929207319</v>
+        <v>-2148.6668862256647</v>
       </c>
       <c r="H37" s="4">
-        <v>5416.3186964526149</v>
+        <v>-2380.5361092845269</v>
       </c>
       <c r="I37" s="4">
-        <v>5527.4194467490224</v>
+        <v>-2206.3953108620799</v>
       </c>
       <c r="J37" s="4">
-        <v>6297.6116873888859</v>
+        <v>-2708.5277916563209</v>
       </c>
       <c r="K37" s="4">
-        <v>7142.5808287399941</v>
+        <v>-2971.7117045985033</v>
       </c>
       <c r="L37" s="4">
-        <v>7447.8375374826119</v>
+        <v>-3200.2023251426999</v>
       </c>
       <c r="M37" s="4">
-        <v>9650.817281878537</v>
+        <v>-3551.9032686346927</v>
       </c>
       <c r="N37" s="4">
-        <v>10843.862730844161</v>
+        <v>-3568.1595504401157</v>
       </c>
       <c r="O37" s="4">
-        <v>9653.8713857261137</v>
+        <v>-6339.5755390449685</v>
       </c>
       <c r="P37" s="4">
-        <v>12913.85490863192</v>
+        <v>-7701.7342490780793</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>185</v>
+      <c r="A38" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="B38" s="4">
-        <v>-897.09090834374911</v>
+        <v>-1774.7724851904677</v>
       </c>
       <c r="C38" s="4">
-        <v>-860.6072782926085</v>
+        <v>-3470.8253209444047</v>
       </c>
       <c r="D38" s="4">
-        <v>-989.73343015752562</v>
+        <v>-4074.815340613337</v>
       </c>
       <c r="E38" s="4">
-        <v>-905.12493137539695</v>
+        <v>-2947.1871485204756</v>
       </c>
       <c r="F38" s="4">
-        <v>-1587.5518500268972</v>
+        <v>-2583.567174009564</v>
       </c>
       <c r="G38" s="4">
-        <v>-2148.6668862256647</v>
+        <v>-2310.3495440953366</v>
       </c>
       <c r="H38" s="4">
-        <v>-2380.5361092845269</v>
+        <v>-2693.3111325882937</v>
       </c>
       <c r="I38" s="4">
-        <v>-2206.3953108620799</v>
+        <v>-1634.6874876561487</v>
       </c>
       <c r="J38" s="4">
-        <v>-2708.5277916563209</v>
+        <v>-1474.4947911413001</v>
       </c>
       <c r="K38" s="4">
-        <v>-2971.7117045985033</v>
+        <v>-997.23027842948613</v>
       </c>
       <c r="L38" s="4">
-        <v>-3200.2023251426999</v>
+        <v>-1452.7192314646454</v>
       </c>
       <c r="M38" s="4">
-        <v>-3551.9032686346927</v>
+        <v>-2188.5276084677789</v>
       </c>
       <c r="N38" s="4">
-        <v>-3568.1595504401157</v>
+        <v>-2935.8113224403569</v>
       </c>
       <c r="O38" s="4">
-        <v>-6339.5755390449685</v>
+        <v>-4314.0304176820555</v>
       </c>
       <c r="P38" s="4">
-        <v>-7701.7342490780793</v>
+        <v>-4965.9673352441187</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>186</v>
+      <c r="A39" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="B39" s="4">
-        <v>-1774.7724851904677</v>
+        <v>4440.1906395656097</v>
       </c>
       <c r="C39" s="4">
-        <v>-3470.8253209444047</v>
+        <v>5076.6550643413684</v>
       </c>
       <c r="D39" s="4">
-        <v>-4074.815340613337</v>
+        <v>3833.2224663407633</v>
       </c>
       <c r="E39" s="4">
-        <v>-2947.1871485204756</v>
+        <v>4563.732409342053</v>
       </c>
       <c r="F39" s="4">
-        <v>-2583.567174009564</v>
+        <v>5314.9850298326955</v>
       </c>
       <c r="G39" s="4">
-        <v>-2310.3495440953366</v>
+        <v>5535.6640255079246</v>
       </c>
       <c r="H39" s="4">
-        <v>-2693.3111325882937</v>
+        <v>6380.6974586243932</v>
       </c>
       <c r="I39" s="4">
-        <v>-1634.6874876561487</v>
+        <v>8552.6152437187593</v>
       </c>
       <c r="J39" s="4">
-        <v>-1474.4947911413001</v>
+        <v>9430.286867317267</v>
       </c>
       <c r="K39" s="4">
-        <v>-997.23027842948613</v>
+        <v>10949.740839439119</v>
       </c>
       <c r="L39" s="4">
-        <v>-1452.7192314646454</v>
+        <v>12688.262555974658</v>
       </c>
       <c r="M39" s="4">
-        <v>-2188.5276084677789</v>
+        <v>14470.715058101243</v>
       </c>
       <c r="N39" s="4">
-        <v>-2935.8113224403569</v>
+        <v>14506.454714884025</v>
       </c>
       <c r="O39" s="4">
-        <v>-4314.0304176820555</v>
+        <v>9957.3655178403296</v>
       </c>
       <c r="P39" s="4">
-        <v>-4965.9673352441187</v>
+        <v>12695.388029817879</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>187</v>
+      <c r="A40" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="B40" s="4">
-        <v>4440.1906395656097</v>
+        <v>6214.9631247560774</v>
       </c>
       <c r="C40" s="4">
-        <v>5076.6550643413684</v>
+        <v>8547.4803852857731</v>
       </c>
       <c r="D40" s="4">
-        <v>3833.2224663407633</v>
+        <v>7908.0378069541002</v>
       </c>
       <c r="E40" s="4">
-        <v>4563.732409342053</v>
+        <v>7510.9195578625286</v>
       </c>
       <c r="F40" s="4">
-        <v>5314.9850298326955</v>
+        <v>7898.5522038422596</v>
       </c>
       <c r="G40" s="4">
-        <v>5535.6640255079246</v>
+        <v>7846.0135696032612</v>
       </c>
       <c r="H40" s="4">
-        <v>6380.6974586243932</v>
+        <v>9074.008591212687</v>
       </c>
       <c r="I40" s="4">
-        <v>8552.6152437187593</v>
+        <v>10187.302731374908</v>
       </c>
       <c r="J40" s="4">
-        <v>9430.286867317267</v>
+        <v>10904.781658458567</v>
       </c>
       <c r="K40" s="4">
-        <v>10949.740839439119</v>
+        <v>11946.971117868605</v>
       </c>
       <c r="L40" s="4">
-        <v>12688.262555974658</v>
+        <v>14140.981787439303</v>
       </c>
       <c r="M40" s="4">
-        <v>14470.715058101243</v>
+        <v>16659.242666569022</v>
       </c>
       <c r="N40" s="4">
-        <v>14506.454714884025</v>
+        <v>17442.266037324382</v>
       </c>
       <c r="O40" s="4">
-        <v>9957.3655178403296</v>
+        <v>14271.395935522385</v>
       </c>
       <c r="P40" s="4">
-        <v>12695.388029817879</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="4">
-        <v>6214.9631247560774</v>
-      </c>
-      <c r="C41" s="4">
-        <v>8547.4803852857731</v>
-      </c>
-      <c r="D41" s="4">
-        <v>7908.0378069541002</v>
-      </c>
-      <c r="E41" s="4">
-        <v>7510.9195578625286</v>
-      </c>
-      <c r="F41" s="4">
-        <v>7898.5522038422596</v>
-      </c>
-      <c r="G41" s="4">
-        <v>7846.0135696032612</v>
-      </c>
-      <c r="H41" s="4">
-        <v>9074.008591212687</v>
-      </c>
-      <c r="I41" s="4">
-        <v>10187.302731374908</v>
-      </c>
-      <c r="J41" s="4">
-        <v>10904.781658458567</v>
-      </c>
-      <c r="K41" s="4">
-        <v>11946.971117868605</v>
-      </c>
-      <c r="L41" s="4">
-        <v>14140.981787439303</v>
-      </c>
-      <c r="M41" s="4">
-        <v>16659.242666569022</v>
-      </c>
-      <c r="N41" s="4">
-        <v>17442.266037324382</v>
-      </c>
-      <c r="O41" s="4">
-        <v>14271.395935522385</v>
-      </c>
-      <c r="P41" s="4">
         <v>17661.355365061998</v>
       </c>
     </row>
@@ -3102,21 +3055,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="16" width="8.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
+      <c r="A1" s="10"/>
       <c r="B1" s="2">
         <v>2007</v>
       </c>
@@ -3164,7 +3117,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B2" s="4">
@@ -3214,7 +3167,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B3" s="4">
@@ -3264,7 +3217,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B4" s="4">
@@ -3314,7 +3267,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="4">
@@ -3364,7 +3317,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B6" s="4">
@@ -3414,7 +3367,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>116</v>
       </c>
       <c r="B7" s="4">
@@ -3464,7 +3417,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B8" s="4">
@@ -3514,7 +3467,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B9" s="4">
@@ -3564,7 +3517,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B10" s="4">
@@ -3614,7 +3567,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B11" s="4">
@@ -3664,7 +3617,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B12" s="4">
@@ -3714,7 +3667,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B13" s="4">
@@ -3764,7 +3717,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B14" s="4">
@@ -3814,7 +3767,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B15" s="4">
@@ -3864,7 +3817,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B16" s="4">
@@ -3914,7 +3867,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B17" s="4">
@@ -3964,7 +3917,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B18" s="4">
@@ -4014,7 +3967,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="4">
@@ -4064,7 +4017,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="4">
@@ -4114,7 +4067,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B21" s="4">
@@ -4164,7 +4117,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>131</v>
       </c>
       <c r="B22" s="4">
@@ -4214,7 +4167,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>132</v>
       </c>
       <c r="B23" s="4">
@@ -4264,7 +4217,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>133</v>
       </c>
       <c r="B24" s="4">
@@ -4314,7 +4267,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>134</v>
       </c>
       <c r="B25" s="4">
@@ -4364,7 +4317,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>135</v>
       </c>
       <c r="B26" s="4">
@@ -4414,7 +4367,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B27" s="4">
@@ -4464,7 +4417,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B28" s="4">
@@ -4514,7 +4467,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>138</v>
       </c>
       <c r="B29" s="4">
@@ -4564,7 +4517,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>139</v>
       </c>
       <c r="B30" s="4">
@@ -4614,7 +4567,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>140</v>
       </c>
       <c r="B31" s="4">
@@ -4664,522 +4617,472 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>140</v>
+      <c r="A32" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="B32" s="4">
-        <v>15974.088179613685</v>
+        <v>14439.755929063798</v>
       </c>
       <c r="C32" s="4">
-        <v>17046.37002107517</v>
+        <v>14694.713206880762</v>
       </c>
       <c r="D32" s="4">
-        <v>16368.144628857179</v>
+        <v>14531.767038744361</v>
       </c>
       <c r="E32" s="4">
-        <v>16469.502686110784</v>
+        <v>14875.842011647039</v>
       </c>
       <c r="F32" s="4">
-        <v>16729.461771710841</v>
+        <v>15153.11117507539</v>
       </c>
       <c r="G32" s="4">
-        <v>17233.210644490959</v>
+        <v>15441.832098609557</v>
       </c>
       <c r="H32" s="4">
-        <v>17629.639326241249</v>
+        <v>16353.971669141254</v>
       </c>
       <c r="I32" s="4">
-        <v>18218.328791412023</v>
+        <v>16092.653073871021</v>
       </c>
       <c r="J32" s="4">
-        <v>18788.981152969973</v>
+        <v>16484.421719148442</v>
       </c>
       <c r="K32" s="4">
-        <v>19539.252614422283</v>
+        <v>17015.196355344422</v>
       </c>
       <c r="L32" s="4">
-        <v>20307.791521385152</v>
+        <v>17552.084516586721</v>
       </c>
       <c r="M32" s="4">
-        <v>20956.49478290039</v>
+        <v>16965.12210229841</v>
       </c>
       <c r="N32" s="4">
-        <v>21880.934414123076</v>
+        <v>17298.568922754559</v>
       </c>
       <c r="O32" s="4">
-        <v>20319.145167946721</v>
+        <v>18111.879886567316</v>
       </c>
       <c r="P32" s="4">
-        <v>21485.386021716135</v>
+        <v>18571.78239141509</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>141</v>
+      <c r="A33" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="B33" s="4">
-        <v>14439.755929063798</v>
+        <v>3039.7154022535533</v>
       </c>
       <c r="C33" s="4">
-        <v>14694.713206880762</v>
+        <v>2553.7072061922831</v>
       </c>
       <c r="D33" s="4">
-        <v>14531.767038744361</v>
+        <v>2199.1538329722057</v>
       </c>
       <c r="E33" s="4">
-        <v>14875.842011647039</v>
+        <v>2085.852693652329</v>
       </c>
       <c r="F33" s="4">
-        <v>15153.11117507539</v>
+        <v>2135.3544539130976</v>
       </c>
       <c r="G33" s="4">
-        <v>15441.832098609557</v>
+        <v>2131.5403355986664</v>
       </c>
       <c r="H33" s="4">
-        <v>16353.971669141254</v>
+        <v>2184.2112431897344</v>
       </c>
       <c r="I33" s="4">
-        <v>16092.653073871021</v>
+        <v>2247.4319761593242</v>
       </c>
       <c r="J33" s="4">
-        <v>16484.421719148442</v>
+        <v>2259.0693731531119</v>
       </c>
       <c r="K33" s="4">
-        <v>17015.196355344422</v>
+        <v>2252.5441377373236</v>
       </c>
       <c r="L33" s="4">
-        <v>17552.084516586721</v>
+        <v>2566.0062410546661</v>
       </c>
       <c r="M33" s="4">
-        <v>16965.12210229841</v>
+        <v>1626.7680704031063</v>
       </c>
       <c r="N33" s="4">
-        <v>17298.568922754559</v>
+        <v>1627.1466109889368</v>
       </c>
       <c r="O33" s="4">
-        <v>18111.879886567316</v>
+        <v>2021.9236799452647</v>
       </c>
       <c r="P33" s="4">
-        <v>18571.78239141509</v>
+        <v>2025.1146214586856</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>142</v>
+      <c r="A34" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="B34" s="4">
-        <v>3039.7154022535533</v>
+        <v>10473.147526810244</v>
       </c>
       <c r="C34" s="4">
-        <v>2553.7072061922831</v>
+        <v>11115.635367665687</v>
       </c>
       <c r="D34" s="4">
-        <v>2199.1538329722057</v>
+        <v>11396.495749792739</v>
       </c>
       <c r="E34" s="4">
-        <v>2085.852693652329</v>
+        <v>11918.52832155603</v>
       </c>
       <c r="F34" s="4">
-        <v>2135.3544539130976</v>
+        <v>12193.187188686315</v>
       </c>
       <c r="G34" s="4">
-        <v>2131.5403355986664</v>
+        <v>12563.593334675406</v>
       </c>
       <c r="H34" s="4">
-        <v>2184.2112431897344</v>
+        <v>13410.281231238956</v>
       </c>
       <c r="I34" s="4">
-        <v>2247.4319761593242</v>
+        <v>13061.65498246895</v>
       </c>
       <c r="J34" s="4">
-        <v>2259.0693731531119</v>
+        <v>13451.46099082259</v>
       </c>
       <c r="K34" s="4">
-        <v>2252.5441377373236</v>
+        <v>13956.274869931864</v>
       </c>
       <c r="L34" s="4">
-        <v>2566.0062410546661</v>
+        <v>14116.903901019685</v>
       </c>
       <c r="M34" s="4">
-        <v>1626.7680704031063</v>
+        <v>14638.207052203028</v>
       </c>
       <c r="N34" s="4">
-        <v>1627.1466109889368</v>
+        <v>15079.699276607729</v>
       </c>
       <c r="O34" s="4">
-        <v>2021.9236799452647</v>
+        <v>15407.511338951781</v>
       </c>
       <c r="P34" s="4">
-        <v>2025.1146214586856</v>
+        <v>15870.469691102526</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>143</v>
+      <c r="A35" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="B35" s="4">
-        <v>10473.147526810244</v>
+        <v>3309.1047357403531</v>
       </c>
       <c r="C35" s="4">
-        <v>11115.635367665687</v>
+        <v>5867.4143888682293</v>
       </c>
       <c r="D35" s="4">
-        <v>11396.495749792739</v>
+        <v>5064.0338888574734</v>
       </c>
       <c r="E35" s="4">
-        <v>11918.52832155603</v>
+        <v>4194.6744088412397</v>
       </c>
       <c r="F35" s="4">
-        <v>12193.187188686315</v>
+        <v>4087.1764841483637</v>
       </c>
       <c r="G35" s="4">
-        <v>12563.593334675406</v>
+        <v>4279.6880301281699</v>
       </c>
       <c r="H35" s="4">
-        <v>13410.281231238956</v>
+        <v>4050.6608513162128</v>
       </c>
       <c r="I35" s="4">
-        <v>13061.65498246895</v>
+        <v>3650.4789173146874</v>
       </c>
       <c r="J35" s="4">
-        <v>13451.46099082259</v>
+        <v>4375.7017754263834</v>
       </c>
       <c r="K35" s="4">
-        <v>13956.274869931864</v>
+        <v>5054.7625560805236</v>
       </c>
       <c r="L35" s="4">
-        <v>14116.903901019685</v>
+        <v>4557.9315664883543</v>
       </c>
       <c r="M35" s="4">
-        <v>14638.207052203028</v>
+        <v>6766.4653503359768</v>
       </c>
       <c r="N35" s="4">
-        <v>15079.699276607729</v>
+        <v>6904.6772566118434</v>
       </c>
       <c r="O35" s="4">
-        <v>15407.511338951781</v>
+        <v>6168.9186772302755</v>
       </c>
       <c r="P35" s="4">
-        <v>15870.469691102526</v>
+        <v>4669.1639267378941</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>144</v>
+      <c r="A36" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="B36" s="4">
-        <v>3309.1047357403531</v>
+        <v>4206.1956440841022</v>
       </c>
       <c r="C36" s="4">
-        <v>5867.4143888682293</v>
+        <v>6829.8704113672848</v>
       </c>
       <c r="D36" s="4">
-        <v>5064.0338888574734</v>
+        <v>5936.1121985147702</v>
       </c>
       <c r="E36" s="4">
-        <v>4194.6744088412397</v>
+        <v>4893.1027745972851</v>
       </c>
       <c r="F36" s="4">
-        <v>4087.1764841483637</v>
+        <v>4924.8418634023355</v>
       </c>
       <c r="G36" s="4">
-        <v>4279.6880301281699</v>
+        <v>5075.0075708382383</v>
       </c>
       <c r="H36" s="4">
-        <v>4050.6608513162128</v>
+        <v>4672.9625331652342</v>
       </c>
       <c r="I36" s="4">
-        <v>3650.4789173146874</v>
+        <v>4620.4669903392141</v>
       </c>
       <c r="J36" s="4">
-        <v>4375.7017754263834</v>
+        <v>4669.2273866587457</v>
       </c>
       <c r="K36" s="4">
-        <v>5054.7625560805236</v>
+        <v>5204.8841746665203</v>
       </c>
       <c r="L36" s="4">
-        <v>4557.9315664883543</v>
+        <v>5111.8424228775493</v>
       </c>
       <c r="M36" s="4">
-        <v>6766.4653503359768</v>
+        <v>5657.2520727533865</v>
       </c>
       <c r="N36" s="4">
-        <v>6904.6772566118434</v>
+        <v>6378.5855925324977</v>
       </c>
       <c r="O36" s="4">
-        <v>6168.9186772302755</v>
+        <v>5721.6400924443033</v>
       </c>
       <c r="P36" s="4">
-        <v>4669.1639267378941</v>
+        <v>6449.6486618809167</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>145</v>
+      <c r="A37" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B37" s="4">
-        <v>4206.1956440841022</v>
+        <v>-897.09090834374911</v>
       </c>
       <c r="C37" s="4">
-        <v>6829.8704113672848</v>
+        <v>-962.45602249905551</v>
       </c>
       <c r="D37" s="4">
-        <v>5936.1121985147702</v>
+        <v>-872.07830965729727</v>
       </c>
       <c r="E37" s="4">
-        <v>4893.1027745972851</v>
+        <v>-698.42836575604542</v>
       </c>
       <c r="F37" s="4">
-        <v>4924.8418634023355</v>
+        <v>-837.66537925397188</v>
       </c>
       <c r="G37" s="4">
-        <v>5075.0075708382383</v>
+        <v>-795.3195407100684</v>
       </c>
       <c r="H37" s="4">
-        <v>4672.9625331652342</v>
+        <v>-622.30168184902141</v>
       </c>
       <c r="I37" s="4">
-        <v>4620.4669903392141</v>
+        <v>-969.98807302452678</v>
       </c>
       <c r="J37" s="4">
-        <v>4669.2273866587457</v>
+        <v>-293.52561123236228</v>
       </c>
       <c r="K37" s="4">
-        <v>5204.8841746665203</v>
+        <v>-150.12161858599666</v>
       </c>
       <c r="L37" s="4">
-        <v>5111.8424228775493</v>
+        <v>-553.91085638919503</v>
       </c>
       <c r="M37" s="4">
-        <v>5657.2520727533865</v>
+        <v>1109.2132775825903</v>
       </c>
       <c r="N37" s="4">
-        <v>6378.5855925324977</v>
+        <v>526.09166407934572</v>
       </c>
       <c r="O37" s="4">
-        <v>5721.6400924443033</v>
+        <v>447.27858478597227</v>
       </c>
       <c r="P37" s="4">
-        <v>6449.6486618809167</v>
+        <v>-1780.4847351430226</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>146</v>
+      <c r="A38" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="B38" s="4">
-        <v>-897.09090834374911</v>
+        <v>-1774.7724851904677</v>
       </c>
       <c r="C38" s="4">
-        <v>-962.45602249905551</v>
+        <v>-3515.7575746738212</v>
       </c>
       <c r="D38" s="4">
-        <v>-872.07830965729727</v>
+        <v>-3227.6562987446555</v>
       </c>
       <c r="E38" s="4">
-        <v>-698.42836575604542</v>
+        <v>-2601.013734377495</v>
       </c>
       <c r="F38" s="4">
-        <v>-837.66537925397188</v>
+        <v>-2510.8258875129086</v>
       </c>
       <c r="G38" s="4">
-        <v>-795.3195407100684</v>
+        <v>-2488.3094842467681</v>
       </c>
       <c r="H38" s="4">
-        <v>-622.30168184902141</v>
+        <v>-2774.9931942162175</v>
       </c>
       <c r="I38" s="4">
-        <v>-969.98807302452678</v>
+        <v>-1524.8031997736816</v>
       </c>
       <c r="J38" s="4">
-        <v>-293.52561123236228</v>
+        <v>-2071.1423416048528</v>
       </c>
       <c r="K38" s="4">
-        <v>-150.12161858599666</v>
+        <v>-2530.7062970026627</v>
       </c>
       <c r="L38" s="4">
-        <v>-553.91085638919503</v>
+        <v>-1802.2245616899236</v>
       </c>
       <c r="M38" s="4">
-        <v>1109.2132775825903</v>
+        <v>-2775.0926697339964</v>
       </c>
       <c r="N38" s="4">
-        <v>526.09166407934572</v>
+        <v>-2322.3117652433266</v>
       </c>
       <c r="O38" s="4">
-        <v>447.27858478597227</v>
+        <v>-3961.6533958508708</v>
       </c>
       <c r="P38" s="4">
-        <v>-1780.4847351430226</v>
+        <v>-1755.5602964368536</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>147</v>
+      <c r="A39" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="B39" s="4">
-        <v>-1774.7724851904677</v>
+        <v>4440.1906395656097</v>
       </c>
       <c r="C39" s="4">
-        <v>-3515.7575746738212</v>
+        <v>5000.3471440870917</v>
       </c>
       <c r="D39" s="4">
-        <v>-3227.6562987446555</v>
+        <v>3770.5879545878811</v>
       </c>
       <c r="E39" s="4">
-        <v>-2601.013734377495</v>
+        <v>3984.9455597519636</v>
       </c>
       <c r="F39" s="4">
-        <v>-2510.8258875129086</v>
+        <v>4241.801842822375</v>
       </c>
       <c r="G39" s="4">
-        <v>-2488.3094842467681</v>
+        <v>4031.3446385104744</v>
       </c>
       <c r="H39" s="4">
-        <v>-2774.9931942162175</v>
+        <v>4457.9569231938976</v>
       </c>
       <c r="I39" s="4">
-        <v>-1524.8031997736816</v>
+        <v>6212.405355385974</v>
       </c>
       <c r="J39" s="4">
-        <v>-2071.1423416048528</v>
+        <v>6172.5274175940485</v>
       </c>
       <c r="K39" s="4">
-        <v>-2530.7062970026627</v>
+        <v>6112.0291395790528</v>
       </c>
       <c r="L39" s="4">
-        <v>-1802.2245616899236</v>
+        <v>8886.6441061354726</v>
       </c>
       <c r="M39" s="4">
-        <v>-2775.0926697339964</v>
+        <v>9104.3044827933973</v>
       </c>
       <c r="N39" s="4">
-        <v>-2322.3117652433266</v>
+        <v>10097.783576744807</v>
       </c>
       <c r="O39" s="4">
-        <v>-3961.6533958508708</v>
+        <v>6398.3871457813484</v>
       </c>
       <c r="P39" s="4">
-        <v>-1755.5602964368536</v>
+        <v>9917.9382909094202</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>148</v>
+      <c r="A40" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="B40" s="4">
-        <v>4440.1906395656097</v>
+        <v>6214.9631247560774</v>
       </c>
       <c r="C40" s="4">
-        <v>5000.3471440870917</v>
+        <v>8516.1047187609129</v>
       </c>
       <c r="D40" s="4">
-        <v>3770.5879545878811</v>
+        <v>6998.2442533325366</v>
       </c>
       <c r="E40" s="4">
-        <v>3984.9455597519636</v>
+        <v>6585.9592941294586</v>
       </c>
       <c r="F40" s="4">
-        <v>4241.801842822375</v>
+        <v>6752.6277303352836</v>
       </c>
       <c r="G40" s="4">
-        <v>4031.3446385104744</v>
+        <v>6519.6541227572425</v>
       </c>
       <c r="H40" s="4">
-        <v>4457.9569231938976</v>
+        <v>7232.9501174101151</v>
       </c>
       <c r="I40" s="4">
-        <v>6212.405355385974</v>
+        <v>7737.2085551596556</v>
       </c>
       <c r="J40" s="4">
-        <v>6172.5274175940485</v>
+        <v>8243.6697591989014</v>
       </c>
       <c r="K40" s="4">
-        <v>6112.0291395790528</v>
+        <v>8642.7354365817155</v>
       </c>
       <c r="L40" s="4">
-        <v>8886.6441061354726</v>
+        <v>10688.868667825396</v>
       </c>
       <c r="M40" s="4">
-        <v>9104.3044827933973</v>
+        <v>11879.397152527394</v>
       </c>
       <c r="N40" s="4">
-        <v>10097.783576744807</v>
+        <v>12420.095341988133</v>
       </c>
       <c r="O40" s="4">
-        <v>6398.3871457813484</v>
+        <v>10360.040541632219</v>
       </c>
       <c r="P40" s="4">
-        <v>9917.9382909094202</v>
+        <v>11673.498587346274</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="4">
-        <v>6214.9631247560774</v>
-      </c>
-      <c r="C41" s="4">
-        <v>8516.1047187609129</v>
-      </c>
-      <c r="D41" s="4">
-        <v>6998.2442533325366</v>
-      </c>
-      <c r="E41" s="4">
-        <v>6585.9592941294586</v>
-      </c>
-      <c r="F41" s="4">
-        <v>6752.6277303352836</v>
-      </c>
-      <c r="G41" s="4">
-        <v>6519.6541227572425</v>
-      </c>
-      <c r="H41" s="4">
-        <v>7232.9501174101151</v>
-      </c>
-      <c r="I41" s="4">
-        <v>7737.2085551596556</v>
-      </c>
-      <c r="J41" s="4">
-        <v>8243.6697591989014</v>
-      </c>
-      <c r="K41" s="4">
-        <v>8642.7354365817155</v>
-      </c>
-      <c r="L41" s="4">
-        <v>10688.868667825396</v>
-      </c>
-      <c r="M41" s="4">
-        <v>11879.397152527394</v>
-      </c>
-      <c r="N41" s="4">
-        <v>12420.095341988133</v>
-      </c>
-      <c r="O41" s="4">
-        <v>10360.040541632219</v>
-      </c>
-      <c r="P41" s="4">
-        <v>11673.498587346274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5195,7 +5098,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5217,7 +5120,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="8">
         <v>2007</v>
       </c>
@@ -5265,7 +5168,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="4">
@@ -5315,7 +5218,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="4">
@@ -5365,7 +5268,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="4">
@@ -5415,7 +5318,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="4">
@@ -5465,7 +5368,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="4">
@@ -5515,7 +5418,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="4">
@@ -5565,7 +5468,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="4">
@@ -5615,7 +5518,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="4">
@@ -5665,7 +5568,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="4">
@@ -5715,7 +5618,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="4">
@@ -5765,7 +5668,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="4">
@@ -5815,7 +5718,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="4">
@@ -5865,7 +5768,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="4">
@@ -5915,7 +5818,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="4">
@@ -5965,7 +5868,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="4">
@@ -6015,7 +5918,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="4">
@@ -6065,7 +5968,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="4">
@@ -6115,7 +6018,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="4">
@@ -6165,7 +6068,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B20" s="4">
@@ -6215,7 +6118,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B21" s="4">
@@ -6265,7 +6168,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B22" s="4">
@@ -6315,7 +6218,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B23" s="4">
@@ -6365,7 +6268,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B24" s="4">
@@ -6415,7 +6318,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B25" s="4">
@@ -6465,7 +6368,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="4">
@@ -6515,7 +6418,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="4">
@@ -6565,7 +6468,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B28" s="4">
@@ -6615,7 +6518,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B29" s="4">
@@ -6665,7 +6568,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="4">
@@ -6715,7 +6618,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B31" s="4">
@@ -6765,7 +6668,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B32" s="4">
@@ -6815,7 +6718,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B33" s="4">
@@ -6865,7 +6768,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B34" s="4">
@@ -6915,7 +6818,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B35" s="4">
@@ -6965,7 +6868,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B36" s="4">
@@ -7015,7 +6918,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B37" s="4">
@@ -7065,7 +6968,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B38" s="4">
@@ -7115,7 +7018,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B39" s="4">
@@ -7165,7 +7068,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="4">
@@ -7215,7 +7118,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B41" s="4">
@@ -7265,7 +7168,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B42" s="4">
@@ -7315,7 +7218,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B43" s="4">
@@ -7365,7 +7268,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B44" s="4">
@@ -7415,7 +7318,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B45" s="4">
@@ -7465,7 +7368,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B46" s="4">
@@ -7515,7 +7418,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B47" s="4">
@@ -7565,7 +7468,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B48" s="4">
@@ -7615,7 +7518,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -7665,7 +7568,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -7715,7 +7618,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="4">
@@ -7765,7 +7668,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B52" s="4">
@@ -7815,7 +7718,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B53" s="4">
@@ -7878,7 +7781,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7942,7 +7845,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="4">
@@ -7992,7 +7895,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="4">
@@ -8042,7 +7945,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="4">
@@ -8092,7 +7995,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="4">
@@ -8142,7 +8045,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="4">
@@ -8192,7 +8095,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4">
@@ -8242,7 +8145,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="4">
@@ -8292,7 +8195,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="4">
@@ -8342,7 +8245,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4">
@@ -8392,7 +8295,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="4">
@@ -8442,7 +8345,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="4">
@@ -8492,7 +8395,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="4">
@@ -8542,7 +8445,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="4">
@@ -8592,7 +8495,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="4">
@@ -8642,7 +8545,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="4">
@@ -8692,7 +8595,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="4">
@@ -8742,7 +8645,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="4">
@@ -8792,7 +8695,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="4">
@@ -8842,7 +8745,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="4">
@@ -8892,7 +8795,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="4">
@@ -8942,7 +8845,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="4">
@@ -8992,7 +8895,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="4">
@@ -9042,7 +8945,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="4">
@@ -9092,7 +8995,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="4">
@@ -9142,7 +9045,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="4">
@@ -9192,7 +9095,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="4">
@@ -9242,7 +9145,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
@@ -9292,7 +9195,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="4">
@@ -9342,7 +9245,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
@@ -9392,7 +9295,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="4">
@@ -9442,7 +9345,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="4">
@@ -9492,7 +9395,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="4">
@@ -9542,7 +9445,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="4">
@@ -9592,7 +9495,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="4">
@@ -9642,7 +9545,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="4">
@@ -9692,7 +9595,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="4">
@@ -9742,7 +9645,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="4">
@@ -9792,7 +9695,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="4">
@@ -9842,7 +9745,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="4">
@@ -9892,7 +9795,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="4">
@@ -9942,7 +9845,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="4">
@@ -10005,7 +9908,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10971,4 +10874,167 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2019</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2">
+        <v>0.27190000000000003</v>
+      </c>
+      <c r="C2">
+        <v>0.3397</v>
+      </c>
+      <c r="D2">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="E2">
+        <v>0.3246</v>
+      </c>
+      <c r="F2">
+        <v>0.38150000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.4803</v>
+      </c>
+      <c r="H2">
+        <v>0.50759999999999994</v>
+      </c>
+      <c r="I2">
+        <v>0.49909999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="K2">
+        <v>0.46840000000000004</v>
+      </c>
+      <c r="L2">
+        <v>0.52439999999999998</v>
+      </c>
+      <c r="M2">
+        <v>0.43479999999999996</v>
+      </c>
+      <c r="N2">
+        <v>0.39880000000000004</v>
+      </c>
+      <c r="O2">
+        <v>0.42659999999999998</v>
+      </c>
+      <c r="P2">
+        <v>0.38069999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3">
+        <v>0.40279999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.44</v>
+      </c>
+      <c r="D3">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.46</v>
+      </c>
+      <c r="F3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.56130000000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.58979999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.6</v>
+      </c>
+      <c r="J3">
+        <v>0.56720000000000004</v>
+      </c>
+      <c r="K3">
+        <v>0.6</v>
+      </c>
+      <c r="L3">
+        <v>0.6</v>
+      </c>
+      <c r="M3">
+        <v>0.55390000000000006</v>
+      </c>
+      <c r="N3">
+        <v>0.49</v>
+      </c>
+      <c r="O3">
+        <v>0.48869999999999997</v>
+      </c>
+      <c r="P3">
+        <v>0.48280000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>